--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,39 @@
     <t>['9', '70']</t>
   </si>
   <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['3', '51', '66', '70']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['83', '88']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['42', '64']</t>
+  </si>
+  <si>
+    <t>['35', '71']</t>
+  </si>
+  <si>
+    <t>['34', '45+3']</t>
+  </si>
+  <si>
+    <t>['19', '70']</t>
+  </si>
+  <si>
+    <t>['9', '18', '48', '74', '90+5']</t>
+  </si>
+  <si>
+    <t>['42', '43', '82']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -550,13 +583,31 @@
     <t>['25', '29', '42']</t>
   </si>
   <si>
-    <t>['45+4']</t>
-  </si>
-  <si>
     <t>['27', '60', '88']</t>
   </si>
   <si>
     <t>['52', '54']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['70', '76']</t>
+  </si>
+  <si>
+    <t>['72', '75', '80']</t>
+  </si>
+  <si>
+    <t>['20', '38']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['28', '58', '67']</t>
+  </si>
+  <si>
+    <t>['72', '81']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1589,7 +1640,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1667,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -2001,7 +2052,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2285,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>1.75</v>
@@ -2413,7 +2464,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2494,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2619,7 +2670,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2825,7 +2876,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3031,7 +3082,7 @@
         <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3237,7 +3288,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3315,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3443,7 +3494,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3521,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3727,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -4061,7 +4112,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4142,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4267,7 +4318,7 @@
         <v>112</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>2.95</v>
@@ -4348,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4885,7 +4936,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -4963,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -5091,7 +5142,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5297,7 +5348,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5503,7 +5554,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5787,10 +5838,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5993,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -6121,7 +6172,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6199,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6327,7 +6378,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6405,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6533,7 +6584,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6611,10 +6662,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6820,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7023,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ30">
         <v>1.33</v>
@@ -7151,7 +7202,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7563,7 +7614,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7769,7 +7820,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7850,7 +7901,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -7975,7 +8026,7 @@
         <v>127</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8181,7 +8232,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8259,7 +8310,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>3</v>
@@ -8387,7 +8438,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8593,7 +8644,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8877,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9005,7 +9056,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9083,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>3</v>
@@ -9289,7 +9340,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9417,7 +9468,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9498,7 +9549,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR42">
         <v>0.83</v>
@@ -9623,7 +9674,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -9829,7 +9880,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -9910,7 +9961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.94</v>
@@ -10035,7 +10086,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>2.6</v>
@@ -10241,7 +10292,7 @@
         <v>135</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10859,7 +10910,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10940,7 +10991,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11065,7 +11116,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11555,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11889,7 +11940,7 @@
         <v>143</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12095,7 +12146,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12301,7 +12352,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12379,7 +12430,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ56">
         <v>3</v>
@@ -12664,6 +12715,2684 @@
       </c>
       <c r="BP57">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7295292</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45374.625</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>147</v>
+      </c>
+      <c r="P58" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q58">
+        <v>2.5</v>
+      </c>
+      <c r="R58">
+        <v>2.3</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.3</v>
+      </c>
+      <c r="U58">
+        <v>3.4</v>
+      </c>
+      <c r="V58">
+        <v>2.5</v>
+      </c>
+      <c r="W58">
+        <v>1.5</v>
+      </c>
+      <c r="X58">
+        <v>6</v>
+      </c>
+      <c r="Y58">
+        <v>1.13</v>
+      </c>
+      <c r="Z58">
+        <v>2.01</v>
+      </c>
+      <c r="AA58">
+        <v>3.8</v>
+      </c>
+      <c r="AB58">
+        <v>3.38</v>
+      </c>
+      <c r="AC58">
+        <v>1.04</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.2</v>
+      </c>
+      <c r="AF58">
+        <v>4.33</v>
+      </c>
+      <c r="AG58">
+        <v>1.6</v>
+      </c>
+      <c r="AH58">
+        <v>2.2</v>
+      </c>
+      <c r="AI58">
+        <v>1.62</v>
+      </c>
+      <c r="AJ58">
+        <v>2.2</v>
+      </c>
+      <c r="AK58">
+        <v>1.25</v>
+      </c>
+      <c r="AL58">
+        <v>1.22</v>
+      </c>
+      <c r="AM58">
+        <v>1.85</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0.5</v>
+      </c>
+      <c r="AP58">
+        <v>0.33</v>
+      </c>
+      <c r="AQ58">
+        <v>0.67</v>
+      </c>
+      <c r="AR58">
+        <v>2.02</v>
+      </c>
+      <c r="AS58">
+        <v>1.12</v>
+      </c>
+      <c r="AT58">
+        <v>3.14</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
+        <v>3</v>
+      </c>
+      <c r="AW58">
+        <v>3</v>
+      </c>
+      <c r="AX58">
+        <v>4</v>
+      </c>
+      <c r="AY58">
+        <v>8</v>
+      </c>
+      <c r="AZ58">
+        <v>7</v>
+      </c>
+      <c r="BA58">
+        <v>5</v>
+      </c>
+      <c r="BB58">
+        <v>3</v>
+      </c>
+      <c r="BC58">
+        <v>8</v>
+      </c>
+      <c r="BD58">
+        <v>1.65</v>
+      </c>
+      <c r="BE58">
+        <v>7.5</v>
+      </c>
+      <c r="BF58">
+        <v>2.63</v>
+      </c>
+      <c r="BG58">
+        <v>1.27</v>
+      </c>
+      <c r="BH58">
+        <v>3.1</v>
+      </c>
+      <c r="BI58">
+        <v>1.5</v>
+      </c>
+      <c r="BJ58">
+        <v>2.3</v>
+      </c>
+      <c r="BK58">
+        <v>1.88</v>
+      </c>
+      <c r="BL58">
+        <v>1.81</v>
+      </c>
+      <c r="BM58">
+        <v>2.38</v>
+      </c>
+      <c r="BN58">
+        <v>1.48</v>
+      </c>
+      <c r="BO58">
+        <v>3.1</v>
+      </c>
+      <c r="BP58">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7295293</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45374.625</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>148</v>
+      </c>
+      <c r="P59" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q59">
+        <v>2.88</v>
+      </c>
+      <c r="R59">
+        <v>2.25</v>
+      </c>
+      <c r="S59">
+        <v>3.5</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>2.63</v>
+      </c>
+      <c r="W59">
+        <v>1.44</v>
+      </c>
+      <c r="X59">
+        <v>7</v>
+      </c>
+      <c r="Y59">
+        <v>1.1</v>
+      </c>
+      <c r="Z59">
+        <v>2.3</v>
+      </c>
+      <c r="AA59">
+        <v>3.5</v>
+      </c>
+      <c r="AB59">
+        <v>2.9</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>9.5</v>
+      </c>
+      <c r="AE59">
+        <v>1.25</v>
+      </c>
+      <c r="AF59">
+        <v>3.85</v>
+      </c>
+      <c r="AG59">
+        <v>1.83</v>
+      </c>
+      <c r="AH59">
+        <v>1.91</v>
+      </c>
+      <c r="AI59">
+        <v>1.67</v>
+      </c>
+      <c r="AJ59">
+        <v>2.1</v>
+      </c>
+      <c r="AK59">
+        <v>1.38</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.62</v>
+      </c>
+      <c r="AN59">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>3</v>
+      </c>
+      <c r="AQ59">
+        <v>1.33</v>
+      </c>
+      <c r="AR59">
+        <v>1.89</v>
+      </c>
+      <c r="AS59">
+        <v>1.55</v>
+      </c>
+      <c r="AT59">
+        <v>3.44</v>
+      </c>
+      <c r="AU59">
+        <v>7</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
+        <v>5</v>
+      </c>
+      <c r="AY59">
+        <v>11</v>
+      </c>
+      <c r="AZ59">
+        <v>9</v>
+      </c>
+      <c r="BA59">
+        <v>6</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>9</v>
+      </c>
+      <c r="BD59">
+        <v>1.72</v>
+      </c>
+      <c r="BE59">
+        <v>7</v>
+      </c>
+      <c r="BF59">
+        <v>2.5</v>
+      </c>
+      <c r="BG59">
+        <v>1.49</v>
+      </c>
+      <c r="BH59">
+        <v>2.35</v>
+      </c>
+      <c r="BI59">
+        <v>1.87</v>
+      </c>
+      <c r="BJ59">
+        <v>1.82</v>
+      </c>
+      <c r="BK59">
+        <v>2.4</v>
+      </c>
+      <c r="BL59">
+        <v>1.47</v>
+      </c>
+      <c r="BM59">
+        <v>3.2</v>
+      </c>
+      <c r="BN59">
+        <v>1.26</v>
+      </c>
+      <c r="BO59">
+        <v>4</v>
+      </c>
+      <c r="BP59">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7295291</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45374.85416666666</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" t="s">
+        <v>86</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>149</v>
+      </c>
+      <c r="P60" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q60">
+        <v>2.3</v>
+      </c>
+      <c r="R60">
+        <v>2.25</v>
+      </c>
+      <c r="S60">
+        <v>4.1</v>
+      </c>
+      <c r="T60">
+        <v>1.3</v>
+      </c>
+      <c r="U60">
+        <v>3.2</v>
+      </c>
+      <c r="V60">
+        <v>2.37</v>
+      </c>
+      <c r="W60">
+        <v>1.51</v>
+      </c>
+      <c r="X60">
+        <v>5.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.12</v>
+      </c>
+      <c r="Z60">
+        <v>1.8</v>
+      </c>
+      <c r="AA60">
+        <v>3.6</v>
+      </c>
+      <c r="AB60">
+        <v>4.3</v>
+      </c>
+      <c r="AC60">
+        <v>1.02</v>
+      </c>
+      <c r="AD60">
+        <v>15</v>
+      </c>
+      <c r="AE60">
+        <v>1.2</v>
+      </c>
+      <c r="AF60">
+        <v>4.33</v>
+      </c>
+      <c r="AG60">
+        <v>1.65</v>
+      </c>
+      <c r="AH60">
+        <v>2.2</v>
+      </c>
+      <c r="AI60">
+        <v>1.62</v>
+      </c>
+      <c r="AJ60">
+        <v>2.15</v>
+      </c>
+      <c r="AK60">
+        <v>1.23</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.98</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
+        <v>0.5</v>
+      </c>
+      <c r="AP60">
+        <v>0.5</v>
+      </c>
+      <c r="AQ60">
+        <v>1.33</v>
+      </c>
+      <c r="AR60">
+        <v>1.63</v>
+      </c>
+      <c r="AS60">
+        <v>1.31</v>
+      </c>
+      <c r="AT60">
+        <v>2.94</v>
+      </c>
+      <c r="AU60">
+        <v>4</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>12</v>
+      </c>
+      <c r="AY60">
+        <v>8</v>
+      </c>
+      <c r="AZ60">
+        <v>18</v>
+      </c>
+      <c r="BA60">
+        <v>1</v>
+      </c>
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>5</v>
+      </c>
+      <c r="BD60">
+        <v>1.6</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>2.75</v>
+      </c>
+      <c r="BG60">
+        <v>1.19</v>
+      </c>
+      <c r="BH60">
+        <v>3.85</v>
+      </c>
+      <c r="BI60">
+        <v>1.36</v>
+      </c>
+      <c r="BJ60">
+        <v>2.75</v>
+      </c>
+      <c r="BK60">
+        <v>1.63</v>
+      </c>
+      <c r="BL60">
+        <v>2.1</v>
+      </c>
+      <c r="BM60">
+        <v>2.02</v>
+      </c>
+      <c r="BN60">
+        <v>1.68</v>
+      </c>
+      <c r="BO60">
+        <v>2.55</v>
+      </c>
+      <c r="BP60">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7295294</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45374.85416666666</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>150</v>
+      </c>
+      <c r="P61" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q61">
+        <v>3.25</v>
+      </c>
+      <c r="R61">
+        <v>2.1</v>
+      </c>
+      <c r="S61">
+        <v>2.95</v>
+      </c>
+      <c r="T61">
+        <v>1.36</v>
+      </c>
+      <c r="U61">
+        <v>2.88</v>
+      </c>
+      <c r="V61">
+        <v>2.65</v>
+      </c>
+      <c r="W61">
+        <v>1.42</v>
+      </c>
+      <c r="X61">
+        <v>6.25</v>
+      </c>
+      <c r="Y61">
+        <v>1.09</v>
+      </c>
+      <c r="Z61">
+        <v>2.8</v>
+      </c>
+      <c r="AA61">
+        <v>3.4</v>
+      </c>
+      <c r="AB61">
+        <v>2.4</v>
+      </c>
+      <c r="AC61">
+        <v>1.05</v>
+      </c>
+      <c r="AD61">
+        <v>9.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.28</v>
+      </c>
+      <c r="AF61">
+        <v>3.55</v>
+      </c>
+      <c r="AG61">
+        <v>1.79</v>
+      </c>
+      <c r="AH61">
+        <v>2</v>
+      </c>
+      <c r="AI61">
+        <v>1.65</v>
+      </c>
+      <c r="AJ61">
+        <v>2.1</v>
+      </c>
+      <c r="AK61">
+        <v>1.55</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.42</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>3</v>
+      </c>
+      <c r="AQ61">
+        <v>0.5</v>
+      </c>
+      <c r="AR61">
+        <v>1.43</v>
+      </c>
+      <c r="AS61">
+        <v>1.45</v>
+      </c>
+      <c r="AT61">
+        <v>2.88</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>2</v>
+      </c>
+      <c r="AW61">
+        <v>5</v>
+      </c>
+      <c r="AX61">
+        <v>6</v>
+      </c>
+      <c r="AY61">
+        <v>11</v>
+      </c>
+      <c r="AZ61">
+        <v>8</v>
+      </c>
+      <c r="BA61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
+        <v>2</v>
+      </c>
+      <c r="BC61">
+        <v>5</v>
+      </c>
+      <c r="BD61">
+        <v>1.98</v>
+      </c>
+      <c r="BE61">
+        <v>7.5</v>
+      </c>
+      <c r="BF61">
+        <v>2.1</v>
+      </c>
+      <c r="BG61">
+        <v>1.3</v>
+      </c>
+      <c r="BH61">
+        <v>3</v>
+      </c>
+      <c r="BI61">
+        <v>1.56</v>
+      </c>
+      <c r="BJ61">
+        <v>2.2</v>
+      </c>
+      <c r="BK61">
+        <v>1.95</v>
+      </c>
+      <c r="BL61">
+        <v>1.74</v>
+      </c>
+      <c r="BM61">
+        <v>2.5</v>
+      </c>
+      <c r="BN61">
+        <v>1.44</v>
+      </c>
+      <c r="BO61">
+        <v>3.3</v>
+      </c>
+      <c r="BP61">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7295295</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45374.85416666666</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>151</v>
+      </c>
+      <c r="P62" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q62">
+        <v>2.6</v>
+      </c>
+      <c r="R62">
+        <v>2.2</v>
+      </c>
+      <c r="S62">
+        <v>4.33</v>
+      </c>
+      <c r="T62">
+        <v>1.4</v>
+      </c>
+      <c r="U62">
+        <v>2.75</v>
+      </c>
+      <c r="V62">
+        <v>2.75</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62">
+        <v>8</v>
+      </c>
+      <c r="Y62">
+        <v>1.08</v>
+      </c>
+      <c r="Z62">
+        <v>1.95</v>
+      </c>
+      <c r="AA62">
+        <v>3.5</v>
+      </c>
+      <c r="AB62">
+        <v>3.8</v>
+      </c>
+      <c r="AC62">
+        <v>1.06</v>
+      </c>
+      <c r="AD62">
+        <v>8.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.3</v>
+      </c>
+      <c r="AF62">
+        <v>3.4</v>
+      </c>
+      <c r="AG62">
+        <v>1.92</v>
+      </c>
+      <c r="AH62">
+        <v>1.86</v>
+      </c>
+      <c r="AI62">
+        <v>1.8</v>
+      </c>
+      <c r="AJ62">
+        <v>1.95</v>
+      </c>
+      <c r="AK62">
+        <v>1.25</v>
+      </c>
+      <c r="AL62">
+        <v>1.25</v>
+      </c>
+      <c r="AM62">
+        <v>1.83</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>1.67</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>1.57</v>
+      </c>
+      <c r="AS62">
+        <v>0.98</v>
+      </c>
+      <c r="AT62">
+        <v>2.55</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>1</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>8</v>
+      </c>
+      <c r="AZ62">
+        <v>7</v>
+      </c>
+      <c r="BA62">
+        <v>5</v>
+      </c>
+      <c r="BB62">
+        <v>4</v>
+      </c>
+      <c r="BC62">
+        <v>9</v>
+      </c>
+      <c r="BD62">
+        <v>1.64</v>
+      </c>
+      <c r="BE62">
+        <v>7.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.65</v>
+      </c>
+      <c r="BG62">
+        <v>1.33</v>
+      </c>
+      <c r="BH62">
+        <v>2.85</v>
+      </c>
+      <c r="BI62">
+        <v>1.6</v>
+      </c>
+      <c r="BJ62">
+        <v>2.14</v>
+      </c>
+      <c r="BK62">
+        <v>2</v>
+      </c>
+      <c r="BL62">
+        <v>1.68</v>
+      </c>
+      <c r="BM62">
+        <v>2.55</v>
+      </c>
+      <c r="BN62">
+        <v>1.41</v>
+      </c>
+      <c r="BO62">
+        <v>3.45</v>
+      </c>
+      <c r="BP62">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7295296</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45374.85416666666</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>152</v>
+      </c>
+      <c r="P63" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q63">
+        <v>2.25</v>
+      </c>
+      <c r="R63">
+        <v>2.38</v>
+      </c>
+      <c r="S63">
+        <v>4.75</v>
+      </c>
+      <c r="T63">
+        <v>1.33</v>
+      </c>
+      <c r="U63">
+        <v>3.25</v>
+      </c>
+      <c r="V63">
+        <v>2.5</v>
+      </c>
+      <c r="W63">
+        <v>1.5</v>
+      </c>
+      <c r="X63">
+        <v>6</v>
+      </c>
+      <c r="Y63">
+        <v>1.13</v>
+      </c>
+      <c r="Z63">
+        <v>1.7</v>
+      </c>
+      <c r="AA63">
+        <v>3.8</v>
+      </c>
+      <c r="AB63">
+        <v>5</v>
+      </c>
+      <c r="AC63">
+        <v>1.04</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.22</v>
+      </c>
+      <c r="AF63">
+        <v>4.2</v>
+      </c>
+      <c r="AG63">
+        <v>1.66</v>
+      </c>
+      <c r="AH63">
+        <v>2.2</v>
+      </c>
+      <c r="AI63">
+        <v>1.67</v>
+      </c>
+      <c r="AJ63">
+        <v>2.1</v>
+      </c>
+      <c r="AK63">
+        <v>1.17</v>
+      </c>
+      <c r="AL63">
+        <v>1.2</v>
+      </c>
+      <c r="AM63">
+        <v>2.15</v>
+      </c>
+      <c r="AN63">
+        <v>0.5</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AP63">
+        <v>1.33</v>
+      </c>
+      <c r="AQ63">
+        <v>0.5</v>
+      </c>
+      <c r="AR63">
+        <v>1.92</v>
+      </c>
+      <c r="AS63">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT63">
+        <v>2.48</v>
+      </c>
+      <c r="AU63">
+        <v>9</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+      <c r="AW63">
+        <v>7</v>
+      </c>
+      <c r="AX63">
+        <v>2</v>
+      </c>
+      <c r="AY63">
+        <v>16</v>
+      </c>
+      <c r="AZ63">
+        <v>4</v>
+      </c>
+      <c r="BA63">
+        <v>6</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>6</v>
+      </c>
+      <c r="BD63">
+        <v>1.42</v>
+      </c>
+      <c r="BE63">
+        <v>9</v>
+      </c>
+      <c r="BF63">
+        <v>3.4</v>
+      </c>
+      <c r="BG63">
+        <v>1.19</v>
+      </c>
+      <c r="BH63">
+        <v>3.85</v>
+      </c>
+      <c r="BI63">
+        <v>1.29</v>
+      </c>
+      <c r="BJ63">
+        <v>3.05</v>
+      </c>
+      <c r="BK63">
+        <v>1.52</v>
+      </c>
+      <c r="BL63">
+        <v>2.3</v>
+      </c>
+      <c r="BM63">
+        <v>1.85</v>
+      </c>
+      <c r="BN63">
+        <v>1.84</v>
+      </c>
+      <c r="BO63">
+        <v>2.3</v>
+      </c>
+      <c r="BP63">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7295297</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45374.85416666666</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>153</v>
+      </c>
+      <c r="P64" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q64">
+        <v>2.75</v>
+      </c>
+      <c r="R64">
+        <v>2.3</v>
+      </c>
+      <c r="S64">
+        <v>3.4</v>
+      </c>
+      <c r="T64">
+        <v>1.3</v>
+      </c>
+      <c r="U64">
+        <v>3.4</v>
+      </c>
+      <c r="V64">
+        <v>2.5</v>
+      </c>
+      <c r="W64">
+        <v>1.5</v>
+      </c>
+      <c r="X64">
+        <v>6</v>
+      </c>
+      <c r="Y64">
+        <v>1.13</v>
+      </c>
+      <c r="Z64">
+        <v>2.25</v>
+      </c>
+      <c r="AA64">
+        <v>3.2</v>
+      </c>
+      <c r="AB64">
+        <v>3.3</v>
+      </c>
+      <c r="AC64">
+        <v>1.04</v>
+      </c>
+      <c r="AD64">
+        <v>10</v>
+      </c>
+      <c r="AE64">
+        <v>1.2</v>
+      </c>
+      <c r="AF64">
+        <v>4.33</v>
+      </c>
+      <c r="AG64">
+        <v>1.66</v>
+      </c>
+      <c r="AH64">
+        <v>2.2</v>
+      </c>
+      <c r="AI64">
+        <v>1.53</v>
+      </c>
+      <c r="AJ64">
+        <v>2.38</v>
+      </c>
+      <c r="AK64">
+        <v>1.36</v>
+      </c>
+      <c r="AL64">
+        <v>1.25</v>
+      </c>
+      <c r="AM64">
+        <v>1.62</v>
+      </c>
+      <c r="AN64">
+        <v>3</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>3</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>1.04</v>
+      </c>
+      <c r="AS64">
+        <v>1.02</v>
+      </c>
+      <c r="AT64">
+        <v>2.06</v>
+      </c>
+      <c r="AU64">
+        <v>10</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>9</v>
+      </c>
+      <c r="AX64">
+        <v>3</v>
+      </c>
+      <c r="AY64">
+        <v>19</v>
+      </c>
+      <c r="AZ64">
+        <v>7</v>
+      </c>
+      <c r="BA64">
+        <v>7</v>
+      </c>
+      <c r="BB64">
+        <v>7</v>
+      </c>
+      <c r="BC64">
+        <v>14</v>
+      </c>
+      <c r="BD64">
+        <v>1.78</v>
+      </c>
+      <c r="BE64">
+        <v>7.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.38</v>
+      </c>
+      <c r="BG64">
+        <v>1.28</v>
+      </c>
+      <c r="BH64">
+        <v>3.1</v>
+      </c>
+      <c r="BI64">
+        <v>1.52</v>
+      </c>
+      <c r="BJ64">
+        <v>2.3</v>
+      </c>
+      <c r="BK64">
+        <v>1.88</v>
+      </c>
+      <c r="BL64">
+        <v>1.81</v>
+      </c>
+      <c r="BM64">
+        <v>2.38</v>
+      </c>
+      <c r="BN64">
+        <v>1.48</v>
+      </c>
+      <c r="BO64">
+        <v>3.15</v>
+      </c>
+      <c r="BP64">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7295298</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45374.89583333334</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" t="s">
+        <v>84</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65" t="s">
+        <v>154</v>
+      </c>
+      <c r="P65" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q65">
+        <v>2.4</v>
+      </c>
+      <c r="R65">
+        <v>2.4</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>1.29</v>
+      </c>
+      <c r="U65">
+        <v>3.5</v>
+      </c>
+      <c r="V65">
+        <v>2.25</v>
+      </c>
+      <c r="W65">
+        <v>1.57</v>
+      </c>
+      <c r="X65">
+        <v>5.5</v>
+      </c>
+      <c r="Y65">
+        <v>1.14</v>
+      </c>
+      <c r="Z65">
+        <v>1.91</v>
+      </c>
+      <c r="AA65">
+        <v>3.8</v>
+      </c>
+      <c r="AB65">
+        <v>3.8</v>
+      </c>
+      <c r="AC65">
+        <v>1.03</v>
+      </c>
+      <c r="AD65">
+        <v>11</v>
+      </c>
+      <c r="AE65">
+        <v>1.17</v>
+      </c>
+      <c r="AF65">
+        <v>5</v>
+      </c>
+      <c r="AG65">
+        <v>1.57</v>
+      </c>
+      <c r="AH65">
+        <v>2.25</v>
+      </c>
+      <c r="AI65">
+        <v>1.53</v>
+      </c>
+      <c r="AJ65">
+        <v>2.38</v>
+      </c>
+      <c r="AK65">
+        <v>1.28</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.85</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>2</v>
+      </c>
+      <c r="AP65">
+        <v>1.33</v>
+      </c>
+      <c r="AQ65">
+        <v>2.33</v>
+      </c>
+      <c r="AR65">
+        <v>1.39</v>
+      </c>
+      <c r="AS65">
+        <v>1.64</v>
+      </c>
+      <c r="AT65">
+        <v>3.03</v>
+      </c>
+      <c r="AU65">
+        <v>10</v>
+      </c>
+      <c r="AV65">
+        <v>8</v>
+      </c>
+      <c r="AW65">
+        <v>6</v>
+      </c>
+      <c r="AX65">
+        <v>2</v>
+      </c>
+      <c r="AY65">
+        <v>16</v>
+      </c>
+      <c r="AZ65">
+        <v>10</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>11</v>
+      </c>
+      <c r="BC65">
+        <v>17</v>
+      </c>
+      <c r="BD65">
+        <v>1.63</v>
+      </c>
+      <c r="BE65">
+        <v>8</v>
+      </c>
+      <c r="BF65">
+        <v>2.65</v>
+      </c>
+      <c r="BG65">
+        <v>1.22</v>
+      </c>
+      <c r="BH65">
+        <v>3.5</v>
+      </c>
+      <c r="BI65">
+        <v>1.43</v>
+      </c>
+      <c r="BJ65">
+        <v>2.5</v>
+      </c>
+      <c r="BK65">
+        <v>1.76</v>
+      </c>
+      <c r="BL65">
+        <v>1.93</v>
+      </c>
+      <c r="BM65">
+        <v>2.2</v>
+      </c>
+      <c r="BN65">
+        <v>1.57</v>
+      </c>
+      <c r="BO65">
+        <v>2.85</v>
+      </c>
+      <c r="BP65">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7295299</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45374.89583333334</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>155</v>
+      </c>
+      <c r="P66" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q66">
+        <v>2.6</v>
+      </c>
+      <c r="R66">
+        <v>2.3</v>
+      </c>
+      <c r="S66">
+        <v>4</v>
+      </c>
+      <c r="T66">
+        <v>1.33</v>
+      </c>
+      <c r="U66">
+        <v>3.25</v>
+      </c>
+      <c r="V66">
+        <v>2.5</v>
+      </c>
+      <c r="W66">
+        <v>1.5</v>
+      </c>
+      <c r="X66">
+        <v>6.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.11</v>
+      </c>
+      <c r="Z66">
+        <v>2</v>
+      </c>
+      <c r="AA66">
+        <v>3.5</v>
+      </c>
+      <c r="AB66">
+        <v>3.5</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>15</v>
+      </c>
+      <c r="AE66">
+        <v>1.22</v>
+      </c>
+      <c r="AF66">
+        <v>4.2</v>
+      </c>
+      <c r="AG66">
+        <v>1.7</v>
+      </c>
+      <c r="AH66">
+        <v>2.14</v>
+      </c>
+      <c r="AI66">
+        <v>1.62</v>
+      </c>
+      <c r="AJ66">
+        <v>2.2</v>
+      </c>
+      <c r="AK66">
+        <v>1.31</v>
+      </c>
+      <c r="AL66">
+        <v>1.26</v>
+      </c>
+      <c r="AM66">
+        <v>1.77</v>
+      </c>
+      <c r="AN66">
+        <v>2</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>1.67</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>1.49</v>
+      </c>
+      <c r="AS66">
+        <v>1.69</v>
+      </c>
+      <c r="AT66">
+        <v>3.18</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>4</v>
+      </c>
+      <c r="AW66">
+        <v>5</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>11</v>
+      </c>
+      <c r="AZ66">
+        <v>7</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>6</v>
+      </c>
+      <c r="BD66">
+        <v>1.67</v>
+      </c>
+      <c r="BE66">
+        <v>7.5</v>
+      </c>
+      <c r="BF66">
+        <v>2.6</v>
+      </c>
+      <c r="BG66">
+        <v>1.29</v>
+      </c>
+      <c r="BH66">
+        <v>3.05</v>
+      </c>
+      <c r="BI66">
+        <v>1.54</v>
+      </c>
+      <c r="BJ66">
+        <v>2.25</v>
+      </c>
+      <c r="BK66">
+        <v>1.9</v>
+      </c>
+      <c r="BL66">
+        <v>1.79</v>
+      </c>
+      <c r="BM66">
+        <v>2.4</v>
+      </c>
+      <c r="BN66">
+        <v>1.47</v>
+      </c>
+      <c r="BO66">
+        <v>3.15</v>
+      </c>
+      <c r="BP66">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7295300</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45374.9375</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>90</v>
+      </c>
+      <c r="H67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>104</v>
+      </c>
+      <c r="P67" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q67">
+        <v>2.88</v>
+      </c>
+      <c r="R67">
+        <v>2.1</v>
+      </c>
+      <c r="S67">
+        <v>4</v>
+      </c>
+      <c r="T67">
+        <v>1.44</v>
+      </c>
+      <c r="U67">
+        <v>2.63</v>
+      </c>
+      <c r="V67">
+        <v>3.25</v>
+      </c>
+      <c r="W67">
+        <v>1.33</v>
+      </c>
+      <c r="X67">
+        <v>9</v>
+      </c>
+      <c r="Y67">
+        <v>1.07</v>
+      </c>
+      <c r="Z67">
+        <v>2.2</v>
+      </c>
+      <c r="AA67">
+        <v>3.3</v>
+      </c>
+      <c r="AB67">
+        <v>3.3</v>
+      </c>
+      <c r="AC67">
+        <v>1.07</v>
+      </c>
+      <c r="AD67">
+        <v>7.5</v>
+      </c>
+      <c r="AE67">
+        <v>1.33</v>
+      </c>
+      <c r="AF67">
+        <v>3.25</v>
+      </c>
+      <c r="AG67">
+        <v>1.96</v>
+      </c>
+      <c r="AH67">
+        <v>1.82</v>
+      </c>
+      <c r="AI67">
+        <v>1.91</v>
+      </c>
+      <c r="AJ67">
+        <v>1.91</v>
+      </c>
+      <c r="AK67">
+        <v>1.33</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.7</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0.5</v>
+      </c>
+      <c r="AQ67">
+        <v>3</v>
+      </c>
+      <c r="AR67">
+        <v>1.06</v>
+      </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>1.06</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+      <c r="AW67">
+        <v>2</v>
+      </c>
+      <c r="AX67">
+        <v>4</v>
+      </c>
+      <c r="AY67">
+        <v>6</v>
+      </c>
+      <c r="AZ67">
+        <v>7</v>
+      </c>
+      <c r="BA67">
+        <v>6</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>6</v>
+      </c>
+      <c r="BD67">
+        <v>1.75</v>
+      </c>
+      <c r="BE67">
+        <v>7.5</v>
+      </c>
+      <c r="BF67">
+        <v>2.43</v>
+      </c>
+      <c r="BG67">
+        <v>1.33</v>
+      </c>
+      <c r="BH67">
+        <v>2.85</v>
+      </c>
+      <c r="BI67">
+        <v>1.61</v>
+      </c>
+      <c r="BJ67">
+        <v>2.12</v>
+      </c>
+      <c r="BK67">
+        <v>2.02</v>
+      </c>
+      <c r="BL67">
+        <v>1.68</v>
+      </c>
+      <c r="BM67">
+        <v>2.6</v>
+      </c>
+      <c r="BN67">
+        <v>1.38</v>
+      </c>
+      <c r="BO67">
+        <v>3.5</v>
+      </c>
+      <c r="BP67">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7295301</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45374.97916666666</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>5</v>
+      </c>
+      <c r="O68" t="s">
+        <v>156</v>
+      </c>
+      <c r="P68" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q68">
+        <v>2.1</v>
+      </c>
+      <c r="R68">
+        <v>2.3</v>
+      </c>
+      <c r="S68">
+        <v>6</v>
+      </c>
+      <c r="T68">
+        <v>1.36</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="V68">
+        <v>2.63</v>
+      </c>
+      <c r="W68">
+        <v>1.44</v>
+      </c>
+      <c r="X68">
+        <v>7</v>
+      </c>
+      <c r="Y68">
+        <v>1.1</v>
+      </c>
+      <c r="Z68">
+        <v>1.53</v>
+      </c>
+      <c r="AA68">
+        <v>4</v>
+      </c>
+      <c r="AB68">
+        <v>6</v>
+      </c>
+      <c r="AC68">
+        <v>1.05</v>
+      </c>
+      <c r="AD68">
+        <v>9</v>
+      </c>
+      <c r="AE68">
+        <v>1.22</v>
+      </c>
+      <c r="AF68">
+        <v>4</v>
+      </c>
+      <c r="AG68">
+        <v>1.78</v>
+      </c>
+      <c r="AH68">
+        <v>2</v>
+      </c>
+      <c r="AI68">
+        <v>1.95</v>
+      </c>
+      <c r="AJ68">
+        <v>1.8</v>
+      </c>
+      <c r="AK68">
+        <v>1.11</v>
+      </c>
+      <c r="AL68">
+        <v>1.22</v>
+      </c>
+      <c r="AM68">
+        <v>2.45</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>2.33</v>
+      </c>
+      <c r="AQ68">
+        <v>0.5</v>
+      </c>
+      <c r="AR68">
+        <v>1.68</v>
+      </c>
+      <c r="AS68">
+        <v>1.01</v>
+      </c>
+      <c r="AT68">
+        <v>2.69</v>
+      </c>
+      <c r="AU68">
+        <v>13</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>10</v>
+      </c>
+      <c r="AX68">
+        <v>1</v>
+      </c>
+      <c r="AY68">
+        <v>23</v>
+      </c>
+      <c r="AZ68">
+        <v>4</v>
+      </c>
+      <c r="BA68">
+        <v>7</v>
+      </c>
+      <c r="BB68">
+        <v>4</v>
+      </c>
+      <c r="BC68">
+        <v>11</v>
+      </c>
+      <c r="BD68">
+        <v>1.42</v>
+      </c>
+      <c r="BE68">
+        <v>8.5</v>
+      </c>
+      <c r="BF68">
+        <v>3.5</v>
+      </c>
+      <c r="BG68">
+        <v>1.3</v>
+      </c>
+      <c r="BH68">
+        <v>2.95</v>
+      </c>
+      <c r="BI68">
+        <v>1.57</v>
+      </c>
+      <c r="BJ68">
+        <v>2.2</v>
+      </c>
+      <c r="BK68">
+        <v>1.95</v>
+      </c>
+      <c r="BL68">
+        <v>1.74</v>
+      </c>
+      <c r="BM68">
+        <v>2.48</v>
+      </c>
+      <c r="BN68">
+        <v>1.44</v>
+      </c>
+      <c r="BO68">
+        <v>3.3</v>
+      </c>
+      <c r="BP68">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7295302</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45374.97916666666</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" t="s">
+        <v>76</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69" t="s">
+        <v>124</v>
+      </c>
+      <c r="P69" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q69">
+        <v>2.75</v>
+      </c>
+      <c r="R69">
+        <v>2.25</v>
+      </c>
+      <c r="S69">
+        <v>3.6</v>
+      </c>
+      <c r="T69">
+        <v>1.33</v>
+      </c>
+      <c r="U69">
+        <v>3.25</v>
+      </c>
+      <c r="V69">
+        <v>2.63</v>
+      </c>
+      <c r="W69">
+        <v>1.44</v>
+      </c>
+      <c r="X69">
+        <v>6.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.11</v>
+      </c>
+      <c r="Z69">
+        <v>2.25</v>
+      </c>
+      <c r="AA69">
+        <v>3.5</v>
+      </c>
+      <c r="AB69">
+        <v>3</v>
+      </c>
+      <c r="AC69">
+        <v>1.04</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.22</v>
+      </c>
+      <c r="AF69">
+        <v>4</v>
+      </c>
+      <c r="AG69">
+        <v>1.73</v>
+      </c>
+      <c r="AH69">
+        <v>2.08</v>
+      </c>
+      <c r="AI69">
+        <v>1.62</v>
+      </c>
+      <c r="AJ69">
+        <v>2.2</v>
+      </c>
+      <c r="AK69">
+        <v>1.35</v>
+      </c>
+      <c r="AL69">
+        <v>1.25</v>
+      </c>
+      <c r="AM69">
+        <v>1.67</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>1.33</v>
+      </c>
+      <c r="AQ69">
+        <v>1.67</v>
+      </c>
+      <c r="AR69">
+        <v>1.13</v>
+      </c>
+      <c r="AS69">
+        <v>1.48</v>
+      </c>
+      <c r="AT69">
+        <v>2.61</v>
+      </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
+      <c r="AV69">
+        <v>8</v>
+      </c>
+      <c r="AW69">
+        <v>9</v>
+      </c>
+      <c r="AX69">
+        <v>6</v>
+      </c>
+      <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
+        <v>14</v>
+      </c>
+      <c r="BA69">
+        <v>4</v>
+      </c>
+      <c r="BB69">
+        <v>5</v>
+      </c>
+      <c r="BC69">
+        <v>9</v>
+      </c>
+      <c r="BD69">
+        <v>1.75</v>
+      </c>
+      <c r="BE69">
+        <v>7.5</v>
+      </c>
+      <c r="BF69">
+        <v>2.4</v>
+      </c>
+      <c r="BG69">
+        <v>1.29</v>
+      </c>
+      <c r="BH69">
+        <v>3</v>
+      </c>
+      <c r="BI69">
+        <v>1.55</v>
+      </c>
+      <c r="BJ69">
+        <v>2.23</v>
+      </c>
+      <c r="BK69">
+        <v>1.93</v>
+      </c>
+      <c r="BL69">
+        <v>1.76</v>
+      </c>
+      <c r="BM69">
+        <v>2.45</v>
+      </c>
+      <c r="BN69">
+        <v>1.45</v>
+      </c>
+      <c r="BO69">
+        <v>3.25</v>
+      </c>
+      <c r="BP69">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7295303</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45374.97916666666</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="O70" t="s">
+        <v>157</v>
+      </c>
+      <c r="P70" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q70">
+        <v>3.25</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>3.4</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>9</v>
+      </c>
+      <c r="Y70">
+        <v>1.07</v>
+      </c>
+      <c r="Z70">
+        <v>2.6</v>
+      </c>
+      <c r="AA70">
+        <v>3.2</v>
+      </c>
+      <c r="AB70">
+        <v>2.7</v>
+      </c>
+      <c r="AC70">
+        <v>1.06</v>
+      </c>
+      <c r="AD70">
+        <v>8.25</v>
+      </c>
+      <c r="AE70">
+        <v>1.34</v>
+      </c>
+      <c r="AF70">
+        <v>3.34</v>
+      </c>
+      <c r="AG70">
+        <v>2</v>
+      </c>
+      <c r="AH70">
+        <v>1.73</v>
+      </c>
+      <c r="AI70">
+        <v>1.8</v>
+      </c>
+      <c r="AJ70">
+        <v>1.95</v>
+      </c>
+      <c r="AK70">
+        <v>1.44</v>
+      </c>
+      <c r="AL70">
+        <v>1.33</v>
+      </c>
+      <c r="AM70">
+        <v>1.44</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>1.18</v>
+      </c>
+      <c r="AS70">
+        <v>1.65</v>
+      </c>
+      <c r="AT70">
+        <v>2.83</v>
+      </c>
+      <c r="AU70">
+        <v>8</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>4</v>
+      </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
+      <c r="AY70">
+        <v>12</v>
+      </c>
+      <c r="AZ70">
+        <v>13</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>8</v>
+      </c>
+      <c r="BC70">
+        <v>10</v>
+      </c>
+      <c r="BD70">
+        <v>1.86</v>
+      </c>
+      <c r="BE70">
+        <v>7.5</v>
+      </c>
+      <c r="BF70">
+        <v>2.2</v>
+      </c>
+      <c r="BG70">
+        <v>1.2</v>
+      </c>
+      <c r="BH70">
+        <v>3.7</v>
+      </c>
+      <c r="BI70">
+        <v>1.38</v>
+      </c>
+      <c r="BJ70">
+        <v>2.65</v>
+      </c>
+      <c r="BK70">
+        <v>1.67</v>
+      </c>
+      <c r="BL70">
+        <v>2.04</v>
+      </c>
+      <c r="BM70">
+        <v>2.08</v>
+      </c>
+      <c r="BN70">
+        <v>1.64</v>
+      </c>
+      <c r="BO70">
+        <v>2.65</v>
+      </c>
+      <c r="BP70">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,45 @@
     <t>['42', '43', '82']</t>
   </si>
   <si>
+    <t>['16', '84']</t>
+  </si>
+  <si>
+    <t>['38', '83', '89']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['54', '70']</t>
+  </si>
+  <si>
+    <t>['81', '84']</t>
+  </si>
+  <si>
+    <t>['45+3', '45+8']</t>
+  </si>
+  <si>
+    <t>['70', '84', '90+1']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['2', '29', '87']</t>
+  </si>
+  <si>
+    <t>['45', '64', '90+5']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -517,9 +556,6 @@
     <t>['90+2']</t>
   </si>
   <si>
-    <t>['59']</t>
-  </si>
-  <si>
     <t>['31']</t>
   </si>
   <si>
@@ -608,6 +644,33 @@
   </si>
   <si>
     <t>['72', '81']</t>
+  </si>
+  <si>
+    <t>['8', '76']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['57', '64', '83']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['16', '79']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['52', '77']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1640,7 +1703,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1924,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2052,7 +2115,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2130,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2336,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2464,7 +2527,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2542,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2670,7 +2733,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2748,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2876,7 +2939,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3082,7 +3145,7 @@
         <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3160,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3288,7 +3351,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3494,7 +3557,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3984,10 +4047,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4112,7 +4175,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4190,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4318,7 +4381,7 @@
         <v>112</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>2.95</v>
@@ -4399,7 +4462,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4602,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4808,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4936,7 +4999,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5014,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -5142,7 +5205,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5223,7 +5286,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5348,7 +5411,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5429,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -5554,7 +5617,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5632,10 +5695,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -6047,7 +6110,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6172,7 +6235,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6250,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>0.5</v>
@@ -6378,7 +6441,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6584,7 +6647,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7202,7 +7265,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7283,7 +7346,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7486,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.33</v>
@@ -7614,7 +7677,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7820,7 +7883,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7901,7 +7964,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -8026,7 +8089,7 @@
         <v>127</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8232,7 +8295,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8310,10 +8373,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.61</v>
@@ -8438,7 +8501,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8516,10 +8579,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
+        <v>1.25</v>
+      </c>
+      <c r="AQ37">
         <v>0.67</v>
-      </c>
-      <c r="AQ37">
-        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.02</v>
@@ -8644,7 +8707,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8722,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.33</v>
@@ -8931,7 +8994,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9056,7 +9119,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9468,7 +9531,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9546,7 +9609,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>2.33</v>
@@ -9674,7 +9737,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -9752,10 +9815,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -9880,7 +9943,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -9958,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10086,7 +10149,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>2.6</v>
@@ -10167,7 +10230,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR45">
         <v>0.84</v>
@@ -10292,7 +10355,7 @@
         <v>135</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10579,7 +10642,7 @@
         <v>3</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -10910,7 +10973,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10988,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
         <v>1.67</v>
@@ -11116,7 +11179,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11400,10 +11463,10 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12018,7 +12081,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>0.33</v>
@@ -12146,7 +12209,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12224,10 +12287,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR55">
         <v>2.22</v>
@@ -12352,7 +12415,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12433,7 +12496,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ56">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -12764,7 +12827,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12845,7 +12908,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>2.02</v>
@@ -13176,7 +13239,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13254,7 +13317,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>1.33</v>
@@ -13460,10 +13523,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -13669,7 +13732,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR62">
         <v>1.57</v>
@@ -13872,7 +13935,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63">
         <v>0.5</v>
@@ -14078,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>0</v>
@@ -14206,7 +14269,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14412,7 +14475,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14618,7 +14681,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14696,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67">
         <v>3</v>
@@ -15030,7 +15093,7 @@
         <v>124</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15236,7 +15299,7 @@
         <v>157</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15393,6 +15456,2890 @@
       </c>
       <c r="BP70">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7295305</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45381.625</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>158</v>
+      </c>
+      <c r="P71" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q71">
+        <v>2.3</v>
+      </c>
+      <c r="R71">
+        <v>2.4</v>
+      </c>
+      <c r="S71">
+        <v>4.33</v>
+      </c>
+      <c r="T71">
+        <v>1.29</v>
+      </c>
+      <c r="U71">
+        <v>3.5</v>
+      </c>
+      <c r="V71">
+        <v>2.38</v>
+      </c>
+      <c r="W71">
+        <v>1.53</v>
+      </c>
+      <c r="X71">
+        <v>5.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.14</v>
+      </c>
+      <c r="Z71">
+        <v>1.73</v>
+      </c>
+      <c r="AA71">
+        <v>3.8</v>
+      </c>
+      <c r="AB71">
+        <v>4.2</v>
+      </c>
+      <c r="AC71">
+        <v>1.03</v>
+      </c>
+      <c r="AD71">
+        <v>18</v>
+      </c>
+      <c r="AE71">
+        <v>1.19</v>
+      </c>
+      <c r="AF71">
+        <v>4.94</v>
+      </c>
+      <c r="AG71">
+        <v>1.61</v>
+      </c>
+      <c r="AH71">
+        <v>2.32</v>
+      </c>
+      <c r="AI71">
+        <v>1.57</v>
+      </c>
+      <c r="AJ71">
+        <v>2.25</v>
+      </c>
+      <c r="AK71">
+        <v>1.24</v>
+      </c>
+      <c r="AL71">
+        <v>1.24</v>
+      </c>
+      <c r="AM71">
+        <v>2.02</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>3</v>
+      </c>
+      <c r="AP71">
+        <v>2</v>
+      </c>
+      <c r="AQ71">
+        <v>2</v>
+      </c>
+      <c r="AR71">
+        <v>1.95</v>
+      </c>
+      <c r="AS71">
+        <v>1.76</v>
+      </c>
+      <c r="AT71">
+        <v>3.71</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>6</v>
+      </c>
+      <c r="AW71">
+        <v>4</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>9</v>
+      </c>
+      <c r="AZ71">
+        <v>6</v>
+      </c>
+      <c r="BA71">
+        <v>8</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>11</v>
+      </c>
+      <c r="BD71">
+        <v>1.56</v>
+      </c>
+      <c r="BE71">
+        <v>8</v>
+      </c>
+      <c r="BF71">
+        <v>2.9</v>
+      </c>
+      <c r="BG71">
+        <v>1.26</v>
+      </c>
+      <c r="BH71">
+        <v>3.2</v>
+      </c>
+      <c r="BI71">
+        <v>1.49</v>
+      </c>
+      <c r="BJ71">
+        <v>2.35</v>
+      </c>
+      <c r="BK71">
+        <v>1.84</v>
+      </c>
+      <c r="BL71">
+        <v>1.85</v>
+      </c>
+      <c r="BM71">
+        <v>2.3</v>
+      </c>
+      <c r="BN71">
+        <v>1.5</v>
+      </c>
+      <c r="BO71">
+        <v>3</v>
+      </c>
+      <c r="BP71">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7295306</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45381.70833333334</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>159</v>
+      </c>
+      <c r="P72" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q72">
+        <v>3.6</v>
+      </c>
+      <c r="R72">
+        <v>2.2</v>
+      </c>
+      <c r="S72">
+        <v>2.88</v>
+      </c>
+      <c r="T72">
+        <v>1.36</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="V72">
+        <v>2.75</v>
+      </c>
+      <c r="W72">
+        <v>1.4</v>
+      </c>
+      <c r="X72">
+        <v>7</v>
+      </c>
+      <c r="Y72">
+        <v>1.1</v>
+      </c>
+      <c r="Z72">
+        <v>3.4</v>
+      </c>
+      <c r="AA72">
+        <v>3.4</v>
+      </c>
+      <c r="AB72">
+        <v>1.91</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>13</v>
+      </c>
+      <c r="AE72">
+        <v>1.28</v>
+      </c>
+      <c r="AF72">
+        <v>3.8</v>
+      </c>
+      <c r="AG72">
+        <v>1.73</v>
+      </c>
+      <c r="AH72">
+        <v>1.91</v>
+      </c>
+      <c r="AI72">
+        <v>1.7</v>
+      </c>
+      <c r="AJ72">
+        <v>2.05</v>
+      </c>
+      <c r="AK72">
+        <v>1.63</v>
+      </c>
+      <c r="AL72">
+        <v>1.3</v>
+      </c>
+      <c r="AM72">
+        <v>1.39</v>
+      </c>
+      <c r="AN72">
+        <v>0.5</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>1.33</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>1.16</v>
+      </c>
+      <c r="AS72">
+        <v>1.33</v>
+      </c>
+      <c r="AT72">
+        <v>2.49</v>
+      </c>
+      <c r="AU72">
+        <v>6</v>
+      </c>
+      <c r="AV72">
+        <v>9</v>
+      </c>
+      <c r="AW72">
+        <v>5</v>
+      </c>
+      <c r="AX72">
+        <v>5</v>
+      </c>
+      <c r="AY72">
+        <v>11</v>
+      </c>
+      <c r="AZ72">
+        <v>14</v>
+      </c>
+      <c r="BA72">
+        <v>8</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>12</v>
+      </c>
+      <c r="BD72">
+        <v>2.12</v>
+      </c>
+      <c r="BE72">
+        <v>7.5</v>
+      </c>
+      <c r="BF72">
+        <v>1.94</v>
+      </c>
+      <c r="BG72">
+        <v>1.32</v>
+      </c>
+      <c r="BH72">
+        <v>2.9</v>
+      </c>
+      <c r="BI72">
+        <v>1.58</v>
+      </c>
+      <c r="BJ72">
+        <v>2.17</v>
+      </c>
+      <c r="BK72">
+        <v>1.98</v>
+      </c>
+      <c r="BL72">
+        <v>1.71</v>
+      </c>
+      <c r="BM72">
+        <v>2.5</v>
+      </c>
+      <c r="BN72">
+        <v>1.42</v>
+      </c>
+      <c r="BO72">
+        <v>3.4</v>
+      </c>
+      <c r="BP72">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7295307</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45381.85416666666</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>160</v>
+      </c>
+      <c r="P73" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q73">
+        <v>2.88</v>
+      </c>
+      <c r="R73">
+        <v>2.2</v>
+      </c>
+      <c r="S73">
+        <v>3.75</v>
+      </c>
+      <c r="T73">
+        <v>1.4</v>
+      </c>
+      <c r="U73">
+        <v>2.75</v>
+      </c>
+      <c r="V73">
+        <v>2.75</v>
+      </c>
+      <c r="W73">
+        <v>1.4</v>
+      </c>
+      <c r="X73">
+        <v>8</v>
+      </c>
+      <c r="Y73">
+        <v>1.08</v>
+      </c>
+      <c r="Z73">
+        <v>2.25</v>
+      </c>
+      <c r="AA73">
+        <v>3.1</v>
+      </c>
+      <c r="AB73">
+        <v>2.87</v>
+      </c>
+      <c r="AC73">
+        <v>1.06</v>
+      </c>
+      <c r="AD73">
+        <v>11.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.31</v>
+      </c>
+      <c r="AF73">
+        <v>3.52</v>
+      </c>
+      <c r="AG73">
+        <v>1.95</v>
+      </c>
+      <c r="AH73">
+        <v>1.7</v>
+      </c>
+      <c r="AI73">
+        <v>1.75</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>1.33</v>
+      </c>
+      <c r="AL73">
+        <v>1.32</v>
+      </c>
+      <c r="AM73">
+        <v>1.52</v>
+      </c>
+      <c r="AN73">
+        <v>3</v>
+      </c>
+      <c r="AO73">
+        <v>3</v>
+      </c>
+      <c r="AP73">
+        <v>2.33</v>
+      </c>
+      <c r="AQ73">
+        <v>2.33</v>
+      </c>
+      <c r="AR73">
+        <v>1.41</v>
+      </c>
+      <c r="AS73">
+        <v>1.65</v>
+      </c>
+      <c r="AT73">
+        <v>3.06</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>6</v>
+      </c>
+      <c r="AW73">
+        <v>9</v>
+      </c>
+      <c r="AX73">
+        <v>8</v>
+      </c>
+      <c r="AY73">
+        <v>13</v>
+      </c>
+      <c r="AZ73">
+        <v>14</v>
+      </c>
+      <c r="BA73">
+        <v>3</v>
+      </c>
+      <c r="BB73">
+        <v>5</v>
+      </c>
+      <c r="BC73">
+        <v>8</v>
+      </c>
+      <c r="BD73">
+        <v>1.73</v>
+      </c>
+      <c r="BE73">
+        <v>7.5</v>
+      </c>
+      <c r="BF73">
+        <v>2.45</v>
+      </c>
+      <c r="BG73">
+        <v>1.33</v>
+      </c>
+      <c r="BH73">
+        <v>2.8</v>
+      </c>
+      <c r="BI73">
+        <v>1.61</v>
+      </c>
+      <c r="BJ73">
+        <v>2.12</v>
+      </c>
+      <c r="BK73">
+        <v>2.02</v>
+      </c>
+      <c r="BL73">
+        <v>1.68</v>
+      </c>
+      <c r="BM73">
+        <v>2.6</v>
+      </c>
+      <c r="BN73">
+        <v>1.4</v>
+      </c>
+      <c r="BO73">
+        <v>3.5</v>
+      </c>
+      <c r="BP73">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7295308</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45381.85416666666</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s">
+        <v>98</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>161</v>
+      </c>
+      <c r="P74" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q74">
+        <v>2.3</v>
+      </c>
+      <c r="R74">
+        <v>2.3</v>
+      </c>
+      <c r="S74">
+        <v>4.75</v>
+      </c>
+      <c r="T74">
+        <v>1.33</v>
+      </c>
+      <c r="U74">
+        <v>3.25</v>
+      </c>
+      <c r="V74">
+        <v>2.5</v>
+      </c>
+      <c r="W74">
+        <v>1.5</v>
+      </c>
+      <c r="X74">
+        <v>6.5</v>
+      </c>
+      <c r="Y74">
+        <v>1.11</v>
+      </c>
+      <c r="Z74">
+        <v>1.73</v>
+      </c>
+      <c r="AA74">
+        <v>3.6</v>
+      </c>
+      <c r="AB74">
+        <v>3.9</v>
+      </c>
+      <c r="AC74">
+        <v>1.04</v>
+      </c>
+      <c r="AD74">
+        <v>15.25</v>
+      </c>
+      <c r="AE74">
+        <v>1.23</v>
+      </c>
+      <c r="AF74">
+        <v>4.18</v>
+      </c>
+      <c r="AG74">
+        <v>1.7</v>
+      </c>
+      <c r="AH74">
+        <v>1.95</v>
+      </c>
+      <c r="AI74">
+        <v>1.7</v>
+      </c>
+      <c r="AJ74">
+        <v>2.05</v>
+      </c>
+      <c r="AK74">
+        <v>1.2</v>
+      </c>
+      <c r="AL74">
+        <v>1.18</v>
+      </c>
+      <c r="AM74">
+        <v>2.05</v>
+      </c>
+      <c r="AN74">
+        <v>1.5</v>
+      </c>
+      <c r="AO74">
+        <v>1.75</v>
+      </c>
+      <c r="AP74">
+        <v>2</v>
+      </c>
+      <c r="AQ74">
+        <v>1.4</v>
+      </c>
+      <c r="AR74">
+        <v>1.9</v>
+      </c>
+      <c r="AS74">
+        <v>1.25</v>
+      </c>
+      <c r="AT74">
+        <v>3.15</v>
+      </c>
+      <c r="AU74">
+        <v>7</v>
+      </c>
+      <c r="AV74">
+        <v>3</v>
+      </c>
+      <c r="AW74">
+        <v>7</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>14</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>9</v>
+      </c>
+      <c r="BB74">
+        <v>8</v>
+      </c>
+      <c r="BC74">
+        <v>17</v>
+      </c>
+      <c r="BD74">
+        <v>1.55</v>
+      </c>
+      <c r="BE74">
+        <v>8</v>
+      </c>
+      <c r="BF74">
+        <v>2.95</v>
+      </c>
+      <c r="BG74">
+        <v>1.29</v>
+      </c>
+      <c r="BH74">
+        <v>3</v>
+      </c>
+      <c r="BI74">
+        <v>1.54</v>
+      </c>
+      <c r="BJ74">
+        <v>2.23</v>
+      </c>
+      <c r="BK74">
+        <v>1.92</v>
+      </c>
+      <c r="BL74">
+        <v>1.77</v>
+      </c>
+      <c r="BM74">
+        <v>2.45</v>
+      </c>
+      <c r="BN74">
+        <v>1.45</v>
+      </c>
+      <c r="BO74">
+        <v>3.25</v>
+      </c>
+      <c r="BP74">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7295309</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45381.85416666666</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>133</v>
+      </c>
+      <c r="P75" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q75">
+        <v>2.3</v>
+      </c>
+      <c r="R75">
+        <v>2.3</v>
+      </c>
+      <c r="S75">
+        <v>4.5</v>
+      </c>
+      <c r="T75">
+        <v>1.33</v>
+      </c>
+      <c r="U75">
+        <v>3.25</v>
+      </c>
+      <c r="V75">
+        <v>2.5</v>
+      </c>
+      <c r="W75">
+        <v>1.5</v>
+      </c>
+      <c r="X75">
+        <v>6.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.11</v>
+      </c>
+      <c r="Z75">
+        <v>1.85</v>
+      </c>
+      <c r="AA75">
+        <v>3.4</v>
+      </c>
+      <c r="AB75">
+        <v>3.5</v>
+      </c>
+      <c r="AC75">
+        <v>1.02</v>
+      </c>
+      <c r="AD75">
+        <v>10</v>
+      </c>
+      <c r="AE75">
+        <v>1.19</v>
+      </c>
+      <c r="AF75">
+        <v>3.98</v>
+      </c>
+      <c r="AG75">
+        <v>1.61</v>
+      </c>
+      <c r="AH75">
+        <v>2.05</v>
+      </c>
+      <c r="AI75">
+        <v>1.67</v>
+      </c>
+      <c r="AJ75">
+        <v>2.1</v>
+      </c>
+      <c r="AK75">
+        <v>1.22</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>2.08</v>
+      </c>
+      <c r="AN75">
+        <v>2</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>1.75</v>
+      </c>
+      <c r="AQ75">
+        <v>0.25</v>
+      </c>
+      <c r="AR75">
+        <v>1.58</v>
+      </c>
+      <c r="AS75">
+        <v>0.99</v>
+      </c>
+      <c r="AT75">
+        <v>2.57</v>
+      </c>
+      <c r="AU75">
+        <v>7</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>9</v>
+      </c>
+      <c r="AX75">
+        <v>5</v>
+      </c>
+      <c r="AY75">
+        <v>16</v>
+      </c>
+      <c r="AZ75">
+        <v>9</v>
+      </c>
+      <c r="BA75">
+        <v>7</v>
+      </c>
+      <c r="BB75">
+        <v>2</v>
+      </c>
+      <c r="BC75">
+        <v>9</v>
+      </c>
+      <c r="BD75">
+        <v>1.56</v>
+      </c>
+      <c r="BE75">
+        <v>7.5</v>
+      </c>
+      <c r="BF75">
+        <v>2.95</v>
+      </c>
+      <c r="BG75">
+        <v>1.28</v>
+      </c>
+      <c r="BH75">
+        <v>3.05</v>
+      </c>
+      <c r="BI75">
+        <v>1.53</v>
+      </c>
+      <c r="BJ75">
+        <v>2.25</v>
+      </c>
+      <c r="BK75">
+        <v>1.9</v>
+      </c>
+      <c r="BL75">
+        <v>1.78</v>
+      </c>
+      <c r="BM75">
+        <v>2.43</v>
+      </c>
+      <c r="BN75">
+        <v>1.46</v>
+      </c>
+      <c r="BO75">
+        <v>3.2</v>
+      </c>
+      <c r="BP75">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7295310</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45381.85416666666</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>162</v>
+      </c>
+      <c r="P76" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q76">
+        <v>3.1</v>
+      </c>
+      <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>3.6</v>
+      </c>
+      <c r="T76">
+        <v>1.44</v>
+      </c>
+      <c r="U76">
+        <v>2.63</v>
+      </c>
+      <c r="V76">
+        <v>3.25</v>
+      </c>
+      <c r="W76">
+        <v>1.33</v>
+      </c>
+      <c r="X76">
+        <v>9</v>
+      </c>
+      <c r="Y76">
+        <v>1.07</v>
+      </c>
+      <c r="Z76">
+        <v>2.37</v>
+      </c>
+      <c r="AA76">
+        <v>3</v>
+      </c>
+      <c r="AB76">
+        <v>2.75</v>
+      </c>
+      <c r="AC76">
+        <v>1.07</v>
+      </c>
+      <c r="AD76">
+        <v>9.75</v>
+      </c>
+      <c r="AE76">
+        <v>1.35</v>
+      </c>
+      <c r="AF76">
+        <v>3.22</v>
+      </c>
+      <c r="AG76">
+        <v>2</v>
+      </c>
+      <c r="AH76">
+        <v>1.67</v>
+      </c>
+      <c r="AI76">
+        <v>1.8</v>
+      </c>
+      <c r="AJ76">
+        <v>1.95</v>
+      </c>
+      <c r="AK76">
+        <v>1.37</v>
+      </c>
+      <c r="AL76">
+        <v>1.35</v>
+      </c>
+      <c r="AM76">
+        <v>1.45</v>
+      </c>
+      <c r="AN76">
+        <v>1.33</v>
+      </c>
+      <c r="AO76">
+        <v>1.33</v>
+      </c>
+      <c r="AP76">
+        <v>1.25</v>
+      </c>
+      <c r="AQ76">
+        <v>1.25</v>
+      </c>
+      <c r="AR76">
+        <v>1.96</v>
+      </c>
+      <c r="AS76">
+        <v>1.29</v>
+      </c>
+      <c r="AT76">
+        <v>3.25</v>
+      </c>
+      <c r="AU76">
+        <v>4</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>7</v>
+      </c>
+      <c r="AX76">
+        <v>3</v>
+      </c>
+      <c r="AY76">
+        <v>11</v>
+      </c>
+      <c r="AZ76">
+        <v>6</v>
+      </c>
+      <c r="BA76">
+        <v>7</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>9</v>
+      </c>
+      <c r="BD76">
+        <v>1.86</v>
+      </c>
+      <c r="BE76">
+        <v>7.5</v>
+      </c>
+      <c r="BF76">
+        <v>2.25</v>
+      </c>
+      <c r="BG76">
+        <v>1.35</v>
+      </c>
+      <c r="BH76">
+        <v>2.75</v>
+      </c>
+      <c r="BI76">
+        <v>1.64</v>
+      </c>
+      <c r="BJ76">
+        <v>2.08</v>
+      </c>
+      <c r="BK76">
+        <v>2.07</v>
+      </c>
+      <c r="BL76">
+        <v>1.65</v>
+      </c>
+      <c r="BM76">
+        <v>2.65</v>
+      </c>
+      <c r="BN76">
+        <v>1.37</v>
+      </c>
+      <c r="BO76">
+        <v>3.6</v>
+      </c>
+      <c r="BP76">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7295311</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45381.85416666666</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77" t="s">
+        <v>95</v>
+      </c>
+      <c r="H77" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>163</v>
+      </c>
+      <c r="P77" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>2.23</v>
+      </c>
+      <c r="S77">
+        <v>3.2</v>
+      </c>
+      <c r="T77">
+        <v>1.3</v>
+      </c>
+      <c r="U77">
+        <v>2.95</v>
+      </c>
+      <c r="V77">
+        <v>2.55</v>
+      </c>
+      <c r="W77">
+        <v>1.41</v>
+      </c>
+      <c r="X77">
+        <v>7</v>
+      </c>
+      <c r="Y77">
+        <v>1.09</v>
+      </c>
+      <c r="Z77">
+        <v>2.45</v>
+      </c>
+      <c r="AA77">
+        <v>3.1</v>
+      </c>
+      <c r="AB77">
+        <v>2.6</v>
+      </c>
+      <c r="AC77">
+        <v>1.05</v>
+      </c>
+      <c r="AD77">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE77">
+        <v>1.3</v>
+      </c>
+      <c r="AF77">
+        <v>3.5</v>
+      </c>
+      <c r="AG77">
+        <v>1.85</v>
+      </c>
+      <c r="AH77">
+        <v>1.8</v>
+      </c>
+      <c r="AI77">
+        <v>1.7</v>
+      </c>
+      <c r="AJ77">
+        <v>2.12</v>
+      </c>
+      <c r="AK77">
+        <v>1.46</v>
+      </c>
+      <c r="AL77">
+        <v>1.32</v>
+      </c>
+      <c r="AM77">
+        <v>1.55</v>
+      </c>
+      <c r="AN77">
+        <v>3</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
+        <v>2</v>
+      </c>
+      <c r="AQ77">
+        <v>1.67</v>
+      </c>
+      <c r="AR77">
+        <v>1.72</v>
+      </c>
+      <c r="AS77">
+        <v>1.15</v>
+      </c>
+      <c r="AT77">
+        <v>2.87</v>
+      </c>
+      <c r="AU77">
+        <v>3</v>
+      </c>
+      <c r="AV77">
+        <v>11</v>
+      </c>
+      <c r="AW77">
+        <v>6</v>
+      </c>
+      <c r="AX77">
+        <v>5</v>
+      </c>
+      <c r="AY77">
+        <v>9</v>
+      </c>
+      <c r="AZ77">
+        <v>16</v>
+      </c>
+      <c r="BA77">
+        <v>5</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>9</v>
+      </c>
+      <c r="BD77">
+        <v>1.9</v>
+      </c>
+      <c r="BE77">
+        <v>7</v>
+      </c>
+      <c r="BF77">
+        <v>2.2</v>
+      </c>
+      <c r="BG77">
+        <v>1.32</v>
+      </c>
+      <c r="BH77">
+        <v>2.9</v>
+      </c>
+      <c r="BI77">
+        <v>1.58</v>
+      </c>
+      <c r="BJ77">
+        <v>2.17</v>
+      </c>
+      <c r="BK77">
+        <v>1.98</v>
+      </c>
+      <c r="BL77">
+        <v>1.72</v>
+      </c>
+      <c r="BM77">
+        <v>2.5</v>
+      </c>
+      <c r="BN77">
+        <v>1.42</v>
+      </c>
+      <c r="BO77">
+        <v>3.35</v>
+      </c>
+      <c r="BP77">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7295312</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45381.89583333334</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>164</v>
+      </c>
+      <c r="P78" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q78">
+        <v>3.1</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>3.5</v>
+      </c>
+      <c r="T78">
+        <v>1.4</v>
+      </c>
+      <c r="U78">
+        <v>2.75</v>
+      </c>
+      <c r="V78">
+        <v>2.75</v>
+      </c>
+      <c r="W78">
+        <v>1.4</v>
+      </c>
+      <c r="X78">
+        <v>8</v>
+      </c>
+      <c r="Y78">
+        <v>1.08</v>
+      </c>
+      <c r="Z78">
+        <v>2.37</v>
+      </c>
+      <c r="AA78">
+        <v>3.1</v>
+      </c>
+      <c r="AB78">
+        <v>2.62</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>12</v>
+      </c>
+      <c r="AE78">
+        <v>1.3</v>
+      </c>
+      <c r="AF78">
+        <v>3.5</v>
+      </c>
+      <c r="AG78">
+        <v>1.83</v>
+      </c>
+      <c r="AH78">
+        <v>1.83</v>
+      </c>
+      <c r="AI78">
+        <v>1.7</v>
+      </c>
+      <c r="AJ78">
+        <v>2.05</v>
+      </c>
+      <c r="AK78">
+        <v>1.36</v>
+      </c>
+      <c r="AL78">
+        <v>1.27</v>
+      </c>
+      <c r="AM78">
+        <v>1.5</v>
+      </c>
+      <c r="AN78">
+        <v>0.67</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>1.25</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>0.95</v>
+      </c>
+      <c r="AS78">
+        <v>0.98</v>
+      </c>
+      <c r="AT78">
+        <v>1.93</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>5</v>
+      </c>
+      <c r="AW78">
+        <v>5</v>
+      </c>
+      <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>11</v>
+      </c>
+      <c r="AZ78">
+        <v>8</v>
+      </c>
+      <c r="BA78">
+        <v>4</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
+        <v>6</v>
+      </c>
+      <c r="BD78">
+        <v>1.87</v>
+      </c>
+      <c r="BE78">
+        <v>7.5</v>
+      </c>
+      <c r="BF78">
+        <v>2.23</v>
+      </c>
+      <c r="BG78">
+        <v>1.32</v>
+      </c>
+      <c r="BH78">
+        <v>2.9</v>
+      </c>
+      <c r="BI78">
+        <v>1.58</v>
+      </c>
+      <c r="BJ78">
+        <v>2.17</v>
+      </c>
+      <c r="BK78">
+        <v>1.97</v>
+      </c>
+      <c r="BL78">
+        <v>1.72</v>
+      </c>
+      <c r="BM78">
+        <v>2.5</v>
+      </c>
+      <c r="BN78">
+        <v>1.42</v>
+      </c>
+      <c r="BO78">
+        <v>3.4</v>
+      </c>
+      <c r="BP78">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7295313</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45381.89583333334</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>165</v>
+      </c>
+      <c r="P79" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q79">
+        <v>2.5</v>
+      </c>
+      <c r="R79">
+        <v>2.2</v>
+      </c>
+      <c r="S79">
+        <v>4.75</v>
+      </c>
+      <c r="T79">
+        <v>1.4</v>
+      </c>
+      <c r="U79">
+        <v>2.75</v>
+      </c>
+      <c r="V79">
+        <v>3</v>
+      </c>
+      <c r="W79">
+        <v>1.36</v>
+      </c>
+      <c r="X79">
+        <v>8</v>
+      </c>
+      <c r="Y79">
+        <v>1.08</v>
+      </c>
+      <c r="Z79">
+        <v>1.8</v>
+      </c>
+      <c r="AA79">
+        <v>3.4</v>
+      </c>
+      <c r="AB79">
+        <v>3.75</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>9.6</v>
+      </c>
+      <c r="AE79">
+        <v>1.3</v>
+      </c>
+      <c r="AF79">
+        <v>3.4</v>
+      </c>
+      <c r="AG79">
+        <v>1.85</v>
+      </c>
+      <c r="AH79">
+        <v>1.75</v>
+      </c>
+      <c r="AI79">
+        <v>1.8</v>
+      </c>
+      <c r="AJ79">
+        <v>1.95</v>
+      </c>
+      <c r="AK79">
+        <v>1.15</v>
+      </c>
+      <c r="AL79">
+        <v>1.21</v>
+      </c>
+      <c r="AM79">
+        <v>2</v>
+      </c>
+      <c r="AN79">
+        <v>1.33</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>1.75</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>1.49</v>
+      </c>
+      <c r="AS79">
+        <v>1.54</v>
+      </c>
+      <c r="AT79">
+        <v>3.03</v>
+      </c>
+      <c r="AU79">
+        <v>9</v>
+      </c>
+      <c r="AV79">
+        <v>3</v>
+      </c>
+      <c r="AW79">
+        <v>3</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>12</v>
+      </c>
+      <c r="AZ79">
+        <v>3</v>
+      </c>
+      <c r="BA79">
+        <v>10</v>
+      </c>
+      <c r="BB79">
+        <v>1</v>
+      </c>
+      <c r="BC79">
+        <v>11</v>
+      </c>
+      <c r="BD79">
+        <v>1.82</v>
+      </c>
+      <c r="BE79">
+        <v>7.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.28</v>
+      </c>
+      <c r="BG79">
+        <v>1.26</v>
+      </c>
+      <c r="BH79">
+        <v>3.25</v>
+      </c>
+      <c r="BI79">
+        <v>1.48</v>
+      </c>
+      <c r="BJ79">
+        <v>2.35</v>
+      </c>
+      <c r="BK79">
+        <v>1.83</v>
+      </c>
+      <c r="BL79">
+        <v>1.86</v>
+      </c>
+      <c r="BM79">
+        <v>2.3</v>
+      </c>
+      <c r="BN79">
+        <v>1.5</v>
+      </c>
+      <c r="BO79">
+        <v>3</v>
+      </c>
+      <c r="BP79">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7295314</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45381.89583333334</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
+        <v>83</v>
+      </c>
+      <c r="H80" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>166</v>
+      </c>
+      <c r="P80" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q80">
+        <v>3.6</v>
+      </c>
+      <c r="R80">
+        <v>2.2</v>
+      </c>
+      <c r="S80">
+        <v>2.88</v>
+      </c>
+      <c r="T80">
+        <v>1.36</v>
+      </c>
+      <c r="U80">
+        <v>3</v>
+      </c>
+      <c r="V80">
+        <v>2.75</v>
+      </c>
+      <c r="W80">
+        <v>1.4</v>
+      </c>
+      <c r="X80">
+        <v>7</v>
+      </c>
+      <c r="Y80">
+        <v>1.1</v>
+      </c>
+      <c r="Z80">
+        <v>2.87</v>
+      </c>
+      <c r="AA80">
+        <v>3.25</v>
+      </c>
+      <c r="AB80">
+        <v>2.15</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>12</v>
+      </c>
+      <c r="AE80">
+        <v>1.28</v>
+      </c>
+      <c r="AF80">
+        <v>3.75</v>
+      </c>
+      <c r="AG80">
+        <v>1.8</v>
+      </c>
+      <c r="AH80">
+        <v>1.85</v>
+      </c>
+      <c r="AI80">
+        <v>1.7</v>
+      </c>
+      <c r="AJ80">
+        <v>2.05</v>
+      </c>
+      <c r="AK80">
+        <v>1.56</v>
+      </c>
+      <c r="AL80">
+        <v>1.26</v>
+      </c>
+      <c r="AM80">
+        <v>1.32</v>
+      </c>
+      <c r="AN80">
+        <v>1.67</v>
+      </c>
+      <c r="AO80">
+        <v>0.5</v>
+      </c>
+      <c r="AP80">
+        <v>1.5</v>
+      </c>
+      <c r="AQ80">
+        <v>0.67</v>
+      </c>
+      <c r="AR80">
+        <v>1.03</v>
+      </c>
+      <c r="AS80">
+        <v>1.15</v>
+      </c>
+      <c r="AT80">
+        <v>2.18</v>
+      </c>
+      <c r="AU80">
+        <v>6</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>10</v>
+      </c>
+      <c r="AZ80">
+        <v>9</v>
+      </c>
+      <c r="BA80">
+        <v>4</v>
+      </c>
+      <c r="BB80">
+        <v>4</v>
+      </c>
+      <c r="BC80">
+        <v>8</v>
+      </c>
+      <c r="BD80">
+        <v>2.18</v>
+      </c>
+      <c r="BE80">
+        <v>7.5</v>
+      </c>
+      <c r="BF80">
+        <v>1.9</v>
+      </c>
+      <c r="BG80">
+        <v>1.3</v>
+      </c>
+      <c r="BH80">
+        <v>2.95</v>
+      </c>
+      <c r="BI80">
+        <v>1.57</v>
+      </c>
+      <c r="BJ80">
+        <v>2.18</v>
+      </c>
+      <c r="BK80">
+        <v>1.97</v>
+      </c>
+      <c r="BL80">
+        <v>1.73</v>
+      </c>
+      <c r="BM80">
+        <v>2.5</v>
+      </c>
+      <c r="BN80">
+        <v>1.43</v>
+      </c>
+      <c r="BO80">
+        <v>3.35</v>
+      </c>
+      <c r="BP80">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7295315</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45381.9375</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81" t="s">
+        <v>80</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>167</v>
+      </c>
+      <c r="P81" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q81">
+        <v>2.5</v>
+      </c>
+      <c r="R81">
+        <v>2.38</v>
+      </c>
+      <c r="S81">
+        <v>4</v>
+      </c>
+      <c r="T81">
+        <v>1.3</v>
+      </c>
+      <c r="U81">
+        <v>3.4</v>
+      </c>
+      <c r="V81">
+        <v>2.5</v>
+      </c>
+      <c r="W81">
+        <v>1.5</v>
+      </c>
+      <c r="X81">
+        <v>6</v>
+      </c>
+      <c r="Y81">
+        <v>1.13</v>
+      </c>
+      <c r="Z81">
+        <v>1.91</v>
+      </c>
+      <c r="AA81">
+        <v>3.5</v>
+      </c>
+      <c r="AB81">
+        <v>3.3</v>
+      </c>
+      <c r="AC81">
+        <v>1.02</v>
+      </c>
+      <c r="AD81">
+        <v>15</v>
+      </c>
+      <c r="AE81">
+        <v>1.2</v>
+      </c>
+      <c r="AF81">
+        <v>4.5</v>
+      </c>
+      <c r="AG81">
+        <v>1.6</v>
+      </c>
+      <c r="AH81">
+        <v>2.1</v>
+      </c>
+      <c r="AI81">
+        <v>1.57</v>
+      </c>
+      <c r="AJ81">
+        <v>2.25</v>
+      </c>
+      <c r="AK81">
+        <v>1.3</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>1.9</v>
+      </c>
+      <c r="AN81">
+        <v>1.5</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>2</v>
+      </c>
+      <c r="AQ81">
+        <v>0.67</v>
+      </c>
+      <c r="AR81">
+        <v>1.42</v>
+      </c>
+      <c r="AS81">
+        <v>1.81</v>
+      </c>
+      <c r="AT81">
+        <v>3.23</v>
+      </c>
+      <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>3</v>
+      </c>
+      <c r="AW81">
+        <v>5</v>
+      </c>
+      <c r="AX81">
+        <v>6</v>
+      </c>
+      <c r="AY81">
+        <v>10</v>
+      </c>
+      <c r="AZ81">
+        <v>9</v>
+      </c>
+      <c r="BA81">
+        <v>11</v>
+      </c>
+      <c r="BB81">
+        <v>4</v>
+      </c>
+      <c r="BC81">
+        <v>15</v>
+      </c>
+      <c r="BD81">
+        <v>1.63</v>
+      </c>
+      <c r="BE81">
+        <v>7.5</v>
+      </c>
+      <c r="BF81">
+        <v>2.65</v>
+      </c>
+      <c r="BG81">
+        <v>1.27</v>
+      </c>
+      <c r="BH81">
+        <v>3.15</v>
+      </c>
+      <c r="BI81">
+        <v>1.5</v>
+      </c>
+      <c r="BJ81">
+        <v>2.33</v>
+      </c>
+      <c r="BK81">
+        <v>1.86</v>
+      </c>
+      <c r="BL81">
+        <v>1.83</v>
+      </c>
+      <c r="BM81">
+        <v>2.35</v>
+      </c>
+      <c r="BN81">
+        <v>1.49</v>
+      </c>
+      <c r="BO81">
+        <v>3.1</v>
+      </c>
+      <c r="BP81">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7295316</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45381.97916666666</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s">
+        <v>92</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>168</v>
+      </c>
+      <c r="P82" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q82">
+        <v>2.5</v>
+      </c>
+      <c r="R82">
+        <v>2.3</v>
+      </c>
+      <c r="S82">
+        <v>4</v>
+      </c>
+      <c r="T82">
+        <v>1.33</v>
+      </c>
+      <c r="U82">
+        <v>3.25</v>
+      </c>
+      <c r="V82">
+        <v>2.5</v>
+      </c>
+      <c r="W82">
+        <v>1.5</v>
+      </c>
+      <c r="X82">
+        <v>6.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.11</v>
+      </c>
+      <c r="Z82">
+        <v>1.91</v>
+      </c>
+      <c r="AA82">
+        <v>3.4</v>
+      </c>
+      <c r="AB82">
+        <v>3.3</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>10.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.2</v>
+      </c>
+      <c r="AF82">
+        <v>3.9</v>
+      </c>
+      <c r="AG82">
+        <v>1.7</v>
+      </c>
+      <c r="AH82">
+        <v>1.95</v>
+      </c>
+      <c r="AI82">
+        <v>1.62</v>
+      </c>
+      <c r="AJ82">
+        <v>2.2</v>
+      </c>
+      <c r="AK82">
+        <v>1.29</v>
+      </c>
+      <c r="AL82">
+        <v>1.29</v>
+      </c>
+      <c r="AM82">
+        <v>1.85</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>1.67</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>1.98</v>
+      </c>
+      <c r="AS82">
+        <v>1.69</v>
+      </c>
+      <c r="AT82">
+        <v>3.67</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>3</v>
+      </c>
+      <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
+        <v>8</v>
+      </c>
+      <c r="AY82">
+        <v>6</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>6</v>
+      </c>
+      <c r="BC82">
+        <v>10</v>
+      </c>
+      <c r="BD82">
+        <v>1.67</v>
+      </c>
+      <c r="BE82">
+        <v>7.5</v>
+      </c>
+      <c r="BF82">
+        <v>2.6</v>
+      </c>
+      <c r="BG82">
+        <v>1.29</v>
+      </c>
+      <c r="BH82">
+        <v>3.05</v>
+      </c>
+      <c r="BI82">
+        <v>1.55</v>
+      </c>
+      <c r="BJ82">
+        <v>2.23</v>
+      </c>
+      <c r="BK82">
+        <v>1.92</v>
+      </c>
+      <c r="BL82">
+        <v>1.76</v>
+      </c>
+      <c r="BM82">
+        <v>2.45</v>
+      </c>
+      <c r="BN82">
+        <v>1.45</v>
+      </c>
+      <c r="BO82">
+        <v>3.3</v>
+      </c>
+      <c r="BP82">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7295304</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45381.97916666666</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>87</v>
+      </c>
+      <c r="H83" t="s">
+        <v>81</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83" t="s">
+        <v>169</v>
+      </c>
+      <c r="P83" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q83">
+        <v>2.38</v>
+      </c>
+      <c r="R83">
+        <v>2.38</v>
+      </c>
+      <c r="S83">
+        <v>4.33</v>
+      </c>
+      <c r="T83">
+        <v>1.3</v>
+      </c>
+      <c r="U83">
+        <v>3.4</v>
+      </c>
+      <c r="V83">
+        <v>2.5</v>
+      </c>
+      <c r="W83">
+        <v>1.5</v>
+      </c>
+      <c r="X83">
+        <v>6</v>
+      </c>
+      <c r="Y83">
+        <v>1.13</v>
+      </c>
+      <c r="Z83">
+        <v>1.75</v>
+      </c>
+      <c r="AA83">
+        <v>3.7</v>
+      </c>
+      <c r="AB83">
+        <v>3.7</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>14</v>
+      </c>
+      <c r="AE83">
+        <v>1.19</v>
+      </c>
+      <c r="AF83">
+        <v>4.6</v>
+      </c>
+      <c r="AG83">
+        <v>1.61</v>
+      </c>
+      <c r="AH83">
+        <v>2.2</v>
+      </c>
+      <c r="AI83">
+        <v>1.62</v>
+      </c>
+      <c r="AJ83">
+        <v>2.2</v>
+      </c>
+      <c r="AK83">
+        <v>1.25</v>
+      </c>
+      <c r="AL83">
+        <v>1.26</v>
+      </c>
+      <c r="AM83">
+        <v>2</v>
+      </c>
+      <c r="AN83">
+        <v>0.5</v>
+      </c>
+      <c r="AO83">
+        <v>1.5</v>
+      </c>
+      <c r="AP83">
+        <v>1.33</v>
+      </c>
+      <c r="AQ83">
+        <v>1</v>
+      </c>
+      <c r="AR83">
+        <v>1.3</v>
+      </c>
+      <c r="AS83">
+        <v>1.2</v>
+      </c>
+      <c r="AT83">
+        <v>2.5</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>5</v>
+      </c>
+      <c r="AW83">
+        <v>7</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>13</v>
+      </c>
+      <c r="AZ83">
+        <v>10</v>
+      </c>
+      <c r="BA83">
+        <v>1</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>1</v>
+      </c>
+      <c r="BD83">
+        <v>1.58</v>
+      </c>
+      <c r="BE83">
+        <v>8</v>
+      </c>
+      <c r="BF83">
+        <v>2.8</v>
+      </c>
+      <c r="BG83">
+        <v>1.28</v>
+      </c>
+      <c r="BH83">
+        <v>3.1</v>
+      </c>
+      <c r="BI83">
+        <v>1.5</v>
+      </c>
+      <c r="BJ83">
+        <v>2.3</v>
+      </c>
+      <c r="BK83">
+        <v>1.88</v>
+      </c>
+      <c r="BL83">
+        <v>1.81</v>
+      </c>
+      <c r="BM83">
+        <v>2.35</v>
+      </c>
+      <c r="BN83">
+        <v>1.48</v>
+      </c>
+      <c r="BO83">
+        <v>3.1</v>
+      </c>
+      <c r="BP83">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7295317</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45382.69791666666</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
+        <v>96</v>
+      </c>
+      <c r="H84" t="s">
+        <v>88</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>170</v>
+      </c>
+      <c r="P84" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q84">
+        <v>2.25</v>
+      </c>
+      <c r="R84">
+        <v>2.4</v>
+      </c>
+      <c r="S84">
+        <v>4.33</v>
+      </c>
+      <c r="T84">
+        <v>1.29</v>
+      </c>
+      <c r="U84">
+        <v>3.5</v>
+      </c>
+      <c r="V84">
+        <v>2.25</v>
+      </c>
+      <c r="W84">
+        <v>1.57</v>
+      </c>
+      <c r="X84">
+        <v>5.5</v>
+      </c>
+      <c r="Y84">
+        <v>1.14</v>
+      </c>
+      <c r="Z84">
+        <v>1.79</v>
+      </c>
+      <c r="AA84">
+        <v>4.04</v>
+      </c>
+      <c r="AB84">
+        <v>4.08</v>
+      </c>
+      <c r="AC84">
+        <v>1.03</v>
+      </c>
+      <c r="AD84">
+        <v>18.5</v>
+      </c>
+      <c r="AE84">
+        <v>1.18</v>
+      </c>
+      <c r="AF84">
+        <v>4.95</v>
+      </c>
+      <c r="AG84">
+        <v>1.55</v>
+      </c>
+      <c r="AH84">
+        <v>2.35</v>
+      </c>
+      <c r="AI84">
+        <v>1.57</v>
+      </c>
+      <c r="AJ84">
+        <v>2.25</v>
+      </c>
+      <c r="AK84">
+        <v>1.23</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>2.05</v>
+      </c>
+      <c r="AN84">
+        <v>3</v>
+      </c>
+      <c r="AO84">
+        <v>0.67</v>
+      </c>
+      <c r="AP84">
+        <v>3</v>
+      </c>
+      <c r="AQ84">
+        <v>0.5</v>
+      </c>
+      <c r="AR84">
+        <v>1.97</v>
+      </c>
+      <c r="AS84">
+        <v>1.03</v>
+      </c>
+      <c r="AT84">
+        <v>3</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>14</v>
+      </c>
+      <c r="AX84">
+        <v>7</v>
+      </c>
+      <c r="AY84">
+        <v>19</v>
+      </c>
+      <c r="AZ84">
+        <v>11</v>
+      </c>
+      <c r="BA84">
+        <v>3</v>
+      </c>
+      <c r="BB84">
+        <v>4</v>
+      </c>
+      <c r="BC84">
+        <v>7</v>
+      </c>
+      <c r="BD84">
+        <v>1.55</v>
+      </c>
+      <c r="BE84">
+        <v>8</v>
+      </c>
+      <c r="BF84">
+        <v>2.9</v>
+      </c>
+      <c r="BG84">
+        <v>1.25</v>
+      </c>
+      <c r="BH84">
+        <v>3.25</v>
+      </c>
+      <c r="BI84">
+        <v>1.48</v>
+      </c>
+      <c r="BJ84">
+        <v>2.38</v>
+      </c>
+      <c r="BK84">
+        <v>1.83</v>
+      </c>
+      <c r="BL84">
+        <v>1.86</v>
+      </c>
+      <c r="BM84">
+        <v>2.32</v>
+      </c>
+      <c r="BN84">
+        <v>1.5</v>
+      </c>
+      <c r="BO84">
+        <v>3</v>
+      </c>
+      <c r="BP84">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -18276,22 +18276,22 @@
         <v>3</v>
       </c>
       <c r="AU84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV84">
         <v>4</v>
       </c>
       <c r="AW84">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AX84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY84">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ84">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA84">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -415,12 +415,12 @@
     <t>['71', '80']</t>
   </si>
   <si>
+    <t>['45+8', '84', '90+5', '90+9']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
-    <t>['45+8', '84', '90+5', '90+9']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -484,12 +484,12 @@
     <t>['19', '70']</t>
   </si>
   <si>
+    <t>['42', '43', '82']</t>
+  </si>
+  <si>
     <t>['9', '18', '48', '74', '90+5']</t>
   </si>
   <si>
-    <t>['42', '43', '82']</t>
-  </si>
-  <si>
     <t>['16', '84']</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>['70', '84', '90+1']</t>
   </si>
   <si>
+    <t>['2', '29', '87']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
-    <t>['2', '29', '87']</t>
-  </si>
-  <si>
     <t>['45', '64', '90+5']</t>
   </si>
   <si>
@@ -604,12 +604,12 @@
     <t>['13', '75', '78']</t>
   </si>
   <si>
+    <t>['7', '12', '70']</t>
+  </si>
+  <si>
     <t>['24', '72', '85']</t>
   </si>
   <si>
-    <t>['7', '12', '70']</t>
-  </si>
-  <si>
     <t>['87']</t>
   </si>
   <si>
@@ -640,10 +640,10 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['72', '81']</t>
+  </si>
+  <si>
     <t>['28', '58', '67']</t>
-  </si>
-  <si>
-    <t>['72', '81']</t>
   </si>
   <si>
     <t>['8', '76']</t>
@@ -9283,7 +9283,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7295274</v>
+        <v>7295275</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9298,10 +9298,10 @@
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -9313,28 +9313,28 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O41" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="Q41">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R41">
         <v>2.3</v>
       </c>
       <c r="S41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T41">
         <v>1.33</v>
@@ -9343,43 +9343,43 @@
         <v>3.25</v>
       </c>
       <c r="V41">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W41">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X41">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y41">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z41">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="AA41">
-        <v>3.46</v>
+        <v>3.28</v>
       </c>
       <c r="AB41">
-        <v>3.69</v>
+        <v>3.1</v>
       </c>
       <c r="AC41">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE41">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AF41">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="AG41">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AH41">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AI41">
         <v>1.62</v>
@@ -9388,100 +9388,100 @@
         <v>2.2</v>
       </c>
       <c r="AK41">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AL41">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AM41">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="AN41">
         <v>1</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AR41">
-        <v>1.46</v>
+        <v>0.83</v>
       </c>
       <c r="AS41">
-        <v>2.18</v>
+        <v>1.3</v>
       </c>
       <c r="AT41">
-        <v>3.64</v>
+        <v>2.13</v>
       </c>
       <c r="AU41">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV41">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW41">
         <v>5</v>
       </c>
       <c r="AX41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY41">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ41">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB41">
         <v>9</v>
       </c>
       <c r="BC41">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD41">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="BE41">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF41">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="BG41">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="BH41">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="BI41">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="BJ41">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="BK41">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="BL41">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="BM41">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="BN41">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BO41">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="BP41">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9489,7 +9489,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7295275</v>
+        <v>7295274</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9504,10 +9504,10 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -9519,28 +9519,28 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="Q42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R42">
         <v>2.3</v>
       </c>
       <c r="S42">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T42">
         <v>1.33</v>
@@ -9549,43 +9549,43 @@
         <v>3.25</v>
       </c>
       <c r="V42">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W42">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X42">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y42">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z42">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="AA42">
-        <v>3.28</v>
+        <v>3.46</v>
       </c>
       <c r="AB42">
-        <v>3.1</v>
+        <v>3.69</v>
       </c>
       <c r="AC42">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD42">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE42">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AF42">
-        <v>3.9</v>
+        <v>3.98</v>
       </c>
       <c r="AG42">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AH42">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AI42">
         <v>1.62</v>
@@ -9594,100 +9594,100 @@
         <v>2.2</v>
       </c>
       <c r="AK42">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AL42">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AM42">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="AN42">
         <v>1</v>
       </c>
       <c r="AO42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>0.83</v>
+        <v>1.46</v>
       </c>
       <c r="AS42">
-        <v>1.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT42">
-        <v>2.13</v>
+        <v>3.64</v>
       </c>
       <c r="AU42">
+        <v>8</v>
+      </c>
+      <c r="AV42">
         <v>5</v>
-      </c>
-      <c r="AV42">
-        <v>9</v>
       </c>
       <c r="AW42">
         <v>5</v>
       </c>
       <c r="AX42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ42">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BA42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB42">
         <v>9</v>
       </c>
       <c r="BC42">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD42">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="BE42">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF42">
+        <v>2.95</v>
+      </c>
+      <c r="BG42">
+        <v>1.22</v>
+      </c>
+      <c r="BH42">
+        <v>3.5</v>
+      </c>
+      <c r="BI42">
+        <v>1.42</v>
+      </c>
+      <c r="BJ42">
         <v>2.5</v>
       </c>
-      <c r="BG42">
-        <v>1.23</v>
-      </c>
-      <c r="BH42">
-        <v>3.45</v>
-      </c>
-      <c r="BI42">
-        <v>1.44</v>
-      </c>
-      <c r="BJ42">
-        <v>2.48</v>
-      </c>
       <c r="BK42">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="BL42">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="BM42">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="BN42">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="BO42">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="BP42">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9901,7 +9901,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7295278</v>
+        <v>7295277</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9916,28 +9916,28 @@
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M44">
         <v>3</v>
       </c>
       <c r="N44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O44" t="s">
         <v>133</v>
@@ -9946,19 +9946,19 @@
         <v>196</v>
       </c>
       <c r="Q44">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="R44">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S44">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T44">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U44">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V44">
         <v>2.63</v>
@@ -9967,100 +9967,100 @@
         <v>1.44</v>
       </c>
       <c r="X44">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y44">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z44">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AA44">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AB44">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="AC44">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD44">
+        <v>9.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.25</v>
+      </c>
+      <c r="AF44">
+        <v>3.85</v>
+      </c>
+      <c r="AG44">
+        <v>1.75</v>
+      </c>
+      <c r="AH44">
+        <v>1.95</v>
+      </c>
+      <c r="AI44">
+        <v>1.67</v>
+      </c>
+      <c r="AJ44">
+        <v>2.1</v>
+      </c>
+      <c r="AK44">
+        <v>1.25</v>
+      </c>
+      <c r="AL44">
+        <v>1.22</v>
+      </c>
+      <c r="AM44">
+        <v>1.83</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>2.33</v>
+      </c>
+      <c r="AP44">
+        <v>1.5</v>
+      </c>
+      <c r="AQ44">
+        <v>1.4</v>
+      </c>
+      <c r="AR44">
+        <v>0.84</v>
+      </c>
+      <c r="AS44">
+        <v>1.3</v>
+      </c>
+      <c r="AT44">
+        <v>2.14</v>
+      </c>
+      <c r="AU44">
+        <v>12</v>
+      </c>
+      <c r="AV44">
+        <v>5</v>
+      </c>
+      <c r="AW44">
+        <v>6</v>
+      </c>
+      <c r="AX44">
+        <v>4</v>
+      </c>
+      <c r="AY44">
+        <v>18</v>
+      </c>
+      <c r="AZ44">
+        <v>9</v>
+      </c>
+      <c r="BA44">
+        <v>9</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
         <v>10</v>
-      </c>
-      <c r="AE44">
-        <v>1.2</v>
-      </c>
-      <c r="AF44">
-        <v>4.5</v>
-      </c>
-      <c r="AG44">
-        <v>1.57</v>
-      </c>
-      <c r="AH44">
-        <v>2.25</v>
-      </c>
-      <c r="AI44">
-        <v>1.62</v>
-      </c>
-      <c r="AJ44">
-        <v>2.2</v>
-      </c>
-      <c r="AK44">
-        <v>1.48</v>
-      </c>
-      <c r="AL44">
-        <v>1.25</v>
-      </c>
-      <c r="AM44">
-        <v>1.48</v>
-      </c>
-      <c r="AN44">
-        <v>3</v>
-      </c>
-      <c r="AO44">
-        <v>1</v>
-      </c>
-      <c r="AP44">
-        <v>2</v>
-      </c>
-      <c r="AQ44">
-        <v>1.33</v>
-      </c>
-      <c r="AR44">
-        <v>1.94</v>
-      </c>
-      <c r="AS44">
-        <v>1.31</v>
-      </c>
-      <c r="AT44">
-        <v>3.25</v>
-      </c>
-      <c r="AU44">
-        <v>8</v>
-      </c>
-      <c r="AV44">
-        <v>8</v>
-      </c>
-      <c r="AW44">
-        <v>7</v>
-      </c>
-      <c r="AX44">
-        <v>6</v>
-      </c>
-      <c r="AY44">
-        <v>15</v>
-      </c>
-      <c r="AZ44">
-        <v>14</v>
-      </c>
-      <c r="BA44">
-        <v>8</v>
-      </c>
-      <c r="BB44">
-        <v>5</v>
-      </c>
-      <c r="BC44">
-        <v>13</v>
       </c>
       <c r="BD44">
         <v>1.85</v>
@@ -10072,34 +10072,34 @@
         <v>2.28</v>
       </c>
       <c r="BG44">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="BH44">
-        <v>3.08</v>
+        <v>3.64</v>
       </c>
       <c r="BI44">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="BJ44">
-        <v>2.28</v>
+        <v>2.59</v>
       </c>
       <c r="BK44">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="BL44">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="BM44">
-        <v>2.51</v>
+        <v>2.23</v>
       </c>
       <c r="BN44">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="BO44">
-        <v>3.48</v>
+        <v>2.98</v>
       </c>
       <c r="BP44">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -10107,7 +10107,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7295277</v>
+        <v>7295278</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -10122,28 +10122,28 @@
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
         <v>4</v>
-      </c>
-      <c r="M45">
-        <v>3</v>
-      </c>
-      <c r="N45">
-        <v>7</v>
       </c>
       <c r="O45" t="s">
         <v>134</v>
@@ -10152,19 +10152,19 @@
         <v>197</v>
       </c>
       <c r="Q45">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="R45">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S45">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="T45">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U45">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V45">
         <v>2.63</v>
@@ -10173,100 +10173,100 @@
         <v>1.44</v>
       </c>
       <c r="X45">
+        <v>6.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.11</v>
+      </c>
+      <c r="Z45">
+        <v>2.5</v>
+      </c>
+      <c r="AA45">
+        <v>3.75</v>
+      </c>
+      <c r="AB45">
+        <v>2.5</v>
+      </c>
+      <c r="AC45">
+        <v>1.04</v>
+      </c>
+      <c r="AD45">
+        <v>10</v>
+      </c>
+      <c r="AE45">
+        <v>1.2</v>
+      </c>
+      <c r="AF45">
+        <v>4.5</v>
+      </c>
+      <c r="AG45">
+        <v>1.57</v>
+      </c>
+      <c r="AH45">
+        <v>2.25</v>
+      </c>
+      <c r="AI45">
+        <v>1.62</v>
+      </c>
+      <c r="AJ45">
+        <v>2.2</v>
+      </c>
+      <c r="AK45">
+        <v>1.48</v>
+      </c>
+      <c r="AL45">
+        <v>1.25</v>
+      </c>
+      <c r="AM45">
+        <v>1.48</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>2</v>
+      </c>
+      <c r="AQ45">
+        <v>1.33</v>
+      </c>
+      <c r="AR45">
+        <v>1.94</v>
+      </c>
+      <c r="AS45">
+        <v>1.31</v>
+      </c>
+      <c r="AT45">
+        <v>3.25</v>
+      </c>
+      <c r="AU45">
+        <v>8</v>
+      </c>
+      <c r="AV45">
+        <v>8</v>
+      </c>
+      <c r="AW45">
         <v>7</v>
       </c>
-      <c r="Y45">
-        <v>1.1</v>
-      </c>
-      <c r="Z45">
-        <v>1.83</v>
-      </c>
-      <c r="AA45">
-        <v>3.7</v>
-      </c>
-      <c r="AB45">
-        <v>3.9</v>
-      </c>
-      <c r="AC45">
-        <v>1.05</v>
-      </c>
-      <c r="AD45">
-        <v>9.5</v>
-      </c>
-      <c r="AE45">
-        <v>1.25</v>
-      </c>
-      <c r="AF45">
-        <v>3.85</v>
-      </c>
-      <c r="AG45">
-        <v>1.75</v>
-      </c>
-      <c r="AH45">
-        <v>1.95</v>
-      </c>
-      <c r="AI45">
-        <v>1.67</v>
-      </c>
-      <c r="AJ45">
-        <v>2.1</v>
-      </c>
-      <c r="AK45">
-        <v>1.25</v>
-      </c>
-      <c r="AL45">
-        <v>1.22</v>
-      </c>
-      <c r="AM45">
-        <v>1.83</v>
-      </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
-      <c r="AO45">
-        <v>2.33</v>
-      </c>
-      <c r="AP45">
-        <v>1.5</v>
-      </c>
-      <c r="AQ45">
-        <v>1.4</v>
-      </c>
-      <c r="AR45">
-        <v>0.84</v>
-      </c>
-      <c r="AS45">
-        <v>1.3</v>
-      </c>
-      <c r="AT45">
-        <v>2.14</v>
-      </c>
-      <c r="AU45">
-        <v>12</v>
-      </c>
-      <c r="AV45">
+      <c r="AX45">
+        <v>6</v>
+      </c>
+      <c r="AY45">
+        <v>15</v>
+      </c>
+      <c r="AZ45">
+        <v>14</v>
+      </c>
+      <c r="BA45">
+        <v>8</v>
+      </c>
+      <c r="BB45">
         <v>5</v>
       </c>
-      <c r="AW45">
-        <v>6</v>
-      </c>
-      <c r="AX45">
-        <v>4</v>
-      </c>
-      <c r="AY45">
-        <v>18</v>
-      </c>
-      <c r="AZ45">
-        <v>9</v>
-      </c>
-      <c r="BA45">
-        <v>9</v>
-      </c>
-      <c r="BB45">
-        <v>1</v>
-      </c>
       <c r="BC45">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD45">
         <v>1.85</v>
@@ -10278,34 +10278,34 @@
         <v>2.28</v>
       </c>
       <c r="BG45">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="BH45">
-        <v>3.64</v>
+        <v>3.08</v>
       </c>
       <c r="BI45">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="BJ45">
-        <v>2.59</v>
+        <v>2.28</v>
       </c>
       <c r="BK45">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="BL45">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="BM45">
-        <v>2.23</v>
+        <v>2.51</v>
       </c>
       <c r="BN45">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="BO45">
-        <v>2.98</v>
+        <v>3.48</v>
       </c>
       <c r="BP45">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -14845,7 +14845,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7295301</v>
+        <v>7295303</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14860,10 +14860,10 @@
         <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I68">
         <v>2</v>
@@ -14875,10 +14875,10 @@
         <v>2</v>
       </c>
       <c r="L68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N68">
         <v>5</v>
@@ -14887,163 +14887,163 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="Q68">
+        <v>3.25</v>
+      </c>
+      <c r="R68">
         <v>2.1</v>
       </c>
-      <c r="R68">
-        <v>2.3</v>
-      </c>
       <c r="S68">
+        <v>3.4</v>
+      </c>
+      <c r="T68">
+        <v>1.44</v>
+      </c>
+      <c r="U68">
+        <v>2.63</v>
+      </c>
+      <c r="V68">
+        <v>3.25</v>
+      </c>
+      <c r="W68">
+        <v>1.33</v>
+      </c>
+      <c r="X68">
+        <v>9</v>
+      </c>
+      <c r="Y68">
+        <v>1.07</v>
+      </c>
+      <c r="Z68">
+        <v>2.6</v>
+      </c>
+      <c r="AA68">
+        <v>3.2</v>
+      </c>
+      <c r="AB68">
+        <v>2.7</v>
+      </c>
+      <c r="AC68">
+        <v>1.06</v>
+      </c>
+      <c r="AD68">
+        <v>8.25</v>
+      </c>
+      <c r="AE68">
+        <v>1.34</v>
+      </c>
+      <c r="AF68">
+        <v>3.34</v>
+      </c>
+      <c r="AG68">
+        <v>2</v>
+      </c>
+      <c r="AH68">
+        <v>1.73</v>
+      </c>
+      <c r="AI68">
+        <v>1.8</v>
+      </c>
+      <c r="AJ68">
+        <v>1.95</v>
+      </c>
+      <c r="AK68">
+        <v>1.44</v>
+      </c>
+      <c r="AL68">
+        <v>1.33</v>
+      </c>
+      <c r="AM68">
+        <v>1.44</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>1.18</v>
+      </c>
+      <c r="AS68">
+        <v>1.65</v>
+      </c>
+      <c r="AT68">
+        <v>2.83</v>
+      </c>
+      <c r="AU68">
+        <v>8</v>
+      </c>
+      <c r="AV68">
+        <v>7</v>
+      </c>
+      <c r="AW68">
+        <v>4</v>
+      </c>
+      <c r="AX68">
         <v>6</v>
       </c>
-      <c r="T68">
-        <v>1.36</v>
-      </c>
-      <c r="U68">
-        <v>3</v>
-      </c>
-      <c r="V68">
-        <v>2.63</v>
-      </c>
-      <c r="W68">
-        <v>1.44</v>
-      </c>
-      <c r="X68">
-        <v>7</v>
-      </c>
-      <c r="Y68">
-        <v>1.1</v>
-      </c>
-      <c r="Z68">
-        <v>1.53</v>
-      </c>
-      <c r="AA68">
-        <v>4</v>
-      </c>
-      <c r="AB68">
-        <v>6</v>
-      </c>
-      <c r="AC68">
-        <v>1.05</v>
-      </c>
-      <c r="AD68">
-        <v>9</v>
-      </c>
-      <c r="AE68">
-        <v>1.22</v>
-      </c>
-      <c r="AF68">
-        <v>4</v>
-      </c>
-      <c r="AG68">
-        <v>1.78</v>
-      </c>
-      <c r="AH68">
-        <v>2</v>
-      </c>
-      <c r="AI68">
-        <v>1.95</v>
-      </c>
-      <c r="AJ68">
-        <v>1.8</v>
-      </c>
-      <c r="AK68">
-        <v>1.11</v>
-      </c>
-      <c r="AL68">
-        <v>1.22</v>
-      </c>
-      <c r="AM68">
-        <v>2.45</v>
-      </c>
-      <c r="AN68">
-        <v>2</v>
-      </c>
-      <c r="AO68">
-        <v>1</v>
-      </c>
-      <c r="AP68">
-        <v>2.33</v>
-      </c>
-      <c r="AQ68">
-        <v>0.5</v>
-      </c>
-      <c r="AR68">
-        <v>1.68</v>
-      </c>
-      <c r="AS68">
-        <v>1.01</v>
-      </c>
-      <c r="AT68">
-        <v>2.69</v>
-      </c>
-      <c r="AU68">
+      <c r="AY68">
+        <v>12</v>
+      </c>
+      <c r="AZ68">
         <v>13</v>
       </c>
-      <c r="AV68">
-        <v>3</v>
-      </c>
-      <c r="AW68">
+      <c r="BA68">
+        <v>2</v>
+      </c>
+      <c r="BB68">
+        <v>8</v>
+      </c>
+      <c r="BC68">
         <v>10</v>
       </c>
-      <c r="AX68">
-        <v>1</v>
-      </c>
-      <c r="AY68">
-        <v>23</v>
-      </c>
-      <c r="AZ68">
-        <v>4</v>
-      </c>
-      <c r="BA68">
-        <v>7</v>
-      </c>
-      <c r="BB68">
-        <v>4</v>
-      </c>
-      <c r="BC68">
-        <v>11</v>
-      </c>
       <c r="BD68">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="BE68">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF68">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="BG68">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BH68">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="BI68">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="BJ68">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="BK68">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="BL68">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="BM68">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="BN68">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="BO68">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="BP68">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -15051,7 +15051,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7295302</v>
+        <v>7295301</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15066,49 +15066,49 @@
         <v>5</v>
       </c>
       <c r="G69" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H69" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O69" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="Q69">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="R69">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S69">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="T69">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V69">
         <v>2.63</v>
@@ -15117,25 +15117,25 @@
         <v>1.44</v>
       </c>
       <c r="X69">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y69">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z69">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="AA69">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AB69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC69">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE69">
         <v>1.22</v>
@@ -15144,112 +15144,112 @@
         <v>4</v>
       </c>
       <c r="AG69">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AH69">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AI69">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AJ69">
+        <v>1.8</v>
+      </c>
+      <c r="AK69">
+        <v>1.11</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>2.45</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>2.33</v>
+      </c>
+      <c r="AQ69">
+        <v>0.5</v>
+      </c>
+      <c r="AR69">
+        <v>1.68</v>
+      </c>
+      <c r="AS69">
+        <v>1.01</v>
+      </c>
+      <c r="AT69">
+        <v>2.69</v>
+      </c>
+      <c r="AU69">
+        <v>13</v>
+      </c>
+      <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
+        <v>10</v>
+      </c>
+      <c r="AX69">
+        <v>1</v>
+      </c>
+      <c r="AY69">
+        <v>23</v>
+      </c>
+      <c r="AZ69">
+        <v>4</v>
+      </c>
+      <c r="BA69">
+        <v>7</v>
+      </c>
+      <c r="BB69">
+        <v>4</v>
+      </c>
+      <c r="BC69">
+        <v>11</v>
+      </c>
+      <c r="BD69">
+        <v>1.42</v>
+      </c>
+      <c r="BE69">
+        <v>8.5</v>
+      </c>
+      <c r="BF69">
+        <v>3.5</v>
+      </c>
+      <c r="BG69">
+        <v>1.3</v>
+      </c>
+      <c r="BH69">
+        <v>2.95</v>
+      </c>
+      <c r="BI69">
+        <v>1.57</v>
+      </c>
+      <c r="BJ69">
         <v>2.2</v>
       </c>
-      <c r="AK69">
-        <v>1.35</v>
-      </c>
-      <c r="AL69">
+      <c r="BK69">
+        <v>1.95</v>
+      </c>
+      <c r="BL69">
+        <v>1.74</v>
+      </c>
+      <c r="BM69">
+        <v>2.48</v>
+      </c>
+      <c r="BN69">
+        <v>1.44</v>
+      </c>
+      <c r="BO69">
+        <v>3.3</v>
+      </c>
+      <c r="BP69">
         <v>1.25</v>
-      </c>
-      <c r="AM69">
-        <v>1.67</v>
-      </c>
-      <c r="AN69">
-        <v>2</v>
-      </c>
-      <c r="AO69">
-        <v>1</v>
-      </c>
-      <c r="AP69">
-        <v>1.33</v>
-      </c>
-      <c r="AQ69">
-        <v>1.67</v>
-      </c>
-      <c r="AR69">
-        <v>1.13</v>
-      </c>
-      <c r="AS69">
-        <v>1.48</v>
-      </c>
-      <c r="AT69">
-        <v>2.61</v>
-      </c>
-      <c r="AU69">
-        <v>7</v>
-      </c>
-      <c r="AV69">
-        <v>8</v>
-      </c>
-      <c r="AW69">
-        <v>9</v>
-      </c>
-      <c r="AX69">
-        <v>6</v>
-      </c>
-      <c r="AY69">
-        <v>16</v>
-      </c>
-      <c r="AZ69">
-        <v>14</v>
-      </c>
-      <c r="BA69">
-        <v>4</v>
-      </c>
-      <c r="BB69">
-        <v>5</v>
-      </c>
-      <c r="BC69">
-        <v>9</v>
-      </c>
-      <c r="BD69">
-        <v>1.75</v>
-      </c>
-      <c r="BE69">
-        <v>7.5</v>
-      </c>
-      <c r="BF69">
-        <v>2.4</v>
-      </c>
-      <c r="BG69">
-        <v>1.29</v>
-      </c>
-      <c r="BH69">
-        <v>3</v>
-      </c>
-      <c r="BI69">
-        <v>1.55</v>
-      </c>
-      <c r="BJ69">
-        <v>2.23</v>
-      </c>
-      <c r="BK69">
-        <v>1.93</v>
-      </c>
-      <c r="BL69">
-        <v>1.76</v>
-      </c>
-      <c r="BM69">
-        <v>2.45</v>
-      </c>
-      <c r="BN69">
-        <v>1.45</v>
-      </c>
-      <c r="BO69">
-        <v>3.25</v>
-      </c>
-      <c r="BP69">
-        <v>1.26</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15257,7 +15257,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7295303</v>
+        <v>7295302</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15272,190 +15272,190 @@
         <v>5</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O70" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="P70" t="s">
         <v>209</v>
       </c>
       <c r="Q70">
+        <v>2.75</v>
+      </c>
+      <c r="R70">
+        <v>2.25</v>
+      </c>
+      <c r="S70">
+        <v>3.6</v>
+      </c>
+      <c r="T70">
+        <v>1.33</v>
+      </c>
+      <c r="U70">
         <v>3.25</v>
       </c>
-      <c r="R70">
-        <v>2.1</v>
-      </c>
-      <c r="S70">
-        <v>3.4</v>
-      </c>
-      <c r="T70">
+      <c r="V70">
+        <v>2.63</v>
+      </c>
+      <c r="W70">
         <v>1.44</v>
       </c>
-      <c r="U70">
-        <v>2.63</v>
-      </c>
-      <c r="V70">
-        <v>3.25</v>
-      </c>
-      <c r="W70">
+      <c r="X70">
+        <v>6.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.11</v>
+      </c>
+      <c r="Z70">
+        <v>2.25</v>
+      </c>
+      <c r="AA70">
+        <v>3.5</v>
+      </c>
+      <c r="AB70">
+        <v>3</v>
+      </c>
+      <c r="AC70">
+        <v>1.04</v>
+      </c>
+      <c r="AD70">
+        <v>10</v>
+      </c>
+      <c r="AE70">
+        <v>1.22</v>
+      </c>
+      <c r="AF70">
+        <v>4</v>
+      </c>
+      <c r="AG70">
+        <v>1.73</v>
+      </c>
+      <c r="AH70">
+        <v>2.08</v>
+      </c>
+      <c r="AI70">
+        <v>1.62</v>
+      </c>
+      <c r="AJ70">
+        <v>2.2</v>
+      </c>
+      <c r="AK70">
+        <v>1.35</v>
+      </c>
+      <c r="AL70">
+        <v>1.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.67</v>
+      </c>
+      <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
         <v>1.33</v>
       </c>
-      <c r="X70">
+      <c r="AQ70">
+        <v>1.67</v>
+      </c>
+      <c r="AR70">
+        <v>1.13</v>
+      </c>
+      <c r="AS70">
+        <v>1.48</v>
+      </c>
+      <c r="AT70">
+        <v>2.61</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>8</v>
+      </c>
+      <c r="AW70">
         <v>9</v>
-      </c>
-      <c r="Y70">
-        <v>1.07</v>
-      </c>
-      <c r="Z70">
-        <v>2.6</v>
-      </c>
-      <c r="AA70">
-        <v>3.2</v>
-      </c>
-      <c r="AB70">
-        <v>2.7</v>
-      </c>
-      <c r="AC70">
-        <v>1.06</v>
-      </c>
-      <c r="AD70">
-        <v>8.25</v>
-      </c>
-      <c r="AE70">
-        <v>1.34</v>
-      </c>
-      <c r="AF70">
-        <v>3.34</v>
-      </c>
-      <c r="AG70">
-        <v>2</v>
-      </c>
-      <c r="AH70">
-        <v>1.73</v>
-      </c>
-      <c r="AI70">
-        <v>1.8</v>
-      </c>
-      <c r="AJ70">
-        <v>1.95</v>
-      </c>
-      <c r="AK70">
-        <v>1.44</v>
-      </c>
-      <c r="AL70">
-        <v>1.33</v>
-      </c>
-      <c r="AM70">
-        <v>1.44</v>
-      </c>
-      <c r="AN70">
-        <v>0</v>
-      </c>
-      <c r="AO70">
-        <v>0</v>
-      </c>
-      <c r="AP70">
-        <v>1</v>
-      </c>
-      <c r="AQ70">
-        <v>0</v>
-      </c>
-      <c r="AR70">
-        <v>1.18</v>
-      </c>
-      <c r="AS70">
-        <v>1.65</v>
-      </c>
-      <c r="AT70">
-        <v>2.83</v>
-      </c>
-      <c r="AU70">
-        <v>8</v>
-      </c>
-      <c r="AV70">
-        <v>7</v>
-      </c>
-      <c r="AW70">
-        <v>4</v>
       </c>
       <c r="AX70">
         <v>6</v>
       </c>
       <c r="AY70">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ70">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD70">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="BE70">
         <v>7.5</v>
       </c>
       <c r="BF70">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="BG70">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="BH70">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="BI70">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="BJ70">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="BK70">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="BL70">
-        <v>2.04</v>
+        <v>1.76</v>
       </c>
       <c r="BM70">
-        <v>2.08</v>
+        <v>2.45</v>
       </c>
       <c r="BN70">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="BO70">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="BP70">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -16326,7 +16326,7 @@
         <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P75" t="s">
         <v>211</v>
@@ -17729,7 +17729,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7295316</v>
+        <v>7295304</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17744,49 +17744,49 @@
         <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O82" t="s">
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="Q82">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R82">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S82">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T82">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U82">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V82">
         <v>2.5</v>
@@ -17795,37 +17795,37 @@
         <v>1.5</v>
       </c>
       <c r="X82">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y82">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z82">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AA82">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AB82">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AC82">
         <v>1.01</v>
       </c>
       <c r="AD82">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AE82">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AF82">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="AG82">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AH82">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AI82">
         <v>1.62</v>
@@ -17834,100 +17834,100 @@
         <v>2.2</v>
       </c>
       <c r="AK82">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AL82">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AM82">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AN82">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO82">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR82">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="AS82">
-        <v>1.69</v>
+        <v>1.2</v>
       </c>
       <c r="AT82">
-        <v>3.67</v>
+        <v>2.5</v>
       </c>
       <c r="AU82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW82">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX82">
+        <v>5</v>
+      </c>
+      <c r="AY82">
+        <v>13</v>
+      </c>
+      <c r="AZ82">
+        <v>10</v>
+      </c>
+      <c r="BA82">
+        <v>1</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>1</v>
+      </c>
+      <c r="BD82">
+        <v>1.58</v>
+      </c>
+      <c r="BE82">
         <v>8</v>
       </c>
-      <c r="AY82">
-        <v>6</v>
-      </c>
-      <c r="AZ82">
-        <v>11</v>
-      </c>
-      <c r="BA82">
-        <v>4</v>
-      </c>
-      <c r="BB82">
-        <v>6</v>
-      </c>
-      <c r="BC82">
-        <v>10</v>
-      </c>
-      <c r="BD82">
-        <v>1.67</v>
-      </c>
-      <c r="BE82">
-        <v>7.5</v>
-      </c>
       <c r="BF82">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="BG82">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BH82">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="BI82">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="BJ82">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="BK82">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="BL82">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="BM82">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="BN82">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="BO82">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="BP82">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17935,7 +17935,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7295304</v>
+        <v>7295316</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17950,49 +17950,49 @@
         <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O83" t="s">
         <v>169</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="Q83">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R83">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S83">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T83">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U83">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V83">
         <v>2.5</v>
@@ -18001,37 +18001,37 @@
         <v>1.5</v>
       </c>
       <c r="X83">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y83">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z83">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AA83">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AB83">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC83">
         <v>1.01</v>
       </c>
       <c r="AD83">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AE83">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AF83">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="AG83">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AH83">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AI83">
         <v>1.62</v>
@@ -18040,100 +18040,100 @@
         <v>2.2</v>
       </c>
       <c r="AK83">
+        <v>1.29</v>
+      </c>
+      <c r="AL83">
+        <v>1.29</v>
+      </c>
+      <c r="AM83">
+        <v>1.85</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>1.67</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <v>1.98</v>
+      </c>
+      <c r="AS83">
+        <v>1.69</v>
+      </c>
+      <c r="AT83">
+        <v>3.67</v>
+      </c>
+      <c r="AU83">
+        <v>3</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>3</v>
+      </c>
+      <c r="AX83">
+        <v>8</v>
+      </c>
+      <c r="AY83">
+        <v>6</v>
+      </c>
+      <c r="AZ83">
+        <v>11</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>6</v>
+      </c>
+      <c r="BC83">
+        <v>10</v>
+      </c>
+      <c r="BD83">
+        <v>1.67</v>
+      </c>
+      <c r="BE83">
+        <v>7.5</v>
+      </c>
+      <c r="BF83">
+        <v>2.6</v>
+      </c>
+      <c r="BG83">
+        <v>1.29</v>
+      </c>
+      <c r="BH83">
+        <v>3.05</v>
+      </c>
+      <c r="BI83">
+        <v>1.55</v>
+      </c>
+      <c r="BJ83">
+        <v>2.23</v>
+      </c>
+      <c r="BK83">
+        <v>1.92</v>
+      </c>
+      <c r="BL83">
+        <v>1.76</v>
+      </c>
+      <c r="BM83">
+        <v>2.45</v>
+      </c>
+      <c r="BN83">
+        <v>1.45</v>
+      </c>
+      <c r="BO83">
+        <v>3.3</v>
+      </c>
+      <c r="BP83">
         <v>1.25</v>
-      </c>
-      <c r="AL83">
-        <v>1.26</v>
-      </c>
-      <c r="AM83">
-        <v>2</v>
-      </c>
-      <c r="AN83">
-        <v>0.5</v>
-      </c>
-      <c r="AO83">
-        <v>1.5</v>
-      </c>
-      <c r="AP83">
-        <v>1.33</v>
-      </c>
-      <c r="AQ83">
-        <v>1</v>
-      </c>
-      <c r="AR83">
-        <v>1.3</v>
-      </c>
-      <c r="AS83">
-        <v>1.2</v>
-      </c>
-      <c r="AT83">
-        <v>2.5</v>
-      </c>
-      <c r="AU83">
-        <v>6</v>
-      </c>
-      <c r="AV83">
-        <v>5</v>
-      </c>
-      <c r="AW83">
-        <v>7</v>
-      </c>
-      <c r="AX83">
-        <v>5</v>
-      </c>
-      <c r="AY83">
-        <v>13</v>
-      </c>
-      <c r="AZ83">
-        <v>10</v>
-      </c>
-      <c r="BA83">
-        <v>1</v>
-      </c>
-      <c r="BB83">
-        <v>0</v>
-      </c>
-      <c r="BC83">
-        <v>1</v>
-      </c>
-      <c r="BD83">
-        <v>1.58</v>
-      </c>
-      <c r="BE83">
-        <v>8</v>
-      </c>
-      <c r="BF83">
-        <v>2.8</v>
-      </c>
-      <c r="BG83">
-        <v>1.28</v>
-      </c>
-      <c r="BH83">
-        <v>3.1</v>
-      </c>
-      <c r="BI83">
-        <v>1.5</v>
-      </c>
-      <c r="BJ83">
-        <v>2.3</v>
-      </c>
-      <c r="BK83">
-        <v>1.88</v>
-      </c>
-      <c r="BL83">
-        <v>1.81</v>
-      </c>
-      <c r="BM83">
-        <v>2.35</v>
-      </c>
-      <c r="BN83">
-        <v>1.48</v>
-      </c>
-      <c r="BO83">
-        <v>3.1</v>
-      </c>
-      <c r="BP83">
-        <v>1.27</v>
       </c>
     </row>
     <row r="84" spans="1:68">

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,42 @@
     <t>['45', '64', '90+5']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['57', '60']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['6', '29', '81', '89']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['4', '35']</t>
+  </si>
+  <si>
+    <t>['61', '63', '67', '90+11']</t>
+  </si>
+  <si>
+    <t>['10', '78']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['20', '27', '48', '81', '90+7']</t>
+  </si>
+  <si>
+    <t>['13', '38', '45+3']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -610,9 +646,6 @@
     <t>['24', '72', '85']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['14', '65']</t>
   </si>
   <si>
@@ -667,10 +700,31 @@
     <t>['16', '79']</t>
   </si>
   <si>
-    <t>['3']</t>
-  </si>
-  <si>
     <t>['52', '77']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['45', '88']</t>
+  </si>
+  <si>
+    <t>['19', '60']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['20', '57', '74']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['62', '90']</t>
+  </si>
+  <si>
+    <t>['64', '66', '81']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1575,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1703,7 +1757,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1781,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -2115,7 +2169,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2402,7 +2456,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2527,7 +2581,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2733,7 +2787,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2811,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -2939,7 +2993,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3145,7 +3199,7 @@
         <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3351,7 +3405,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3429,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3557,7 +3611,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3638,7 +3692,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3841,10 +3895,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4047,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4175,7 +4229,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4459,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4871,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4999,7 +5053,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5077,10 +5131,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5205,7 +5259,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5283,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>2.33</v>
@@ -5411,7 +5465,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5492,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -5617,7 +5671,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5698,7 +5752,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -5901,10 +5955,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6107,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.25</v>
@@ -6235,7 +6289,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6441,7 +6495,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6647,7 +6701,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6728,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6931,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7137,10 +7191,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7265,7 +7319,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7343,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7552,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7677,7 +7731,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7883,7 +7937,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7961,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
         <v>0.5</v>
@@ -8170,7 +8224,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8295,7 +8349,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8501,7 +8555,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8579,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -8707,7 +8761,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8788,7 +8842,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -8991,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39">
         <v>1.67</v>
@@ -9119,7 +9173,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9325,7 +9379,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9403,10 +9457,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>0.83</v>
@@ -9609,7 +9663,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9737,7 +9791,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -9815,10 +9869,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -9943,7 +9997,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10021,10 +10075,10 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR44">
         <v>0.84</v>
@@ -10149,7 +10203,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10355,7 +10409,7 @@
         <v>135</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10433,10 +10487,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -10639,10 +10693,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -10845,10 +10899,10 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.35</v>
@@ -10973,7 +11027,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11051,10 +11105,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11179,7 +11233,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11669,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11875,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -12081,10 +12135,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ54">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR54">
         <v>1.06</v>
@@ -12209,7 +12263,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12415,7 +12469,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12493,7 +12547,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>2.33</v>
@@ -12827,7 +12881,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12905,7 +12959,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
@@ -13239,7 +13293,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13317,10 +13371,10 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -13729,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ62">
         <v>0.25</v>
@@ -14144,7 +14198,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14269,7 +14323,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14347,10 +14401,10 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14475,7 +14529,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14553,7 +14607,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14681,7 +14735,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14762,7 +14816,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -14887,7 +14941,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15171,7 +15225,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15299,7 +15353,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15380,7 +15434,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>1.13</v>
@@ -15711,7 +15765,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15917,7 +15971,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16204,7 +16258,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR74">
         <v>1.9</v>
@@ -16329,7 +16383,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16407,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ75">
         <v>0.25</v>
@@ -16535,7 +16589,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16616,7 +16670,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -16741,7 +16795,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16947,7 +17001,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17025,10 +17079,10 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR78">
         <v>0.95</v>
@@ -17153,7 +17207,7 @@
         <v>165</v>
       </c>
       <c r="P79" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17359,7 +17413,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17437,7 +17491,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ80">
         <v>0.67</v>
@@ -17565,7 +17619,7 @@
         <v>167</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17771,7 +17825,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17849,7 +17903,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18340,6 +18394,2890 @@
       </c>
       <c r="BP84">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7295323</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45388.85416666666</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>93</v>
+      </c>
+      <c r="H85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>171</v>
+      </c>
+      <c r="P85" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q85">
+        <v>2.88</v>
+      </c>
+      <c r="R85">
+        <v>2.2</v>
+      </c>
+      <c r="S85">
+        <v>3.6</v>
+      </c>
+      <c r="T85">
+        <v>1.36</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <v>2.75</v>
+      </c>
+      <c r="W85">
+        <v>1.4</v>
+      </c>
+      <c r="X85">
+        <v>7</v>
+      </c>
+      <c r="Y85">
+        <v>1.1</v>
+      </c>
+      <c r="Z85">
+        <v>2.08</v>
+      </c>
+      <c r="AA85">
+        <v>3.18</v>
+      </c>
+      <c r="AB85">
+        <v>2.98</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>12.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.27</v>
+      </c>
+      <c r="AF85">
+        <v>3.83</v>
+      </c>
+      <c r="AG85">
+        <v>1.88</v>
+      </c>
+      <c r="AH85">
+        <v>2</v>
+      </c>
+      <c r="AI85">
+        <v>1.7</v>
+      </c>
+      <c r="AJ85">
+        <v>2.05</v>
+      </c>
+      <c r="AK85">
+        <v>1.38</v>
+      </c>
+      <c r="AL85">
+        <v>1.33</v>
+      </c>
+      <c r="AM85">
+        <v>1.62</v>
+      </c>
+      <c r="AN85">
+        <v>0.33</v>
+      </c>
+      <c r="AO85">
+        <v>0.33</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>0.25</v>
+      </c>
+      <c r="AR85">
+        <v>1.75</v>
+      </c>
+      <c r="AS85">
+        <v>1.3</v>
+      </c>
+      <c r="AT85">
+        <v>3.05</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>6</v>
+      </c>
+      <c r="AX85">
+        <v>3</v>
+      </c>
+      <c r="AY85">
+        <v>10</v>
+      </c>
+      <c r="AZ85">
+        <v>6</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>6</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>1.73</v>
+      </c>
+      <c r="BE85">
+        <v>7.5</v>
+      </c>
+      <c r="BF85">
+        <v>2.45</v>
+      </c>
+      <c r="BG85">
+        <v>1.3</v>
+      </c>
+      <c r="BH85">
+        <v>2.95</v>
+      </c>
+      <c r="BI85">
+        <v>1.58</v>
+      </c>
+      <c r="BJ85">
+        <v>2.18</v>
+      </c>
+      <c r="BK85">
+        <v>1.91</v>
+      </c>
+      <c r="BL85">
+        <v>1.8</v>
+      </c>
+      <c r="BM85">
+        <v>2.5</v>
+      </c>
+      <c r="BN85">
+        <v>1.42</v>
+      </c>
+      <c r="BO85">
+        <v>3.35</v>
+      </c>
+      <c r="BP85">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7295324</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45388.85416666666</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>94</v>
+      </c>
+      <c r="H86" t="s">
+        <v>96</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>140</v>
+      </c>
+      <c r="P86" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q86">
+        <v>2.75</v>
+      </c>
+      <c r="R86">
+        <v>2.2</v>
+      </c>
+      <c r="S86">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <v>1.4</v>
+      </c>
+      <c r="U86">
+        <v>2.75</v>
+      </c>
+      <c r="V86">
+        <v>2.75</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>8</v>
+      </c>
+      <c r="Y86">
+        <v>1.08</v>
+      </c>
+      <c r="Z86">
+        <v>2.08</v>
+      </c>
+      <c r="AA86">
+        <v>3.21</v>
+      </c>
+      <c r="AB86">
+        <v>3.22</v>
+      </c>
+      <c r="AC86">
+        <v>1.05</v>
+      </c>
+      <c r="AD86">
+        <v>11</v>
+      </c>
+      <c r="AE86">
+        <v>1.3</v>
+      </c>
+      <c r="AF86">
+        <v>3.5</v>
+      </c>
+      <c r="AG86">
+        <v>1.93</v>
+      </c>
+      <c r="AH86">
+        <v>1.95</v>
+      </c>
+      <c r="AI86">
+        <v>1.75</v>
+      </c>
+      <c r="AJ86">
+        <v>2</v>
+      </c>
+      <c r="AK86">
+        <v>1.22</v>
+      </c>
+      <c r="AL86">
+        <v>1.23</v>
+      </c>
+      <c r="AM86">
+        <v>1.77</v>
+      </c>
+      <c r="AN86">
+        <v>1.5</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>1.33</v>
+      </c>
+      <c r="AQ86">
+        <v>0.33</v>
+      </c>
+      <c r="AR86">
+        <v>1.69</v>
+      </c>
+      <c r="AS86">
+        <v>1.02</v>
+      </c>
+      <c r="AT86">
+        <v>2.71</v>
+      </c>
+      <c r="AU86">
+        <v>4</v>
+      </c>
+      <c r="AV86">
+        <v>7</v>
+      </c>
+      <c r="AW86">
+        <v>14</v>
+      </c>
+      <c r="AX86">
+        <v>9</v>
+      </c>
+      <c r="AY86">
+        <v>18</v>
+      </c>
+      <c r="AZ86">
+        <v>16</v>
+      </c>
+      <c r="BA86">
+        <v>7</v>
+      </c>
+      <c r="BB86">
+        <v>5</v>
+      </c>
+      <c r="BC86">
+        <v>12</v>
+      </c>
+      <c r="BD86">
+        <v>1.64</v>
+      </c>
+      <c r="BE86">
+        <v>7.5</v>
+      </c>
+      <c r="BF86">
+        <v>2.65</v>
+      </c>
+      <c r="BG86">
+        <v>1.33</v>
+      </c>
+      <c r="BH86">
+        <v>2.85</v>
+      </c>
+      <c r="BI86">
+        <v>1.61</v>
+      </c>
+      <c r="BJ86">
+        <v>2.12</v>
+      </c>
+      <c r="BK86">
+        <v>1.91</v>
+      </c>
+      <c r="BL86">
+        <v>1.8</v>
+      </c>
+      <c r="BM86">
+        <v>2.55</v>
+      </c>
+      <c r="BN86">
+        <v>1.4</v>
+      </c>
+      <c r="BO86">
+        <v>3.45</v>
+      </c>
+      <c r="BP86">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7295322</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45388.85416666666</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>172</v>
+      </c>
+      <c r="P87" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q87">
+        <v>2.2</v>
+      </c>
+      <c r="R87">
+        <v>2.38</v>
+      </c>
+      <c r="S87">
+        <v>5</v>
+      </c>
+      <c r="T87">
+        <v>1.33</v>
+      </c>
+      <c r="U87">
+        <v>3.25</v>
+      </c>
+      <c r="V87">
+        <v>2.5</v>
+      </c>
+      <c r="W87">
+        <v>1.5</v>
+      </c>
+      <c r="X87">
+        <v>6.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.11</v>
+      </c>
+      <c r="Z87">
+        <v>1.82</v>
+      </c>
+      <c r="AA87">
+        <v>3.36</v>
+      </c>
+      <c r="AB87">
+        <v>3.57</v>
+      </c>
+      <c r="AC87">
+        <v>1.03</v>
+      </c>
+      <c r="AD87">
+        <v>15</v>
+      </c>
+      <c r="AE87">
+        <v>1.22</v>
+      </c>
+      <c r="AF87">
+        <v>4.2</v>
+      </c>
+      <c r="AG87">
+        <v>1.65</v>
+      </c>
+      <c r="AH87">
+        <v>2.06</v>
+      </c>
+      <c r="AI87">
+        <v>1.75</v>
+      </c>
+      <c r="AJ87">
+        <v>2</v>
+      </c>
+      <c r="AK87">
+        <v>1.17</v>
+      </c>
+      <c r="AL87">
+        <v>1.18</v>
+      </c>
+      <c r="AM87">
+        <v>2.05</v>
+      </c>
+      <c r="AN87">
+        <v>1.75</v>
+      </c>
+      <c r="AO87">
+        <v>1.33</v>
+      </c>
+      <c r="AP87">
+        <v>1.6</v>
+      </c>
+      <c r="AQ87">
+        <v>1.25</v>
+      </c>
+      <c r="AR87">
+        <v>1.69</v>
+      </c>
+      <c r="AS87">
+        <v>1.68</v>
+      </c>
+      <c r="AT87">
+        <v>3.37</v>
+      </c>
+      <c r="AU87">
+        <v>8</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>7</v>
+      </c>
+      <c r="AX87">
+        <v>2</v>
+      </c>
+      <c r="AY87">
+        <v>15</v>
+      </c>
+      <c r="AZ87">
+        <v>7</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>6</v>
+      </c>
+      <c r="BC87">
+        <v>12</v>
+      </c>
+      <c r="BD87">
+        <v>1.51</v>
+      </c>
+      <c r="BE87">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF87">
+        <v>3.1</v>
+      </c>
+      <c r="BG87">
+        <v>1.29</v>
+      </c>
+      <c r="BH87">
+        <v>3.14</v>
+      </c>
+      <c r="BI87">
+        <v>1.61</v>
+      </c>
+      <c r="BJ87">
+        <v>2.27</v>
+      </c>
+      <c r="BK87">
+        <v>2</v>
+      </c>
+      <c r="BL87">
+        <v>1.73</v>
+      </c>
+      <c r="BM87">
+        <v>2.55</v>
+      </c>
+      <c r="BN87">
+        <v>1.5</v>
+      </c>
+      <c r="BO87">
+        <v>3.48</v>
+      </c>
+      <c r="BP87">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7295319</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45388.85416666666</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s">
+        <v>97</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>173</v>
+      </c>
+      <c r="P88" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q88">
+        <v>2.88</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>4</v>
+      </c>
+      <c r="T88">
+        <v>1.44</v>
+      </c>
+      <c r="U88">
+        <v>2.63</v>
+      </c>
+      <c r="V88">
+        <v>3.25</v>
+      </c>
+      <c r="W88">
+        <v>1.33</v>
+      </c>
+      <c r="X88">
+        <v>9</v>
+      </c>
+      <c r="Y88">
+        <v>1.07</v>
+      </c>
+      <c r="Z88">
+        <v>2.08</v>
+      </c>
+      <c r="AA88">
+        <v>3.19</v>
+      </c>
+      <c r="AB88">
+        <v>3.24</v>
+      </c>
+      <c r="AC88">
+        <v>1.06</v>
+      </c>
+      <c r="AD88">
+        <v>10</v>
+      </c>
+      <c r="AE88">
+        <v>1.36</v>
+      </c>
+      <c r="AF88">
+        <v>3.2</v>
+      </c>
+      <c r="AG88">
+        <v>1.97</v>
+      </c>
+      <c r="AH88">
+        <v>1.72</v>
+      </c>
+      <c r="AI88">
+        <v>1.8</v>
+      </c>
+      <c r="AJ88">
+        <v>1.95</v>
+      </c>
+      <c r="AK88">
+        <v>1.33</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.72</v>
+      </c>
+      <c r="AN88">
+        <v>1.67</v>
+      </c>
+      <c r="AO88">
+        <v>1.25</v>
+      </c>
+      <c r="AP88">
+        <v>1.25</v>
+      </c>
+      <c r="AQ88">
+        <v>1.6</v>
+      </c>
+      <c r="AR88">
+        <v>1.49</v>
+      </c>
+      <c r="AS88">
+        <v>1.17</v>
+      </c>
+      <c r="AT88">
+        <v>2.66</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>6</v>
+      </c>
+      <c r="AW88">
+        <v>3</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>8</v>
+      </c>
+      <c r="AZ88">
+        <v>10</v>
+      </c>
+      <c r="BA88">
+        <v>8</v>
+      </c>
+      <c r="BB88">
+        <v>8</v>
+      </c>
+      <c r="BC88">
+        <v>16</v>
+      </c>
+      <c r="BD88">
+        <v>1.96</v>
+      </c>
+      <c r="BE88">
+        <v>8.6</v>
+      </c>
+      <c r="BF88">
+        <v>2.14</v>
+      </c>
+      <c r="BG88">
+        <v>1.36</v>
+      </c>
+      <c r="BH88">
+        <v>3.04</v>
+      </c>
+      <c r="BI88">
+        <v>1.65</v>
+      </c>
+      <c r="BJ88">
+        <v>2.07</v>
+      </c>
+      <c r="BK88">
+        <v>2.06</v>
+      </c>
+      <c r="BL88">
+        <v>1.65</v>
+      </c>
+      <c r="BM88">
+        <v>2.65</v>
+      </c>
+      <c r="BN88">
+        <v>1.42</v>
+      </c>
+      <c r="BO88">
+        <v>3.6</v>
+      </c>
+      <c r="BP88">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7295318</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45388.85416666666</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>87</v>
+      </c>
+      <c r="H89" t="s">
+        <v>95</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>174</v>
+      </c>
+      <c r="P89" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q89">
+        <v>2.2</v>
+      </c>
+      <c r="R89">
+        <v>2.38</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>1.3</v>
+      </c>
+      <c r="U89">
+        <v>3.4</v>
+      </c>
+      <c r="V89">
+        <v>2.5</v>
+      </c>
+      <c r="W89">
+        <v>1.5</v>
+      </c>
+      <c r="X89">
+        <v>6</v>
+      </c>
+      <c r="Y89">
+        <v>1.13</v>
+      </c>
+      <c r="Z89">
+        <v>1.58</v>
+      </c>
+      <c r="AA89">
+        <v>3.69</v>
+      </c>
+      <c r="AB89">
+        <v>4.5</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>14</v>
+      </c>
+      <c r="AE89">
+        <v>1.2</v>
+      </c>
+      <c r="AF89">
+        <v>4.33</v>
+      </c>
+      <c r="AG89">
+        <v>1.62</v>
+      </c>
+      <c r="AH89">
+        <v>2.11</v>
+      </c>
+      <c r="AI89">
+        <v>1.7</v>
+      </c>
+      <c r="AJ89">
+        <v>2.05</v>
+      </c>
+      <c r="AK89">
+        <v>1.12</v>
+      </c>
+      <c r="AL89">
+        <v>1.19</v>
+      </c>
+      <c r="AM89">
+        <v>2.15</v>
+      </c>
+      <c r="AN89">
+        <v>1.33</v>
+      </c>
+      <c r="AO89">
+        <v>1.33</v>
+      </c>
+      <c r="AP89">
+        <v>1.75</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>1.37</v>
+      </c>
+      <c r="AS89">
+        <v>0.92</v>
+      </c>
+      <c r="AT89">
+        <v>2.29</v>
+      </c>
+      <c r="AU89">
+        <v>7</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>14</v>
+      </c>
+      <c r="AZ89">
+        <v>4</v>
+      </c>
+      <c r="BA89">
+        <v>5</v>
+      </c>
+      <c r="BB89">
+        <v>5</v>
+      </c>
+      <c r="BC89">
+        <v>10</v>
+      </c>
+      <c r="BD89">
+        <v>1.48</v>
+      </c>
+      <c r="BE89">
+        <v>8.5</v>
+      </c>
+      <c r="BF89">
+        <v>3.2</v>
+      </c>
+      <c r="BG89">
+        <v>1.28</v>
+      </c>
+      <c r="BH89">
+        <v>3.05</v>
+      </c>
+      <c r="BI89">
+        <v>1.53</v>
+      </c>
+      <c r="BJ89">
+        <v>2.25</v>
+      </c>
+      <c r="BK89">
+        <v>1.8</v>
+      </c>
+      <c r="BL89">
+        <v>1.91</v>
+      </c>
+      <c r="BM89">
+        <v>2.4</v>
+      </c>
+      <c r="BN89">
+        <v>1.47</v>
+      </c>
+      <c r="BO89">
+        <v>3.2</v>
+      </c>
+      <c r="BP89">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7295320</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45388.85416666666</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
+        <v>74</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>175</v>
+      </c>
+      <c r="P90" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q90">
+        <v>2.1</v>
+      </c>
+      <c r="R90">
+        <v>2.5</v>
+      </c>
+      <c r="S90">
+        <v>4.75</v>
+      </c>
+      <c r="T90">
+        <v>1.29</v>
+      </c>
+      <c r="U90">
+        <v>3.5</v>
+      </c>
+      <c r="V90">
+        <v>2.38</v>
+      </c>
+      <c r="W90">
+        <v>1.53</v>
+      </c>
+      <c r="X90">
+        <v>5.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.14</v>
+      </c>
+      <c r="Z90">
+        <v>1.61</v>
+      </c>
+      <c r="AA90">
+        <v>3.89</v>
+      </c>
+      <c r="AB90">
+        <v>4.48</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>18</v>
+      </c>
+      <c r="AE90">
+        <v>1.18</v>
+      </c>
+      <c r="AF90">
+        <v>4.75</v>
+      </c>
+      <c r="AG90">
+        <v>1.52</v>
+      </c>
+      <c r="AH90">
+        <v>2.31</v>
+      </c>
+      <c r="AI90">
+        <v>1.62</v>
+      </c>
+      <c r="AJ90">
+        <v>2.2</v>
+      </c>
+      <c r="AK90">
+        <v>1.16</v>
+      </c>
+      <c r="AL90">
+        <v>1.18</v>
+      </c>
+      <c r="AM90">
+        <v>2.35</v>
+      </c>
+      <c r="AN90">
+        <v>3</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>2.5</v>
+      </c>
+      <c r="AQ90">
+        <v>1</v>
+      </c>
+      <c r="AR90">
+        <v>1.72</v>
+      </c>
+      <c r="AS90">
+        <v>1.45</v>
+      </c>
+      <c r="AT90">
+        <v>3.17</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>5</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>10</v>
+      </c>
+      <c r="AZ90">
+        <v>8</v>
+      </c>
+      <c r="BA90">
+        <v>2</v>
+      </c>
+      <c r="BB90">
+        <v>3</v>
+      </c>
+      <c r="BC90">
+        <v>5</v>
+      </c>
+      <c r="BD90">
+        <v>1.39</v>
+      </c>
+      <c r="BE90">
+        <v>10.25</v>
+      </c>
+      <c r="BF90">
+        <v>3.62</v>
+      </c>
+      <c r="BG90">
+        <v>1.25</v>
+      </c>
+      <c r="BH90">
+        <v>3.42</v>
+      </c>
+      <c r="BI90">
+        <v>1.48</v>
+      </c>
+      <c r="BJ90">
+        <v>2.47</v>
+      </c>
+      <c r="BK90">
+        <v>1.8</v>
+      </c>
+      <c r="BL90">
+        <v>1.9</v>
+      </c>
+      <c r="BM90">
+        <v>2.36</v>
+      </c>
+      <c r="BN90">
+        <v>1.52</v>
+      </c>
+      <c r="BO90">
+        <v>3.18</v>
+      </c>
+      <c r="BP90">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7295321</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45388.86458333334</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s">
+        <v>84</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>176</v>
+      </c>
+      <c r="P91" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q91">
+        <v>2.2</v>
+      </c>
+      <c r="R91">
+        <v>2.5</v>
+      </c>
+      <c r="S91">
+        <v>4.33</v>
+      </c>
+      <c r="T91">
+        <v>1.25</v>
+      </c>
+      <c r="U91">
+        <v>3.75</v>
+      </c>
+      <c r="V91">
+        <v>2.1</v>
+      </c>
+      <c r="W91">
+        <v>1.67</v>
+      </c>
+      <c r="X91">
+        <v>5</v>
+      </c>
+      <c r="Y91">
+        <v>1.17</v>
+      </c>
+      <c r="Z91">
+        <v>1.65</v>
+      </c>
+      <c r="AA91">
+        <v>3.82</v>
+      </c>
+      <c r="AB91">
+        <v>3.81</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>19.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.14</v>
+      </c>
+      <c r="AF91">
+        <v>5.5</v>
+      </c>
+      <c r="AG91">
+        <v>1.42</v>
+      </c>
+      <c r="AH91">
+        <v>2.59</v>
+      </c>
+      <c r="AI91">
+        <v>1.5</v>
+      </c>
+      <c r="AJ91">
+        <v>2.5</v>
+      </c>
+      <c r="AK91">
+        <v>1.22</v>
+      </c>
+      <c r="AL91">
+        <v>1.17</v>
+      </c>
+      <c r="AM91">
+        <v>2.2</v>
+      </c>
+      <c r="AN91">
+        <v>2.33</v>
+      </c>
+      <c r="AO91">
+        <v>2.33</v>
+      </c>
+      <c r="AP91">
+        <v>2.5</v>
+      </c>
+      <c r="AQ91">
+        <v>1.75</v>
+      </c>
+      <c r="AR91">
+        <v>2.05</v>
+      </c>
+      <c r="AS91">
+        <v>1.6</v>
+      </c>
+      <c r="AT91">
+        <v>3.65</v>
+      </c>
+      <c r="AU91">
+        <v>10</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>8</v>
+      </c>
+      <c r="AX91">
+        <v>7</v>
+      </c>
+      <c r="AY91">
+        <v>18</v>
+      </c>
+      <c r="AZ91">
+        <v>12</v>
+      </c>
+      <c r="BA91">
+        <v>6</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>10</v>
+      </c>
+      <c r="BD91">
+        <v>1.55</v>
+      </c>
+      <c r="BE91">
+        <v>8</v>
+      </c>
+      <c r="BF91">
+        <v>2.95</v>
+      </c>
+      <c r="BG91">
+        <v>1.22</v>
+      </c>
+      <c r="BH91">
+        <v>3.45</v>
+      </c>
+      <c r="BI91">
+        <v>1.43</v>
+      </c>
+      <c r="BJ91">
+        <v>2.5</v>
+      </c>
+      <c r="BK91">
+        <v>1.7</v>
+      </c>
+      <c r="BL91">
+        <v>2.05</v>
+      </c>
+      <c r="BM91">
+        <v>2.2</v>
+      </c>
+      <c r="BN91">
+        <v>1.57</v>
+      </c>
+      <c r="BO91">
+        <v>2.85</v>
+      </c>
+      <c r="BP91">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7295325</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s">
+        <v>91</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>7</v>
+      </c>
+      <c r="O92" t="s">
+        <v>177</v>
+      </c>
+      <c r="P92" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q92">
+        <v>2.88</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>3.6</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <v>2.75</v>
+      </c>
+      <c r="W92">
+        <v>1.4</v>
+      </c>
+      <c r="X92">
+        <v>7</v>
+      </c>
+      <c r="Y92">
+        <v>1.1</v>
+      </c>
+      <c r="Z92">
+        <v>2.1</v>
+      </c>
+      <c r="AA92">
+        <v>3.18</v>
+      </c>
+      <c r="AB92">
+        <v>2.94</v>
+      </c>
+      <c r="AC92">
+        <v>1.04</v>
+      </c>
+      <c r="AD92">
+        <v>13</v>
+      </c>
+      <c r="AE92">
+        <v>1.28</v>
+      </c>
+      <c r="AF92">
+        <v>3.75</v>
+      </c>
+      <c r="AG92">
+        <v>1.86</v>
+      </c>
+      <c r="AH92">
+        <v>2.02</v>
+      </c>
+      <c r="AI92">
+        <v>1.67</v>
+      </c>
+      <c r="AJ92">
+        <v>2.1</v>
+      </c>
+      <c r="AK92">
+        <v>1.38</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>1.68</v>
+      </c>
+      <c r="AN92">
+        <v>1.25</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>1.6</v>
+      </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <v>1.12</v>
+      </c>
+      <c r="AS92">
+        <v>1.21</v>
+      </c>
+      <c r="AT92">
+        <v>2.33</v>
+      </c>
+      <c r="AU92">
+        <v>7</v>
+      </c>
+      <c r="AV92">
+        <v>9</v>
+      </c>
+      <c r="AW92">
+        <v>4</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>11</v>
+      </c>
+      <c r="AZ92">
+        <v>13</v>
+      </c>
+      <c r="BA92">
+        <v>10</v>
+      </c>
+      <c r="BB92">
+        <v>3</v>
+      </c>
+      <c r="BC92">
+        <v>13</v>
+      </c>
+      <c r="BD92">
+        <v>1.8</v>
+      </c>
+      <c r="BE92">
+        <v>7.5</v>
+      </c>
+      <c r="BF92">
+        <v>2.32</v>
+      </c>
+      <c r="BG92">
+        <v>1.22</v>
+      </c>
+      <c r="BH92">
+        <v>3.55</v>
+      </c>
+      <c r="BI92">
+        <v>1.41</v>
+      </c>
+      <c r="BJ92">
+        <v>2.55</v>
+      </c>
+      <c r="BK92">
+        <v>1.72</v>
+      </c>
+      <c r="BL92">
+        <v>1.97</v>
+      </c>
+      <c r="BM92">
+        <v>2.14</v>
+      </c>
+      <c r="BN92">
+        <v>1.6</v>
+      </c>
+      <c r="BO92">
+        <v>2.75</v>
+      </c>
+      <c r="BP92">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7295326</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" t="s">
+        <v>79</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>178</v>
+      </c>
+      <c r="P93" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>2.1</v>
+      </c>
+      <c r="S93">
+        <v>3.75</v>
+      </c>
+      <c r="T93">
+        <v>1.4</v>
+      </c>
+      <c r="U93">
+        <v>2.75</v>
+      </c>
+      <c r="V93">
+        <v>3</v>
+      </c>
+      <c r="W93">
+        <v>1.36</v>
+      </c>
+      <c r="X93">
+        <v>8</v>
+      </c>
+      <c r="Y93">
+        <v>1.08</v>
+      </c>
+      <c r="Z93">
+        <v>2.14</v>
+      </c>
+      <c r="AA93">
+        <v>3.1</v>
+      </c>
+      <c r="AB93">
+        <v>2.93</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>10</v>
+      </c>
+      <c r="AE93">
+        <v>1.33</v>
+      </c>
+      <c r="AF93">
+        <v>3.3</v>
+      </c>
+      <c r="AG93">
+        <v>2.02</v>
+      </c>
+      <c r="AH93">
+        <v>1.86</v>
+      </c>
+      <c r="AI93">
+        <v>1.75</v>
+      </c>
+      <c r="AJ93">
+        <v>2</v>
+      </c>
+      <c r="AK93">
+        <v>1.38</v>
+      </c>
+      <c r="AL93">
+        <v>1.25</v>
+      </c>
+      <c r="AM93">
+        <v>1.65</v>
+      </c>
+      <c r="AN93">
+        <v>1.5</v>
+      </c>
+      <c r="AO93">
+        <v>3</v>
+      </c>
+      <c r="AP93">
+        <v>2</v>
+      </c>
+      <c r="AQ93">
+        <v>1.5</v>
+      </c>
+      <c r="AR93">
+        <v>1.63</v>
+      </c>
+      <c r="AS93">
+        <v>0.78</v>
+      </c>
+      <c r="AT93">
+        <v>2.41</v>
+      </c>
+      <c r="AU93">
+        <v>7</v>
+      </c>
+      <c r="AV93">
+        <v>5</v>
+      </c>
+      <c r="AW93">
+        <v>2</v>
+      </c>
+      <c r="AX93">
+        <v>6</v>
+      </c>
+      <c r="AY93">
+        <v>9</v>
+      </c>
+      <c r="AZ93">
+        <v>11</v>
+      </c>
+      <c r="BA93">
+        <v>5</v>
+      </c>
+      <c r="BB93">
+        <v>6</v>
+      </c>
+      <c r="BC93">
+        <v>11</v>
+      </c>
+      <c r="BD93">
+        <v>1.81</v>
+      </c>
+      <c r="BE93">
+        <v>7.5</v>
+      </c>
+      <c r="BF93">
+        <v>2.33</v>
+      </c>
+      <c r="BG93">
+        <v>1.34</v>
+      </c>
+      <c r="BH93">
+        <v>2.8</v>
+      </c>
+      <c r="BI93">
+        <v>1.62</v>
+      </c>
+      <c r="BJ93">
+        <v>2.1</v>
+      </c>
+      <c r="BK93">
+        <v>2.04</v>
+      </c>
+      <c r="BL93">
+        <v>1.67</v>
+      </c>
+      <c r="BM93">
+        <v>2.65</v>
+      </c>
+      <c r="BN93">
+        <v>1.38</v>
+      </c>
+      <c r="BO93">
+        <v>3.55</v>
+      </c>
+      <c r="BP93">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7295327</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+      <c r="G94" t="s">
+        <v>85</v>
+      </c>
+      <c r="H94" t="s">
+        <v>86</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>179</v>
+      </c>
+      <c r="P94" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q94">
+        <v>2.75</v>
+      </c>
+      <c r="R94">
+        <v>2.3</v>
+      </c>
+      <c r="S94">
+        <v>3.6</v>
+      </c>
+      <c r="T94">
+        <v>1.33</v>
+      </c>
+      <c r="U94">
+        <v>3.25</v>
+      </c>
+      <c r="V94">
+        <v>2.63</v>
+      </c>
+      <c r="W94">
+        <v>1.44</v>
+      </c>
+      <c r="X94">
+        <v>6.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.11</v>
+      </c>
+      <c r="Z94">
+        <v>2.08</v>
+      </c>
+      <c r="AA94">
+        <v>3.39</v>
+      </c>
+      <c r="AB94">
+        <v>3.06</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>10</v>
+      </c>
+      <c r="AE94">
+        <v>1.22</v>
+      </c>
+      <c r="AF94">
+        <v>3.8</v>
+      </c>
+      <c r="AG94">
+        <v>1.61</v>
+      </c>
+      <c r="AH94">
+        <v>2.13</v>
+      </c>
+      <c r="AI94">
+        <v>1.57</v>
+      </c>
+      <c r="AJ94">
+        <v>2.25</v>
+      </c>
+      <c r="AK94">
+        <v>1.35</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.72</v>
+      </c>
+      <c r="AN94">
+        <v>2</v>
+      </c>
+      <c r="AO94">
+        <v>1.33</v>
+      </c>
+      <c r="AP94">
+        <v>1.67</v>
+      </c>
+      <c r="AQ94">
+        <v>1.25</v>
+      </c>
+      <c r="AR94">
+        <v>1.29</v>
+      </c>
+      <c r="AS94">
+        <v>1.58</v>
+      </c>
+      <c r="AT94">
+        <v>2.87</v>
+      </c>
+      <c r="AU94">
+        <v>8</v>
+      </c>
+      <c r="AV94">
+        <v>6</v>
+      </c>
+      <c r="AW94">
+        <v>8</v>
+      </c>
+      <c r="AX94">
+        <v>3</v>
+      </c>
+      <c r="AY94">
+        <v>16</v>
+      </c>
+      <c r="AZ94">
+        <v>9</v>
+      </c>
+      <c r="BA94">
+        <v>7</v>
+      </c>
+      <c r="BB94">
+        <v>6</v>
+      </c>
+      <c r="BC94">
+        <v>13</v>
+      </c>
+      <c r="BD94">
+        <v>1.68</v>
+      </c>
+      <c r="BE94">
+        <v>7.5</v>
+      </c>
+      <c r="BF94">
+        <v>2.55</v>
+      </c>
+      <c r="BG94">
+        <v>1.28</v>
+      </c>
+      <c r="BH94">
+        <v>3.1</v>
+      </c>
+      <c r="BI94">
+        <v>1.53</v>
+      </c>
+      <c r="BJ94">
+        <v>2.28</v>
+      </c>
+      <c r="BK94">
+        <v>1.91</v>
+      </c>
+      <c r="BL94">
+        <v>1.78</v>
+      </c>
+      <c r="BM94">
+        <v>2.43</v>
+      </c>
+      <c r="BN94">
+        <v>1.46</v>
+      </c>
+      <c r="BO94">
+        <v>3.2</v>
+      </c>
+      <c r="BP94">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7295328</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+      <c r="G95" t="s">
+        <v>83</v>
+      </c>
+      <c r="H95" t="s">
+        <v>76</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>180</v>
+      </c>
+      <c r="P95" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q95">
+        <v>3.1</v>
+      </c>
+      <c r="R95">
+        <v>2.2</v>
+      </c>
+      <c r="S95">
+        <v>3.4</v>
+      </c>
+      <c r="T95">
+        <v>1.4</v>
+      </c>
+      <c r="U95">
+        <v>2.75</v>
+      </c>
+      <c r="V95">
+        <v>2.75</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>8</v>
+      </c>
+      <c r="Y95">
+        <v>1.08</v>
+      </c>
+      <c r="Z95">
+        <v>2.39</v>
+      </c>
+      <c r="AA95">
+        <v>3.18</v>
+      </c>
+      <c r="AB95">
+        <v>2.71</v>
+      </c>
+      <c r="AC95">
+        <v>1.05</v>
+      </c>
+      <c r="AD95">
+        <v>11</v>
+      </c>
+      <c r="AE95">
+        <v>1.3</v>
+      </c>
+      <c r="AF95">
+        <v>3.4</v>
+      </c>
+      <c r="AG95">
+        <v>1.93</v>
+      </c>
+      <c r="AH95">
+        <v>1.91</v>
+      </c>
+      <c r="AI95">
+        <v>1.7</v>
+      </c>
+      <c r="AJ95">
+        <v>2.05</v>
+      </c>
+      <c r="AK95">
+        <v>1.45</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.55</v>
+      </c>
+      <c r="AN95">
+        <v>1.5</v>
+      </c>
+      <c r="AO95">
+        <v>1.67</v>
+      </c>
+      <c r="AP95">
+        <v>1.2</v>
+      </c>
+      <c r="AQ95">
+        <v>2</v>
+      </c>
+      <c r="AR95">
+        <v>1.11</v>
+      </c>
+      <c r="AS95">
+        <v>1.55</v>
+      </c>
+      <c r="AT95">
+        <v>2.66</v>
+      </c>
+      <c r="AU95">
+        <v>6</v>
+      </c>
+      <c r="AV95">
+        <v>6</v>
+      </c>
+      <c r="AW95">
+        <v>3</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>9</v>
+      </c>
+      <c r="AZ95">
+        <v>12</v>
+      </c>
+      <c r="BA95">
+        <v>8</v>
+      </c>
+      <c r="BB95">
+        <v>5</v>
+      </c>
+      <c r="BC95">
+        <v>13</v>
+      </c>
+      <c r="BD95">
+        <v>1.9</v>
+      </c>
+      <c r="BE95">
+        <v>7.5</v>
+      </c>
+      <c r="BF95">
+        <v>2.18</v>
+      </c>
+      <c r="BG95">
+        <v>1.34</v>
+      </c>
+      <c r="BH95">
+        <v>2.8</v>
+      </c>
+      <c r="BI95">
+        <v>1.62</v>
+      </c>
+      <c r="BJ95">
+        <v>2.12</v>
+      </c>
+      <c r="BK95">
+        <v>2.02</v>
+      </c>
+      <c r="BL95">
+        <v>1.68</v>
+      </c>
+      <c r="BM95">
+        <v>2.63</v>
+      </c>
+      <c r="BN95">
+        <v>1.38</v>
+      </c>
+      <c r="BO95">
+        <v>3.55</v>
+      </c>
+      <c r="BP95">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7295329</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+      <c r="G96" t="s">
+        <v>80</v>
+      </c>
+      <c r="H96" t="s">
+        <v>78</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" t="s">
+        <v>104</v>
+      </c>
+      <c r="P96" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q96">
+        <v>2.38</v>
+      </c>
+      <c r="R96">
+        <v>2.3</v>
+      </c>
+      <c r="S96">
+        <v>4.5</v>
+      </c>
+      <c r="T96">
+        <v>1.33</v>
+      </c>
+      <c r="U96">
+        <v>3.25</v>
+      </c>
+      <c r="V96">
+        <v>2.63</v>
+      </c>
+      <c r="W96">
+        <v>1.44</v>
+      </c>
+      <c r="X96">
+        <v>6.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.11</v>
+      </c>
+      <c r="Z96">
+        <v>1.69</v>
+      </c>
+      <c r="AA96">
+        <v>3.49</v>
+      </c>
+      <c r="AB96">
+        <v>4</v>
+      </c>
+      <c r="AC96">
+        <v>1.03</v>
+      </c>
+      <c r="AD96">
+        <v>13</v>
+      </c>
+      <c r="AE96">
+        <v>1.25</v>
+      </c>
+      <c r="AF96">
+        <v>3.75</v>
+      </c>
+      <c r="AG96">
+        <v>1.74</v>
+      </c>
+      <c r="AH96">
+        <v>1.94</v>
+      </c>
+      <c r="AI96">
+        <v>1.7</v>
+      </c>
+      <c r="AJ96">
+        <v>2.05</v>
+      </c>
+      <c r="AK96">
+        <v>1.22</v>
+      </c>
+      <c r="AL96">
+        <v>1.22</v>
+      </c>
+      <c r="AM96">
+        <v>2</v>
+      </c>
+      <c r="AN96">
+        <v>1.67</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>1.5</v>
+      </c>
+      <c r="AQ96">
+        <v>0.33</v>
+      </c>
+      <c r="AR96">
+        <v>1.49</v>
+      </c>
+      <c r="AS96">
+        <v>0.99</v>
+      </c>
+      <c r="AT96">
+        <v>2.48</v>
+      </c>
+      <c r="AU96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>6</v>
+      </c>
+      <c r="AW96">
+        <v>15</v>
+      </c>
+      <c r="AX96">
+        <v>4</v>
+      </c>
+      <c r="AY96">
+        <v>23</v>
+      </c>
+      <c r="AZ96">
+        <v>10</v>
+      </c>
+      <c r="BA96">
+        <v>9</v>
+      </c>
+      <c r="BB96">
+        <v>2</v>
+      </c>
+      <c r="BC96">
+        <v>11</v>
+      </c>
+      <c r="BD96">
+        <v>1.58</v>
+      </c>
+      <c r="BE96">
+        <v>7.5</v>
+      </c>
+      <c r="BF96">
+        <v>2.8</v>
+      </c>
+      <c r="BG96">
+        <v>1.3</v>
+      </c>
+      <c r="BH96">
+        <v>2.95</v>
+      </c>
+      <c r="BI96">
+        <v>1.56</v>
+      </c>
+      <c r="BJ96">
+        <v>2.2</v>
+      </c>
+      <c r="BK96">
+        <v>1.94</v>
+      </c>
+      <c r="BL96">
+        <v>1.75</v>
+      </c>
+      <c r="BM96">
+        <v>2.45</v>
+      </c>
+      <c r="BN96">
+        <v>1.44</v>
+      </c>
+      <c r="BO96">
+        <v>3.25</v>
+      </c>
+      <c r="BP96">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7295330</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45388.97916666666</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+      <c r="G97" t="s">
+        <v>92</v>
+      </c>
+      <c r="H97" t="s">
+        <v>98</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>5</v>
+      </c>
+      <c r="O97" t="s">
+        <v>181</v>
+      </c>
+      <c r="P97" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q97">
+        <v>2.38</v>
+      </c>
+      <c r="R97">
+        <v>2.2</v>
+      </c>
+      <c r="S97">
+        <v>5</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>2.75</v>
+      </c>
+      <c r="W97">
+        <v>1.4</v>
+      </c>
+      <c r="X97">
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>1.72</v>
+      </c>
+      <c r="AA97">
+        <v>3.49</v>
+      </c>
+      <c r="AB97">
+        <v>4.26</v>
+      </c>
+      <c r="AC97">
+        <v>1.05</v>
+      </c>
+      <c r="AD97">
+        <v>7.8</v>
+      </c>
+      <c r="AE97">
+        <v>1.25</v>
+      </c>
+      <c r="AF97">
+        <v>3.5</v>
+      </c>
+      <c r="AG97">
+        <v>1.96</v>
+      </c>
+      <c r="AH97">
+        <v>1.88</v>
+      </c>
+      <c r="AI97">
+        <v>1.91</v>
+      </c>
+      <c r="AJ97">
+        <v>1.91</v>
+      </c>
+      <c r="AK97">
+        <v>1.11</v>
+      </c>
+      <c r="AL97">
+        <v>1.28</v>
+      </c>
+      <c r="AM97">
+        <v>2.05</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>1.4</v>
+      </c>
+      <c r="AP97">
+        <v>1.67</v>
+      </c>
+      <c r="AQ97">
+        <v>1.17</v>
+      </c>
+      <c r="AR97">
+        <v>1.52</v>
+      </c>
+      <c r="AS97">
+        <v>1.17</v>
+      </c>
+      <c r="AT97">
+        <v>2.69</v>
+      </c>
+      <c r="AU97">
+        <v>12</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>3</v>
+      </c>
+      <c r="AY97">
+        <v>15</v>
+      </c>
+      <c r="AZ97">
+        <v>6</v>
+      </c>
+      <c r="BA97">
+        <v>5</v>
+      </c>
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>1.48</v>
+      </c>
+      <c r="BE97">
+        <v>8</v>
+      </c>
+      <c r="BF97">
+        <v>3.2</v>
+      </c>
+      <c r="BG97">
+        <v>1.3</v>
+      </c>
+      <c r="BH97">
+        <v>2.9</v>
+      </c>
+      <c r="BI97">
+        <v>1.58</v>
+      </c>
+      <c r="BJ97">
+        <v>2.18</v>
+      </c>
+      <c r="BK97">
+        <v>1.97</v>
+      </c>
+      <c r="BL97">
+        <v>1.73</v>
+      </c>
+      <c r="BM97">
+        <v>2.5</v>
+      </c>
+      <c r="BN97">
+        <v>1.43</v>
+      </c>
+      <c r="BO97">
+        <v>3.35</v>
+      </c>
+      <c r="BP97">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7295331</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45389.61458333334</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+      <c r="G98" t="s">
+        <v>89</v>
+      </c>
+      <c r="H98" t="s">
+        <v>81</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>6</v>
+      </c>
+      <c r="O98" t="s">
+        <v>182</v>
+      </c>
+      <c r="P98" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q98">
+        <v>2.5</v>
+      </c>
+      <c r="R98">
+        <v>2.3</v>
+      </c>
+      <c r="S98">
+        <v>4</v>
+      </c>
+      <c r="T98">
+        <v>1.33</v>
+      </c>
+      <c r="U98">
+        <v>3.25</v>
+      </c>
+      <c r="V98">
+        <v>2.5</v>
+      </c>
+      <c r="W98">
+        <v>1.5</v>
+      </c>
+      <c r="X98">
+        <v>6.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.11</v>
+      </c>
+      <c r="Z98">
+        <v>1.93</v>
+      </c>
+      <c r="AA98">
+        <v>3.4</v>
+      </c>
+      <c r="AB98">
+        <v>3.5</v>
+      </c>
+      <c r="AC98">
+        <v>1.03</v>
+      </c>
+      <c r="AD98">
+        <v>13</v>
+      </c>
+      <c r="AE98">
+        <v>1.22</v>
+      </c>
+      <c r="AF98">
+        <v>4.2</v>
+      </c>
+      <c r="AG98">
+        <v>1.65</v>
+      </c>
+      <c r="AH98">
+        <v>2.1</v>
+      </c>
+      <c r="AI98">
+        <v>1.67</v>
+      </c>
+      <c r="AJ98">
+        <v>2.1</v>
+      </c>
+      <c r="AK98">
+        <v>1.25</v>
+      </c>
+      <c r="AL98">
+        <v>1.22</v>
+      </c>
+      <c r="AM98">
+        <v>1.9</v>
+      </c>
+      <c r="AN98">
+        <v>1.33</v>
+      </c>
+      <c r="AO98">
+        <v>1</v>
+      </c>
+      <c r="AP98">
+        <v>1.25</v>
+      </c>
+      <c r="AQ98">
+        <v>1</v>
+      </c>
+      <c r="AR98">
+        <v>1.65</v>
+      </c>
+      <c r="AS98">
+        <v>1.25</v>
+      </c>
+      <c r="AT98">
+        <v>2.9</v>
+      </c>
+      <c r="AU98">
+        <v>-1</v>
+      </c>
+      <c r="AV98">
+        <v>-1</v>
+      </c>
+      <c r="AW98">
+        <v>-1</v>
+      </c>
+      <c r="AX98">
+        <v>-1</v>
+      </c>
+      <c r="AY98">
+        <v>-1</v>
+      </c>
+      <c r="AZ98">
+        <v>-1</v>
+      </c>
+      <c r="BA98">
+        <v>-1</v>
+      </c>
+      <c r="BB98">
+        <v>-1</v>
+      </c>
+      <c r="BC98">
+        <v>-1</v>
+      </c>
+      <c r="BD98">
+        <v>1.66</v>
+      </c>
+      <c r="BE98">
+        <v>7.5</v>
+      </c>
+      <c r="BF98">
+        <v>2.6</v>
+      </c>
+      <c r="BG98">
+        <v>1.29</v>
+      </c>
+      <c r="BH98">
+        <v>3.05</v>
+      </c>
+      <c r="BI98">
+        <v>1.54</v>
+      </c>
+      <c r="BJ98">
+        <v>2.25</v>
+      </c>
+      <c r="BK98">
+        <v>1.91</v>
+      </c>
+      <c r="BL98">
+        <v>1.77</v>
+      </c>
+      <c r="BM98">
+        <v>2.43</v>
+      </c>
+      <c r="BN98">
+        <v>1.46</v>
+      </c>
+      <c r="BO98">
+        <v>3.2</v>
+      </c>
+      <c r="BP98">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -21214,31 +21214,31 @@
         <v>2.9</v>
       </c>
       <c r="AU98">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV98">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW98">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX98">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY98">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ98">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA98">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC98">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD98">
         <v>1.66</v>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,33 @@
     <t>['13', '38', '45+3']</t>
   </si>
   <si>
+    <t>['11', '34']</t>
+  </si>
+  <si>
+    <t>['57', '90+3']</t>
+  </si>
+  <si>
+    <t>['45+4', '62']</t>
+  </si>
+  <si>
+    <t>['39', '70', '85']</t>
+  </si>
+  <si>
+    <t>['5', '66']</t>
+  </si>
+  <si>
+    <t>['6', '58']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['55', '63']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -725,6 +752,33 @@
   </si>
   <si>
     <t>['64', '66', '81']</t>
+  </si>
+  <si>
+    <t>['21', '51']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['49', '78']</t>
+  </si>
+  <si>
+    <t>['28', '82', '90+1']</t>
+  </si>
+  <si>
+    <t>['18', '51', '71']</t>
+  </si>
+  <si>
+    <t>['38', '77']</t>
+  </si>
+  <si>
+    <t>['56', '80', '82']</t>
+  </si>
+  <si>
+    <t>['10', '60', '80']</t>
+  </si>
+  <si>
+    <t>['73', '77']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1757,7 +1811,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1838,7 +1892,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2041,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5">
         <v>0.25</v>
@@ -2169,7 +2223,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2247,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2581,7 +2635,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2662,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2787,7 +2841,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2993,7 +3047,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3199,7 +3253,7 @@
         <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3405,7 +3459,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3611,7 +3665,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3689,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3898,7 +3952,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4229,7 +4283,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4310,7 +4364,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4513,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4719,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4928,7 +4982,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -5053,7 +5107,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5131,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>0.25</v>
@@ -5259,7 +5313,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5340,7 +5394,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5465,7 +5519,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5671,7 +5725,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5955,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6289,7 +6343,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6495,7 +6549,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6573,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6701,7 +6755,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6779,10 +6833,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7194,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7319,7 +7373,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7397,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7731,7 +7785,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7809,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7937,7 +7991,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8018,7 +8072,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -8221,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
         <v>0.33</v>
@@ -8349,7 +8403,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8555,7 +8609,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8761,7 +8815,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8839,10 +8893,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9173,7 +9227,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9251,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ40">
         <v>3</v>
@@ -9379,7 +9433,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9460,7 +9514,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>0.83</v>
@@ -9791,7 +9845,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -9997,7 +10051,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10203,7 +10257,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10281,10 +10335,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR45">
         <v>1.94</v>
@@ -10490,7 +10544,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -10899,10 +10953,10 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>1.35</v>
@@ -11027,7 +11081,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11108,7 +11162,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11233,7 +11287,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11723,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11929,10 +11983,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12263,7 +12317,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12469,7 +12523,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12550,7 +12604,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -12753,10 +12807,10 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>2.19</v>
@@ -12881,7 +12935,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12962,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR58">
         <v>2.02</v>
@@ -13165,10 +13219,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>1.89</v>
@@ -13293,7 +13347,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13371,7 +13425,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13577,10 +13631,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14323,7 +14377,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14401,10 +14455,10 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14529,7 +14583,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14735,7 +14789,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14816,7 +14870,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -14941,7 +14995,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15019,10 +15073,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15353,7 +15407,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15431,10 +15485,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR70">
         <v>1.13</v>
@@ -15765,7 +15819,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15846,7 +15900,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -15971,7 +16025,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16049,10 +16103,10 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ73">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16255,7 +16309,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>1.17</v>
@@ -16383,7 +16437,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16589,7 +16643,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16795,7 +16849,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17001,7 +17055,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17207,7 +17261,7 @@
         <v>165</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17413,7 +17467,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17494,7 +17548,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ80">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -17697,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ81">
         <v>0.67</v>
@@ -17825,7 +17879,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17903,7 +17957,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18112,7 +18166,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -18315,10 +18369,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR84">
         <v>1.97</v>
@@ -18649,7 +18703,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18727,7 +18781,7 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ86">
         <v>0.33</v>
@@ -18855,7 +18909,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18936,7 +18990,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ87">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19061,7 +19115,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19345,10 +19399,10 @@
         <v>1.33</v>
       </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>1.37</v>
@@ -19473,7 +19527,7 @@
         <v>175</v>
       </c>
       <c r="P90" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19679,7 +19733,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19760,7 +19814,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR91">
         <v>2.05</v>
@@ -19885,7 +19939,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20091,7 +20145,7 @@
         <v>178</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20172,7 +20226,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20297,7 +20351,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20375,7 +20429,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -20503,7 +20557,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20584,7 +20638,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR95">
         <v>1.11</v>
@@ -21121,7 +21175,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21199,7 +21253,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21278,6 +21332,2684 @@
       </c>
       <c r="BP98">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7295333</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45395.73958333334</v>
+      </c>
+      <c r="F99">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99" t="s">
+        <v>183</v>
+      </c>
+      <c r="P99" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q99">
+        <v>3.2</v>
+      </c>
+      <c r="R99">
+        <v>2.3</v>
+      </c>
+      <c r="S99">
+        <v>3</v>
+      </c>
+      <c r="T99">
+        <v>1.33</v>
+      </c>
+      <c r="U99">
+        <v>3.25</v>
+      </c>
+      <c r="V99">
+        <v>2.5</v>
+      </c>
+      <c r="W99">
+        <v>1.5</v>
+      </c>
+      <c r="X99">
+        <v>6.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.11</v>
+      </c>
+      <c r="Z99">
+        <v>2.65</v>
+      </c>
+      <c r="AA99">
+        <v>3.5</v>
+      </c>
+      <c r="AB99">
+        <v>2.35</v>
+      </c>
+      <c r="AC99">
+        <v>1.02</v>
+      </c>
+      <c r="AD99">
+        <v>15</v>
+      </c>
+      <c r="AE99">
+        <v>1.22</v>
+      </c>
+      <c r="AF99">
+        <v>4.2</v>
+      </c>
+      <c r="AG99">
+        <v>1.7</v>
+      </c>
+      <c r="AH99">
+        <v>2</v>
+      </c>
+      <c r="AI99">
+        <v>1.57</v>
+      </c>
+      <c r="AJ99">
+        <v>2.25</v>
+      </c>
+      <c r="AK99">
+        <v>1.57</v>
+      </c>
+      <c r="AL99">
+        <v>1.22</v>
+      </c>
+      <c r="AM99">
+        <v>1.47</v>
+      </c>
+      <c r="AN99">
+        <v>1.33</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>1.25</v>
+      </c>
+      <c r="AQ99">
+        <v>0.25</v>
+      </c>
+      <c r="AR99">
+        <v>1.42</v>
+      </c>
+      <c r="AS99">
+        <v>1.47</v>
+      </c>
+      <c r="AT99">
+        <v>2.89</v>
+      </c>
+      <c r="AU99">
+        <v>-1</v>
+      </c>
+      <c r="AV99">
+        <v>-1</v>
+      </c>
+      <c r="AW99">
+        <v>-1</v>
+      </c>
+      <c r="AX99">
+        <v>-1</v>
+      </c>
+      <c r="AY99">
+        <v>-1</v>
+      </c>
+      <c r="AZ99">
+        <v>-1</v>
+      </c>
+      <c r="BA99">
+        <v>-1</v>
+      </c>
+      <c r="BB99">
+        <v>-1</v>
+      </c>
+      <c r="BC99">
+        <v>-1</v>
+      </c>
+      <c r="BD99">
+        <v>2.04</v>
+      </c>
+      <c r="BE99">
+        <v>7.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.02</v>
+      </c>
+      <c r="BG99">
+        <v>1.29</v>
+      </c>
+      <c r="BH99">
+        <v>3</v>
+      </c>
+      <c r="BI99">
+        <v>1.54</v>
+      </c>
+      <c r="BJ99">
+        <v>2.23</v>
+      </c>
+      <c r="BK99">
+        <v>1.92</v>
+      </c>
+      <c r="BL99">
+        <v>1.77</v>
+      </c>
+      <c r="BM99">
+        <v>2.45</v>
+      </c>
+      <c r="BN99">
+        <v>1.45</v>
+      </c>
+      <c r="BO99">
+        <v>3.25</v>
+      </c>
+      <c r="BP99">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7295338</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45395.85416666666</v>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>94</v>
+      </c>
+      <c r="H100" t="s">
+        <v>93</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>184</v>
+      </c>
+      <c r="P100" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q100">
+        <v>2.3</v>
+      </c>
+      <c r="R100">
+        <v>2.25</v>
+      </c>
+      <c r="S100">
+        <v>5</v>
+      </c>
+      <c r="T100">
+        <v>1.36</v>
+      </c>
+      <c r="U100">
+        <v>3</v>
+      </c>
+      <c r="V100">
+        <v>2.63</v>
+      </c>
+      <c r="W100">
+        <v>1.44</v>
+      </c>
+      <c r="X100">
+        <v>7</v>
+      </c>
+      <c r="Y100">
+        <v>1.1</v>
+      </c>
+      <c r="Z100">
+        <v>1.67</v>
+      </c>
+      <c r="AA100">
+        <v>3.75</v>
+      </c>
+      <c r="AB100">
+        <v>4.5</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>9.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.28</v>
+      </c>
+      <c r="AF100">
+        <v>3.65</v>
+      </c>
+      <c r="AG100">
+        <v>1.8</v>
+      </c>
+      <c r="AH100">
+        <v>1.9</v>
+      </c>
+      <c r="AI100">
+        <v>1.8</v>
+      </c>
+      <c r="AJ100">
+        <v>1.95</v>
+      </c>
+      <c r="AK100">
+        <v>1.18</v>
+      </c>
+      <c r="AL100">
+        <v>1.22</v>
+      </c>
+      <c r="AM100">
+        <v>2.1</v>
+      </c>
+      <c r="AN100">
+        <v>1.33</v>
+      </c>
+      <c r="AO100">
+        <v>0</v>
+      </c>
+      <c r="AP100">
+        <v>1.75</v>
+      </c>
+      <c r="AQ100">
+        <v>0</v>
+      </c>
+      <c r="AR100">
+        <v>1.76</v>
+      </c>
+      <c r="AS100">
+        <v>1.25</v>
+      </c>
+      <c r="AT100">
+        <v>3.01</v>
+      </c>
+      <c r="AU100">
+        <v>7</v>
+      </c>
+      <c r="AV100">
+        <v>7</v>
+      </c>
+      <c r="AW100">
+        <v>7</v>
+      </c>
+      <c r="AX100">
+        <v>2</v>
+      </c>
+      <c r="AY100">
+        <v>14</v>
+      </c>
+      <c r="AZ100">
+        <v>9</v>
+      </c>
+      <c r="BA100">
+        <v>4</v>
+      </c>
+      <c r="BB100">
+        <v>6</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
+        <v>1.53</v>
+      </c>
+      <c r="BE100">
+        <v>8</v>
+      </c>
+      <c r="BF100">
+        <v>3</v>
+      </c>
+      <c r="BG100">
+        <v>1.3</v>
+      </c>
+      <c r="BH100">
+        <v>2.95</v>
+      </c>
+      <c r="BI100">
+        <v>1.56</v>
+      </c>
+      <c r="BJ100">
+        <v>2.2</v>
+      </c>
+      <c r="BK100">
+        <v>1.94</v>
+      </c>
+      <c r="BL100">
+        <v>1.75</v>
+      </c>
+      <c r="BM100">
+        <v>2.5</v>
+      </c>
+      <c r="BN100">
+        <v>1.43</v>
+      </c>
+      <c r="BO100">
+        <v>3.35</v>
+      </c>
+      <c r="BP100">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7295337</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45395.85416666666</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>97</v>
+      </c>
+      <c r="H101" t="s">
+        <v>88</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>104</v>
+      </c>
+      <c r="P101" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q101">
+        <v>2.2</v>
+      </c>
+      <c r="R101">
+        <v>2.25</v>
+      </c>
+      <c r="S101">
+        <v>5.5</v>
+      </c>
+      <c r="T101">
+        <v>1.36</v>
+      </c>
+      <c r="U101">
+        <v>3</v>
+      </c>
+      <c r="V101">
+        <v>2.75</v>
+      </c>
+      <c r="W101">
+        <v>1.4</v>
+      </c>
+      <c r="X101">
+        <v>7</v>
+      </c>
+      <c r="Y101">
+        <v>1.1</v>
+      </c>
+      <c r="Z101">
+        <v>1.6</v>
+      </c>
+      <c r="AA101">
+        <v>3.65</v>
+      </c>
+      <c r="AB101">
+        <v>5.5</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE101">
+        <v>1.24</v>
+      </c>
+      <c r="AF101">
+        <v>3.5</v>
+      </c>
+      <c r="AG101">
+        <v>1.85</v>
+      </c>
+      <c r="AH101">
+        <v>1.85</v>
+      </c>
+      <c r="AI101">
+        <v>1.91</v>
+      </c>
+      <c r="AJ101">
+        <v>1.91</v>
+      </c>
+      <c r="AK101">
+        <v>1.14</v>
+      </c>
+      <c r="AL101">
+        <v>1.24</v>
+      </c>
+      <c r="AM101">
+        <v>2.34</v>
+      </c>
+      <c r="AN101">
+        <v>3</v>
+      </c>
+      <c r="AO101">
+        <v>0.5</v>
+      </c>
+      <c r="AP101">
+        <v>2.33</v>
+      </c>
+      <c r="AQ101">
+        <v>0.6</v>
+      </c>
+      <c r="AR101">
+        <v>1.68</v>
+      </c>
+      <c r="AS101">
+        <v>1.07</v>
+      </c>
+      <c r="AT101">
+        <v>2.75</v>
+      </c>
+      <c r="AU101">
+        <v>6</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>11</v>
+      </c>
+      <c r="AX101">
+        <v>2</v>
+      </c>
+      <c r="AY101">
+        <v>17</v>
+      </c>
+      <c r="AZ101">
+        <v>6</v>
+      </c>
+      <c r="BA101">
+        <v>4</v>
+      </c>
+      <c r="BB101">
+        <v>4</v>
+      </c>
+      <c r="BC101">
+        <v>8</v>
+      </c>
+      <c r="BD101">
+        <v>1.41</v>
+      </c>
+      <c r="BE101">
+        <v>8.5</v>
+      </c>
+      <c r="BF101">
+        <v>3.6</v>
+      </c>
+      <c r="BG101">
+        <v>1.3</v>
+      </c>
+      <c r="BH101">
+        <v>3</v>
+      </c>
+      <c r="BI101">
+        <v>1.55</v>
+      </c>
+      <c r="BJ101">
+        <v>2.2</v>
+      </c>
+      <c r="BK101">
+        <v>1.94</v>
+      </c>
+      <c r="BL101">
+        <v>1.75</v>
+      </c>
+      <c r="BM101">
+        <v>2.45</v>
+      </c>
+      <c r="BN101">
+        <v>1.44</v>
+      </c>
+      <c r="BO101">
+        <v>3.3</v>
+      </c>
+      <c r="BP101">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7295336</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45395.85416666666</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>98</v>
+      </c>
+      <c r="H102" t="s">
+        <v>82</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>185</v>
+      </c>
+      <c r="P102" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q102">
+        <v>3.1</v>
+      </c>
+      <c r="R102">
+        <v>2.2</v>
+      </c>
+      <c r="S102">
+        <v>3.4</v>
+      </c>
+      <c r="T102">
+        <v>1.36</v>
+      </c>
+      <c r="U102">
+        <v>3</v>
+      </c>
+      <c r="V102">
+        <v>2.75</v>
+      </c>
+      <c r="W102">
+        <v>1.4</v>
+      </c>
+      <c r="X102">
+        <v>7</v>
+      </c>
+      <c r="Y102">
+        <v>1.1</v>
+      </c>
+      <c r="Z102">
+        <v>2.4</v>
+      </c>
+      <c r="AA102">
+        <v>3.3</v>
+      </c>
+      <c r="AB102">
+        <v>2.7</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>9.9</v>
+      </c>
+      <c r="AE102">
+        <v>1.23</v>
+      </c>
+      <c r="AF102">
+        <v>3.58</v>
+      </c>
+      <c r="AG102">
+        <v>1.85</v>
+      </c>
+      <c r="AH102">
+        <v>1.85</v>
+      </c>
+      <c r="AI102">
+        <v>1.67</v>
+      </c>
+      <c r="AJ102">
+        <v>2.1</v>
+      </c>
+      <c r="AK102">
+        <v>1.46</v>
+      </c>
+      <c r="AL102">
+        <v>1.3</v>
+      </c>
+      <c r="AM102">
+        <v>1.54</v>
+      </c>
+      <c r="AN102">
+        <v>0</v>
+      </c>
+      <c r="AO102">
+        <v>2.33</v>
+      </c>
+      <c r="AP102">
+        <v>3</v>
+      </c>
+      <c r="AQ102">
+        <v>1.75</v>
+      </c>
+      <c r="AR102">
+        <v>0</v>
+      </c>
+      <c r="AS102">
+        <v>1.65</v>
+      </c>
+      <c r="AT102">
+        <v>1.65</v>
+      </c>
+      <c r="AU102">
+        <v>5</v>
+      </c>
+      <c r="AV102">
+        <v>5</v>
+      </c>
+      <c r="AW102">
+        <v>5</v>
+      </c>
+      <c r="AX102">
+        <v>1</v>
+      </c>
+      <c r="AY102">
+        <v>10</v>
+      </c>
+      <c r="AZ102">
+        <v>6</v>
+      </c>
+      <c r="BA102">
+        <v>5</v>
+      </c>
+      <c r="BB102">
+        <v>4</v>
+      </c>
+      <c r="BC102">
+        <v>9</v>
+      </c>
+      <c r="BD102">
+        <v>1.92</v>
+      </c>
+      <c r="BE102">
+        <v>7.5</v>
+      </c>
+      <c r="BF102">
+        <v>2.17</v>
+      </c>
+      <c r="BG102">
+        <v>1.3</v>
+      </c>
+      <c r="BH102">
+        <v>2.9</v>
+      </c>
+      <c r="BI102">
+        <v>1.57</v>
+      </c>
+      <c r="BJ102">
+        <v>2.18</v>
+      </c>
+      <c r="BK102">
+        <v>1.96</v>
+      </c>
+      <c r="BL102">
+        <v>1.73</v>
+      </c>
+      <c r="BM102">
+        <v>2.5</v>
+      </c>
+      <c r="BN102">
+        <v>1.43</v>
+      </c>
+      <c r="BO102">
+        <v>3.3</v>
+      </c>
+      <c r="BP102">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7295334</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45395.85416666666</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H103" t="s">
+        <v>95</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>5</v>
+      </c>
+      <c r="O103" t="s">
+        <v>186</v>
+      </c>
+      <c r="P103" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q103">
+        <v>2.3</v>
+      </c>
+      <c r="R103">
+        <v>2.25</v>
+      </c>
+      <c r="S103">
+        <v>5</v>
+      </c>
+      <c r="T103">
+        <v>1.36</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>2.75</v>
+      </c>
+      <c r="W103">
+        <v>1.4</v>
+      </c>
+      <c r="X103">
+        <v>7</v>
+      </c>
+      <c r="Y103">
+        <v>1.1</v>
+      </c>
+      <c r="Z103">
+        <v>1.67</v>
+      </c>
+      <c r="AA103">
+        <v>3.65</v>
+      </c>
+      <c r="AB103">
+        <v>4.6</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>9</v>
+      </c>
+      <c r="AE103">
+        <v>1.29</v>
+      </c>
+      <c r="AF103">
+        <v>3.4</v>
+      </c>
+      <c r="AG103">
+        <v>1.85</v>
+      </c>
+      <c r="AH103">
+        <v>1.85</v>
+      </c>
+      <c r="AI103">
+        <v>1.8</v>
+      </c>
+      <c r="AJ103">
+        <v>1.95</v>
+      </c>
+      <c r="AK103">
+        <v>1.18</v>
+      </c>
+      <c r="AL103">
+        <v>1.29</v>
+      </c>
+      <c r="AM103">
+        <v>2.1</v>
+      </c>
+      <c r="AN103">
+        <v>2.33</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>2.5</v>
+      </c>
+      <c r="AQ103">
+        <v>0.8</v>
+      </c>
+      <c r="AR103">
+        <v>1.41</v>
+      </c>
+      <c r="AS103">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT103">
+        <v>2.35</v>
+      </c>
+      <c r="AU103">
+        <v>6</v>
+      </c>
+      <c r="AV103">
+        <v>6</v>
+      </c>
+      <c r="AW103">
+        <v>5</v>
+      </c>
+      <c r="AX103">
+        <v>4</v>
+      </c>
+      <c r="AY103">
+        <v>11</v>
+      </c>
+      <c r="AZ103">
+        <v>10</v>
+      </c>
+      <c r="BA103">
+        <v>4</v>
+      </c>
+      <c r="BB103">
+        <v>6</v>
+      </c>
+      <c r="BC103">
+        <v>10</v>
+      </c>
+      <c r="BD103">
+        <v>1.49</v>
+      </c>
+      <c r="BE103">
+        <v>8</v>
+      </c>
+      <c r="BF103">
+        <v>3.2</v>
+      </c>
+      <c r="BG103">
+        <v>1.3</v>
+      </c>
+      <c r="BH103">
+        <v>2.95</v>
+      </c>
+      <c r="BI103">
+        <v>1.58</v>
+      </c>
+      <c r="BJ103">
+        <v>2.18</v>
+      </c>
+      <c r="BK103">
+        <v>1.96</v>
+      </c>
+      <c r="BL103">
+        <v>1.73</v>
+      </c>
+      <c r="BM103">
+        <v>2.5</v>
+      </c>
+      <c r="BN103">
+        <v>1.43</v>
+      </c>
+      <c r="BO103">
+        <v>3.35</v>
+      </c>
+      <c r="BP103">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7295335</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45395.85416666666</v>
+      </c>
+      <c r="F104">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>74</v>
+      </c>
+      <c r="H104" t="s">
+        <v>75</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>5</v>
+      </c>
+      <c r="O104" t="s">
+        <v>187</v>
+      </c>
+      <c r="P104" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q104">
+        <v>2.63</v>
+      </c>
+      <c r="R104">
+        <v>2.3</v>
+      </c>
+      <c r="S104">
+        <v>3.75</v>
+      </c>
+      <c r="T104">
+        <v>1.33</v>
+      </c>
+      <c r="U104">
+        <v>3.25</v>
+      </c>
+      <c r="V104">
+        <v>2.5</v>
+      </c>
+      <c r="W104">
+        <v>1.5</v>
+      </c>
+      <c r="X104">
+        <v>6.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.11</v>
+      </c>
+      <c r="Z104">
+        <v>2.05</v>
+      </c>
+      <c r="AA104">
+        <v>3.5</v>
+      </c>
+      <c r="AB104">
+        <v>3.25</v>
+      </c>
+      <c r="AC104">
+        <v>1.01</v>
+      </c>
+      <c r="AD104">
+        <v>3.2</v>
+      </c>
+      <c r="AE104">
+        <v>1.22</v>
+      </c>
+      <c r="AF104">
+        <v>4</v>
+      </c>
+      <c r="AG104">
+        <v>1.7</v>
+      </c>
+      <c r="AH104">
+        <v>2</v>
+      </c>
+      <c r="AI104">
+        <v>1.62</v>
+      </c>
+      <c r="AJ104">
+        <v>2.2</v>
+      </c>
+      <c r="AK104">
+        <v>1.33</v>
+      </c>
+      <c r="AL104">
+        <v>1.22</v>
+      </c>
+      <c r="AM104">
+        <v>1.78</v>
+      </c>
+      <c r="AN104">
+        <v>2</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>1.5</v>
+      </c>
+      <c r="AQ104">
+        <v>1</v>
+      </c>
+      <c r="AR104">
+        <v>1.9</v>
+      </c>
+      <c r="AS104">
+        <v>1.33</v>
+      </c>
+      <c r="AT104">
+        <v>3.23</v>
+      </c>
+      <c r="AU104">
+        <v>8</v>
+      </c>
+      <c r="AV104">
+        <v>6</v>
+      </c>
+      <c r="AW104">
+        <v>7</v>
+      </c>
+      <c r="AX104">
+        <v>4</v>
+      </c>
+      <c r="AY104">
+        <v>15</v>
+      </c>
+      <c r="AZ104">
+        <v>10</v>
+      </c>
+      <c r="BA104">
+        <v>7</v>
+      </c>
+      <c r="BB104">
+        <v>4</v>
+      </c>
+      <c r="BC104">
+        <v>11</v>
+      </c>
+      <c r="BD104">
+        <v>1.72</v>
+      </c>
+      <c r="BE104">
+        <v>7.5</v>
+      </c>
+      <c r="BF104">
+        <v>2.48</v>
+      </c>
+      <c r="BG104">
+        <v>1.29</v>
+      </c>
+      <c r="BH104">
+        <v>3</v>
+      </c>
+      <c r="BI104">
+        <v>1.54</v>
+      </c>
+      <c r="BJ104">
+        <v>2.23</v>
+      </c>
+      <c r="BK104">
+        <v>1.92</v>
+      </c>
+      <c r="BL104">
+        <v>1.77</v>
+      </c>
+      <c r="BM104">
+        <v>2.45</v>
+      </c>
+      <c r="BN104">
+        <v>1.45</v>
+      </c>
+      <c r="BO104">
+        <v>3.25</v>
+      </c>
+      <c r="BP104">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7295339</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45395.89583333334</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>78</v>
+      </c>
+      <c r="H105" t="s">
+        <v>92</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" t="s">
+        <v>104</v>
+      </c>
+      <c r="P105" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q105">
+        <v>3.5</v>
+      </c>
+      <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>3.25</v>
+      </c>
+      <c r="T105">
+        <v>1.5</v>
+      </c>
+      <c r="U105">
+        <v>2.5</v>
+      </c>
+      <c r="V105">
+        <v>3.4</v>
+      </c>
+      <c r="W105">
+        <v>1.3</v>
+      </c>
+      <c r="X105">
+        <v>10</v>
+      </c>
+      <c r="Y105">
+        <v>1.06</v>
+      </c>
+      <c r="Z105">
+        <v>2.75</v>
+      </c>
+      <c r="AA105">
+        <v>3.05</v>
+      </c>
+      <c r="AB105">
+        <v>2.55</v>
+      </c>
+      <c r="AC105">
+        <v>1.07</v>
+      </c>
+      <c r="AD105">
+        <v>9</v>
+      </c>
+      <c r="AE105">
+        <v>1.4</v>
+      </c>
+      <c r="AF105">
+        <v>2.9</v>
+      </c>
+      <c r="AG105">
+        <v>2.15</v>
+      </c>
+      <c r="AH105">
+        <v>1.62</v>
+      </c>
+      <c r="AI105">
+        <v>1.95</v>
+      </c>
+      <c r="AJ105">
+        <v>1.8</v>
+      </c>
+      <c r="AK105">
+        <v>1.5</v>
+      </c>
+      <c r="AL105">
+        <v>1.28</v>
+      </c>
+      <c r="AM105">
+        <v>1.47</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
+        <v>0</v>
+      </c>
+      <c r="AP105">
+        <v>1</v>
+      </c>
+      <c r="AQ105">
+        <v>0.25</v>
+      </c>
+      <c r="AR105">
+        <v>1.76</v>
+      </c>
+      <c r="AS105">
+        <v>1.65</v>
+      </c>
+      <c r="AT105">
+        <v>3.41</v>
+      </c>
+      <c r="AU105">
+        <v>3</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>9</v>
+      </c>
+      <c r="AX105">
+        <v>4</v>
+      </c>
+      <c r="AY105">
+        <v>12</v>
+      </c>
+      <c r="AZ105">
+        <v>7</v>
+      </c>
+      <c r="BA105">
+        <v>4</v>
+      </c>
+      <c r="BB105">
+        <v>3</v>
+      </c>
+      <c r="BC105">
+        <v>7</v>
+      </c>
+      <c r="BD105">
+        <v>1.98</v>
+      </c>
+      <c r="BE105">
+        <v>7.5</v>
+      </c>
+      <c r="BF105">
+        <v>2.1</v>
+      </c>
+      <c r="BG105">
+        <v>1.38</v>
+      </c>
+      <c r="BH105">
+        <v>2.65</v>
+      </c>
+      <c r="BI105">
+        <v>1.68</v>
+      </c>
+      <c r="BJ105">
+        <v>2</v>
+      </c>
+      <c r="BK105">
+        <v>2.14</v>
+      </c>
+      <c r="BL105">
+        <v>1.6</v>
+      </c>
+      <c r="BM105">
+        <v>2.8</v>
+      </c>
+      <c r="BN105">
+        <v>1.35</v>
+      </c>
+      <c r="BO105">
+        <v>3.8</v>
+      </c>
+      <c r="BP105">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7295340</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45395.89583333334</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>89</v>
+      </c>
+      <c r="H106" t="s">
+        <v>70</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>5</v>
+      </c>
+      <c r="O106" t="s">
+        <v>188</v>
+      </c>
+      <c r="P106" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q106">
+        <v>2.88</v>
+      </c>
+      <c r="R106">
+        <v>2.3</v>
+      </c>
+      <c r="S106">
+        <v>3.4</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3.25</v>
+      </c>
+      <c r="V106">
+        <v>2.63</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>6.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.11</v>
+      </c>
+      <c r="Z106">
+        <v>2.55</v>
+      </c>
+      <c r="AA106">
+        <v>3.5</v>
+      </c>
+      <c r="AB106">
+        <v>2.45</v>
+      </c>
+      <c r="AC106">
+        <v>1.05</v>
+      </c>
+      <c r="AD106">
+        <v>9.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.25</v>
+      </c>
+      <c r="AF106">
+        <v>3.95</v>
+      </c>
+      <c r="AG106">
+        <v>1.7</v>
+      </c>
+      <c r="AH106">
+        <v>2</v>
+      </c>
+      <c r="AI106">
+        <v>1.57</v>
+      </c>
+      <c r="AJ106">
+        <v>2.25</v>
+      </c>
+      <c r="AK106">
+        <v>1.4</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.57</v>
+      </c>
+      <c r="AN106">
+        <v>1.25</v>
+      </c>
+      <c r="AO106">
+        <v>1.33</v>
+      </c>
+      <c r="AP106">
+        <v>1</v>
+      </c>
+      <c r="AQ106">
+        <v>1.75</v>
+      </c>
+      <c r="AR106">
+        <v>1.67</v>
+      </c>
+      <c r="AS106">
+        <v>1.44</v>
+      </c>
+      <c r="AT106">
+        <v>3.11</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>7</v>
+      </c>
+      <c r="AW106">
+        <v>3</v>
+      </c>
+      <c r="AX106">
+        <v>2</v>
+      </c>
+      <c r="AY106">
+        <v>7</v>
+      </c>
+      <c r="AZ106">
+        <v>9</v>
+      </c>
+      <c r="BA106">
+        <v>5</v>
+      </c>
+      <c r="BB106">
+        <v>1</v>
+      </c>
+      <c r="BC106">
+        <v>6</v>
+      </c>
+      <c r="BD106">
+        <v>1.8</v>
+      </c>
+      <c r="BE106">
+        <v>7.5</v>
+      </c>
+      <c r="BF106">
+        <v>2.33</v>
+      </c>
+      <c r="BG106">
+        <v>1.27</v>
+      </c>
+      <c r="BH106">
+        <v>3.15</v>
+      </c>
+      <c r="BI106">
+        <v>1.5</v>
+      </c>
+      <c r="BJ106">
+        <v>2.3</v>
+      </c>
+      <c r="BK106">
+        <v>1.87</v>
+      </c>
+      <c r="BL106">
+        <v>1.82</v>
+      </c>
+      <c r="BM106">
+        <v>2.35</v>
+      </c>
+      <c r="BN106">
+        <v>1.48</v>
+      </c>
+      <c r="BO106">
+        <v>3.15</v>
+      </c>
+      <c r="BP106">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7295341</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45395.89583333334</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>85</v>
+      </c>
+      <c r="H107" t="s">
+        <v>79</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>189</v>
+      </c>
+      <c r="P107" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q107">
+        <v>2.75</v>
+      </c>
+      <c r="R107">
+        <v>2.2</v>
+      </c>
+      <c r="S107">
+        <v>4</v>
+      </c>
+      <c r="T107">
+        <v>1.4</v>
+      </c>
+      <c r="U107">
+        <v>2.75</v>
+      </c>
+      <c r="V107">
+        <v>2.75</v>
+      </c>
+      <c r="W107">
+        <v>1.4</v>
+      </c>
+      <c r="X107">
+        <v>8</v>
+      </c>
+      <c r="Y107">
+        <v>1.08</v>
+      </c>
+      <c r="Z107">
+        <v>1.95</v>
+      </c>
+      <c r="AA107">
+        <v>3.3</v>
+      </c>
+      <c r="AB107">
+        <v>3.65</v>
+      </c>
+      <c r="AC107">
+        <v>1.05</v>
+      </c>
+      <c r="AD107">
+        <v>11</v>
+      </c>
+      <c r="AE107">
+        <v>1.3</v>
+      </c>
+      <c r="AF107">
+        <v>3.4</v>
+      </c>
+      <c r="AG107">
+        <v>1.85</v>
+      </c>
+      <c r="AH107">
+        <v>1.85</v>
+      </c>
+      <c r="AI107">
+        <v>1.8</v>
+      </c>
+      <c r="AJ107">
+        <v>1.95</v>
+      </c>
+      <c r="AK107">
+        <v>1.3</v>
+      </c>
+      <c r="AL107">
+        <v>1.25</v>
+      </c>
+      <c r="AM107">
+        <v>1.8</v>
+      </c>
+      <c r="AN107">
+        <v>1.67</v>
+      </c>
+      <c r="AO107">
+        <v>1.5</v>
+      </c>
+      <c r="AP107">
+        <v>1.25</v>
+      </c>
+      <c r="AQ107">
+        <v>2</v>
+      </c>
+      <c r="AR107">
+        <v>1.55</v>
+      </c>
+      <c r="AS107">
+        <v>1.07</v>
+      </c>
+      <c r="AT107">
+        <v>2.62</v>
+      </c>
+      <c r="AU107">
+        <v>8</v>
+      </c>
+      <c r="AV107">
+        <v>4</v>
+      </c>
+      <c r="AW107">
+        <v>12</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>20</v>
+      </c>
+      <c r="AZ107">
+        <v>6</v>
+      </c>
+      <c r="BA107">
+        <v>7</v>
+      </c>
+      <c r="BB107">
+        <v>5</v>
+      </c>
+      <c r="BC107">
+        <v>12</v>
+      </c>
+      <c r="BD107">
+        <v>1.65</v>
+      </c>
+      <c r="BE107">
+        <v>8</v>
+      </c>
+      <c r="BF107">
+        <v>2.63</v>
+      </c>
+      <c r="BG107">
+        <v>1.3</v>
+      </c>
+      <c r="BH107">
+        <v>2.9</v>
+      </c>
+      <c r="BI107">
+        <v>1.58</v>
+      </c>
+      <c r="BJ107">
+        <v>2.18</v>
+      </c>
+      <c r="BK107">
+        <v>1.98</v>
+      </c>
+      <c r="BL107">
+        <v>1.72</v>
+      </c>
+      <c r="BM107">
+        <v>2.55</v>
+      </c>
+      <c r="BN107">
+        <v>1.42</v>
+      </c>
+      <c r="BO107">
+        <v>3.4</v>
+      </c>
+      <c r="BP107">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7295342</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45395.9375</v>
+      </c>
+      <c r="F108">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>86</v>
+      </c>
+      <c r="H108" t="s">
+        <v>71</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>104</v>
+      </c>
+      <c r="P108" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q108">
+        <v>2.88</v>
+      </c>
+      <c r="R108">
+        <v>2.25</v>
+      </c>
+      <c r="S108">
+        <v>3.5</v>
+      </c>
+      <c r="T108">
+        <v>1.33</v>
+      </c>
+      <c r="U108">
+        <v>3.25</v>
+      </c>
+      <c r="V108">
+        <v>2.63</v>
+      </c>
+      <c r="W108">
+        <v>1.44</v>
+      </c>
+      <c r="X108">
+        <v>6.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.11</v>
+      </c>
+      <c r="Z108">
+        <v>2.2</v>
+      </c>
+      <c r="AA108">
+        <v>3.45</v>
+      </c>
+      <c r="AB108">
+        <v>2.95</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>2.14</v>
+      </c>
+      <c r="AE108">
+        <v>1.25</v>
+      </c>
+      <c r="AF108">
+        <v>3.75</v>
+      </c>
+      <c r="AG108">
+        <v>1.7</v>
+      </c>
+      <c r="AH108">
+        <v>2</v>
+      </c>
+      <c r="AI108">
+        <v>1.62</v>
+      </c>
+      <c r="AJ108">
+        <v>2.2</v>
+      </c>
+      <c r="AK108">
+        <v>1.42</v>
+      </c>
+      <c r="AL108">
+        <v>1.25</v>
+      </c>
+      <c r="AM108">
+        <v>1.62</v>
+      </c>
+      <c r="AN108">
+        <v>2</v>
+      </c>
+      <c r="AO108">
+        <v>0.67</v>
+      </c>
+      <c r="AP108">
+        <v>1.75</v>
+      </c>
+      <c r="AQ108">
+        <v>0.75</v>
+      </c>
+      <c r="AR108">
+        <v>1.42</v>
+      </c>
+      <c r="AS108">
+        <v>1.25</v>
+      </c>
+      <c r="AT108">
+        <v>2.67</v>
+      </c>
+      <c r="AU108">
+        <v>9</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>5</v>
+      </c>
+      <c r="AX108">
+        <v>4</v>
+      </c>
+      <c r="AY108">
+        <v>14</v>
+      </c>
+      <c r="AZ108">
+        <v>9</v>
+      </c>
+      <c r="BA108">
+        <v>5</v>
+      </c>
+      <c r="BB108">
+        <v>3</v>
+      </c>
+      <c r="BC108">
+        <v>8</v>
+      </c>
+      <c r="BD108">
+        <v>1.83</v>
+      </c>
+      <c r="BE108">
+        <v>7.5</v>
+      </c>
+      <c r="BF108">
+        <v>2.28</v>
+      </c>
+      <c r="BG108">
+        <v>1.29</v>
+      </c>
+      <c r="BH108">
+        <v>3</v>
+      </c>
+      <c r="BI108">
+        <v>1.54</v>
+      </c>
+      <c r="BJ108">
+        <v>2.25</v>
+      </c>
+      <c r="BK108">
+        <v>1.92</v>
+      </c>
+      <c r="BL108">
+        <v>1.77</v>
+      </c>
+      <c r="BM108">
+        <v>2.45</v>
+      </c>
+      <c r="BN108">
+        <v>1.45</v>
+      </c>
+      <c r="BO108">
+        <v>3.25</v>
+      </c>
+      <c r="BP108">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7295332</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45395.97916666666</v>
+      </c>
+      <c r="F109">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>87</v>
+      </c>
+      <c r="H109" t="s">
+        <v>84</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>190</v>
+      </c>
+      <c r="P109" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q109">
+        <v>2.6</v>
+      </c>
+      <c r="R109">
+        <v>2.4</v>
+      </c>
+      <c r="S109">
+        <v>3.6</v>
+      </c>
+      <c r="T109">
+        <v>1.29</v>
+      </c>
+      <c r="U109">
+        <v>3.5</v>
+      </c>
+      <c r="V109">
+        <v>2.25</v>
+      </c>
+      <c r="W109">
+        <v>1.57</v>
+      </c>
+      <c r="X109">
+        <v>5.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.14</v>
+      </c>
+      <c r="Z109">
+        <v>2</v>
+      </c>
+      <c r="AA109">
+        <v>3.85</v>
+      </c>
+      <c r="AB109">
+        <v>3.1</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>2.44</v>
+      </c>
+      <c r="AE109">
+        <v>1.16</v>
+      </c>
+      <c r="AF109">
+        <v>5</v>
+      </c>
+      <c r="AG109">
+        <v>1.5</v>
+      </c>
+      <c r="AH109">
+        <v>2.4</v>
+      </c>
+      <c r="AI109">
+        <v>1.5</v>
+      </c>
+      <c r="AJ109">
+        <v>2.5</v>
+      </c>
+      <c r="AK109">
+        <v>1.33</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>1.62</v>
+      </c>
+      <c r="AN109">
+        <v>1.75</v>
+      </c>
+      <c r="AO109">
+        <v>1.75</v>
+      </c>
+      <c r="AP109">
+        <v>1.4</v>
+      </c>
+      <c r="AQ109">
+        <v>2</v>
+      </c>
+      <c r="AR109">
+        <v>1.44</v>
+      </c>
+      <c r="AS109">
+        <v>1.58</v>
+      </c>
+      <c r="AT109">
+        <v>3.02</v>
+      </c>
+      <c r="AU109">
+        <v>8</v>
+      </c>
+      <c r="AV109">
+        <v>6</v>
+      </c>
+      <c r="AW109">
+        <v>9</v>
+      </c>
+      <c r="AX109">
+        <v>6</v>
+      </c>
+      <c r="AY109">
+        <v>17</v>
+      </c>
+      <c r="AZ109">
+        <v>12</v>
+      </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>3</v>
+      </c>
+      <c r="BD109">
+        <v>1.76</v>
+      </c>
+      <c r="BE109">
+        <v>7.5</v>
+      </c>
+      <c r="BF109">
+        <v>2.4</v>
+      </c>
+      <c r="BG109">
+        <v>1.24</v>
+      </c>
+      <c r="BH109">
+        <v>3.3</v>
+      </c>
+      <c r="BI109">
+        <v>1.47</v>
+      </c>
+      <c r="BJ109">
+        <v>2.4</v>
+      </c>
+      <c r="BK109">
+        <v>1.81</v>
+      </c>
+      <c r="BL109">
+        <v>1.88</v>
+      </c>
+      <c r="BM109">
+        <v>2.25</v>
+      </c>
+      <c r="BN109">
+        <v>1.53</v>
+      </c>
+      <c r="BO109">
+        <v>2.95</v>
+      </c>
+      <c r="BP109">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7295343</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45395.97916666666</v>
+      </c>
+      <c r="F110">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>91</v>
+      </c>
+      <c r="H110" t="s">
+        <v>90</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>104</v>
+      </c>
+      <c r="P110" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q110">
+        <v>2.88</v>
+      </c>
+      <c r="R110">
+        <v>2.2</v>
+      </c>
+      <c r="S110">
+        <v>3.75</v>
+      </c>
+      <c r="T110">
+        <v>1.4</v>
+      </c>
+      <c r="U110">
+        <v>2.75</v>
+      </c>
+      <c r="V110">
+        <v>2.75</v>
+      </c>
+      <c r="W110">
+        <v>1.4</v>
+      </c>
+      <c r="X110">
+        <v>8</v>
+      </c>
+      <c r="Y110">
+        <v>1.08</v>
+      </c>
+      <c r="Z110">
+        <v>2.1</v>
+      </c>
+      <c r="AA110">
+        <v>3.35</v>
+      </c>
+      <c r="AB110">
+        <v>3.25</v>
+      </c>
+      <c r="AC110">
+        <v>1.04</v>
+      </c>
+      <c r="AD110">
+        <v>11</v>
+      </c>
+      <c r="AE110">
+        <v>1.3</v>
+      </c>
+      <c r="AF110">
+        <v>3.5</v>
+      </c>
+      <c r="AG110">
+        <v>1.85</v>
+      </c>
+      <c r="AH110">
+        <v>1.85</v>
+      </c>
+      <c r="AI110">
+        <v>1.75</v>
+      </c>
+      <c r="AJ110">
+        <v>2</v>
+      </c>
+      <c r="AK110">
+        <v>1.35</v>
+      </c>
+      <c r="AL110">
+        <v>1.25</v>
+      </c>
+      <c r="AM110">
+        <v>1.72</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
+        <v>1.25</v>
+      </c>
+      <c r="AP110">
+        <v>0.75</v>
+      </c>
+      <c r="AQ110">
+        <v>1.6</v>
+      </c>
+      <c r="AR110">
+        <v>1.31</v>
+      </c>
+      <c r="AS110">
+        <v>1.55</v>
+      </c>
+      <c r="AT110">
+        <v>2.86</v>
+      </c>
+      <c r="AU110">
+        <v>7</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>12</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>19</v>
+      </c>
+      <c r="AZ110">
+        <v>7</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>2</v>
+      </c>
+      <c r="BC110">
+        <v>2</v>
+      </c>
+      <c r="BD110">
+        <v>1.72</v>
+      </c>
+      <c r="BE110">
+        <v>7.5</v>
+      </c>
+      <c r="BF110">
+        <v>2.48</v>
+      </c>
+      <c r="BG110">
+        <v>1.32</v>
+      </c>
+      <c r="BH110">
+        <v>2.88</v>
+      </c>
+      <c r="BI110">
+        <v>1.58</v>
+      </c>
+      <c r="BJ110">
+        <v>2.15</v>
+      </c>
+      <c r="BK110">
+        <v>1.98</v>
+      </c>
+      <c r="BL110">
+        <v>1.71</v>
+      </c>
+      <c r="BM110">
+        <v>2.55</v>
+      </c>
+      <c r="BN110">
+        <v>1.42</v>
+      </c>
+      <c r="BO110">
+        <v>3.35</v>
+      </c>
+      <c r="BP110">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7295344</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45396.64583333334</v>
+      </c>
+      <c r="F111">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>96</v>
+      </c>
+      <c r="H111" t="s">
+        <v>76</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111" t="s">
+        <v>191</v>
+      </c>
+      <c r="P111" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q111">
+        <v>2.5</v>
+      </c>
+      <c r="R111">
+        <v>2.38</v>
+      </c>
+      <c r="S111">
+        <v>3.75</v>
+      </c>
+      <c r="T111">
+        <v>1.29</v>
+      </c>
+      <c r="U111">
+        <v>3.5</v>
+      </c>
+      <c r="V111">
+        <v>2.38</v>
+      </c>
+      <c r="W111">
+        <v>1.53</v>
+      </c>
+      <c r="X111">
+        <v>5.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.14</v>
+      </c>
+      <c r="Z111">
+        <v>1.91</v>
+      </c>
+      <c r="AA111">
+        <v>3.9</v>
+      </c>
+      <c r="AB111">
+        <v>3.5</v>
+      </c>
+      <c r="AC111">
+        <v>1.04</v>
+      </c>
+      <c r="AD111">
+        <v>2.38</v>
+      </c>
+      <c r="AE111">
+        <v>1.19</v>
+      </c>
+      <c r="AF111">
+        <v>4.96</v>
+      </c>
+      <c r="AG111">
+        <v>1.57</v>
+      </c>
+      <c r="AH111">
+        <v>2.15</v>
+      </c>
+      <c r="AI111">
+        <v>1.57</v>
+      </c>
+      <c r="AJ111">
+        <v>2.25</v>
+      </c>
+      <c r="AK111">
+        <v>1.32</v>
+      </c>
+      <c r="AL111">
+        <v>1.27</v>
+      </c>
+      <c r="AM111">
+        <v>1.6</v>
+      </c>
+      <c r="AN111">
+        <v>3</v>
+      </c>
+      <c r="AO111">
+        <v>2</v>
+      </c>
+      <c r="AP111">
+        <v>2.5</v>
+      </c>
+      <c r="AQ111">
+        <v>1.8</v>
+      </c>
+      <c r="AR111">
+        <v>1.97</v>
+      </c>
+      <c r="AS111">
+        <v>1.53</v>
+      </c>
+      <c r="AT111">
+        <v>3.5</v>
+      </c>
+      <c r="AU111">
+        <v>-1</v>
+      </c>
+      <c r="AV111">
+        <v>-1</v>
+      </c>
+      <c r="AW111">
+        <v>-1</v>
+      </c>
+      <c r="AX111">
+        <v>-1</v>
+      </c>
+      <c r="AY111">
+        <v>-1</v>
+      </c>
+      <c r="AZ111">
+        <v>-1</v>
+      </c>
+      <c r="BA111">
+        <v>-1</v>
+      </c>
+      <c r="BB111">
+        <v>-1</v>
+      </c>
+      <c r="BC111">
+        <v>-1</v>
+      </c>
+      <c r="BD111">
+        <v>1.68</v>
+      </c>
+      <c r="BE111">
+        <v>7.5</v>
+      </c>
+      <c r="BF111">
+        <v>2.55</v>
+      </c>
+      <c r="BG111">
+        <v>1.27</v>
+      </c>
+      <c r="BH111">
+        <v>3.15</v>
+      </c>
+      <c r="BI111">
+        <v>1.5</v>
+      </c>
+      <c r="BJ111">
+        <v>2.33</v>
+      </c>
+      <c r="BK111">
+        <v>1.86</v>
+      </c>
+      <c r="BL111">
+        <v>1.83</v>
+      </c>
+      <c r="BM111">
+        <v>2.35</v>
+      </c>
+      <c r="BN111">
+        <v>1.49</v>
+      </c>
+      <c r="BO111">
+        <v>3.1</v>
+      </c>
+      <c r="BP111">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1140,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ12">
         <v>1.25</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25">
         <v>0.25</v>
@@ -7042,7 +7042,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -14046,7 +14046,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR63">
         <v>1.92</v>
@@ -14661,7 +14661,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -20841,7 +20841,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ96">
         <v>0.33</v>
@@ -21474,31 +21474,31 @@
         <v>2.89</v>
       </c>
       <c r="AU99">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV99">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX99">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY99">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ99">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA99">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB99">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC99">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD99">
         <v>2.04</v>
@@ -22922,13 +22922,13 @@
         <v>7</v>
       </c>
       <c r="AW106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX106">
         <v>2</v>
       </c>
       <c r="AY106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ106">
         <v>9</v>
@@ -24010,6 +24010,212 @@
       </c>
       <c r="BP111">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7295345</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45396.73958333334</v>
+      </c>
+      <c r="F112">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s">
+        <v>77</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>151</v>
+      </c>
+      <c r="P112" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q112">
+        <v>2.25</v>
+      </c>
+      <c r="R112">
+        <v>2.4</v>
+      </c>
+      <c r="S112">
+        <v>4.5</v>
+      </c>
+      <c r="T112">
+        <v>1.29</v>
+      </c>
+      <c r="U112">
+        <v>3.5</v>
+      </c>
+      <c r="V112">
+        <v>2.38</v>
+      </c>
+      <c r="W112">
+        <v>1.53</v>
+      </c>
+      <c r="X112">
+        <v>5.5</v>
+      </c>
+      <c r="Y112">
+        <v>1.14</v>
+      </c>
+      <c r="Z112">
+        <v>1.73</v>
+      </c>
+      <c r="AA112">
+        <v>4.2</v>
+      </c>
+      <c r="AB112">
+        <v>4</v>
+      </c>
+      <c r="AC112">
+        <v>1.03</v>
+      </c>
+      <c r="AD112">
+        <v>12</v>
+      </c>
+      <c r="AE112">
+        <v>1.14</v>
+      </c>
+      <c r="AF112">
+        <v>4.7</v>
+      </c>
+      <c r="AG112">
+        <v>1.6</v>
+      </c>
+      <c r="AH112">
+        <v>2.1</v>
+      </c>
+      <c r="AI112">
+        <v>1.57</v>
+      </c>
+      <c r="AJ112">
+        <v>2.25</v>
+      </c>
+      <c r="AK112">
+        <v>1.22</v>
+      </c>
+      <c r="AL112">
+        <v>1.25</v>
+      </c>
+      <c r="AM112">
+        <v>2.1</v>
+      </c>
+      <c r="AN112">
+        <v>1.5</v>
+      </c>
+      <c r="AO112">
+        <v>0.5</v>
+      </c>
+      <c r="AP112">
+        <v>1.8</v>
+      </c>
+      <c r="AQ112">
+        <v>0.33</v>
+      </c>
+      <c r="AR112">
+        <v>1.79</v>
+      </c>
+      <c r="AS112">
+        <v>0.63</v>
+      </c>
+      <c r="AT112">
+        <v>2.42</v>
+      </c>
+      <c r="AU112">
+        <v>5</v>
+      </c>
+      <c r="AV112">
+        <v>0</v>
+      </c>
+      <c r="AW112">
+        <v>5</v>
+      </c>
+      <c r="AX112">
+        <v>3</v>
+      </c>
+      <c r="AY112">
+        <v>10</v>
+      </c>
+      <c r="AZ112">
+        <v>3</v>
+      </c>
+      <c r="BA112">
+        <v>5</v>
+      </c>
+      <c r="BB112">
+        <v>6</v>
+      </c>
+      <c r="BC112">
+        <v>11</v>
+      </c>
+      <c r="BD112">
+        <v>1.54</v>
+      </c>
+      <c r="BE112">
+        <v>8</v>
+      </c>
+      <c r="BF112">
+        <v>2.95</v>
+      </c>
+      <c r="BG112">
+        <v>1.25</v>
+      </c>
+      <c r="BH112">
+        <v>3.25</v>
+      </c>
+      <c r="BI112">
+        <v>1.49</v>
+      </c>
+      <c r="BJ112">
+        <v>2.35</v>
+      </c>
+      <c r="BK112">
+        <v>1.83</v>
+      </c>
+      <c r="BL112">
+        <v>1.86</v>
+      </c>
+      <c r="BM112">
+        <v>2.32</v>
+      </c>
+      <c r="BN112">
+        <v>1.5</v>
+      </c>
+      <c r="BO112">
+        <v>3</v>
+      </c>
+      <c r="BP112">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -23946,31 +23946,31 @@
         <v>3.5</v>
       </c>
       <c r="AU111">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV111">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW111">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY111">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ111">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA111">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB111">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC111">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD111">
         <v>1.68</v>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,27 @@
     <t>['55', '63']</t>
   </si>
   <si>
+    <t>['11', '39', '81']</t>
+  </si>
+  <si>
+    <t>['51', '74']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['20', '90+1']</t>
+  </si>
+  <si>
+    <t>['17', '65', '77']</t>
+  </si>
+  <si>
+    <t>['45', '49']</t>
+  </si>
+  <si>
+    <t>['67', '90+5']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -779,6 +800,30 @@
   </si>
   <si>
     <t>['73', '77']</t>
+  </si>
+  <si>
+    <t>['22', '90+2']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['10', '57']</t>
+  </si>
+  <si>
+    <t>['62', '64']</t>
+  </si>
+  <si>
+    <t>['24', '33', '37', '90+3']</t>
+  </si>
+  <si>
+    <t>['31', '45+3', '90+2']</t>
+  </si>
+  <si>
+    <t>['8', '81']</t>
+  </si>
+  <si>
+    <t>['58', '71']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
+        <v>1.83</v>
+      </c>
+      <c r="AQ2">
         <v>1.6</v>
-      </c>
-      <c r="AQ2">
-        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1683,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ3">
         <v>0.33</v>
@@ -1811,7 +1856,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1889,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ4">
         <v>0.25</v>
@@ -2223,7 +2268,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2635,7 +2680,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2841,7 +2886,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3047,7 +3092,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3253,7 +3298,7 @@
         <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3331,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ11">
         <v>1.67</v>
@@ -3459,7 +3504,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3540,7 +3585,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3665,7 +3710,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4158,7 +4203,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4283,7 +4328,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4979,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5107,7 +5152,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5313,7 +5358,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5391,10 +5436,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5519,7 +5564,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5725,7 +5770,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5803,10 +5848,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ23">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -6343,7 +6388,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6421,10 +6466,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6549,7 +6594,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6630,7 +6675,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR27">
         <v>1.01</v>
@@ -6755,7 +6800,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7039,10 +7084,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7373,7 +7418,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7451,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7657,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ32">
         <v>0.25</v>
@@ -7785,7 +7830,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7863,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7991,7 +8036,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8069,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ34">
         <v>0.6</v>
@@ -8278,7 +8323,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8403,7 +8448,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8609,7 +8654,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8690,7 +8735,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.02</v>
@@ -8815,7 +8860,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9099,7 +9144,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ39">
         <v>1.67</v>
@@ -9227,7 +9272,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9433,7 +9478,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9720,7 +9765,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9845,7 +9890,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -9923,7 +9968,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43">
         <v>1.17</v>
@@ -10051,7 +10096,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10129,7 +10174,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>1.17</v>
@@ -10257,7 +10302,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10541,7 +10586,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
         <v>1.6</v>
@@ -10747,10 +10792,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ47">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -10953,7 +10998,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>0.8</v>
@@ -11081,7 +11126,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11287,7 +11332,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11571,7 +11616,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12317,7 +12362,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12398,7 +12443,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>2.22</v>
@@ -12523,7 +12568,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12604,7 +12649,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -12807,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12935,7 +12980,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13347,7 +13392,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13428,7 +13473,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ60">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -14046,7 +14091,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.92</v>
@@ -14249,7 +14294,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64">
         <v>0.33</v>
@@ -14377,7 +14422,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14583,7 +14628,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14664,7 +14709,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR66">
         <v>1.49</v>
@@ -14789,7 +14834,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14867,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -14995,7 +15040,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15279,10 +15324,10 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15407,7 +15452,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15819,7 +15864,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15897,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
         <v>0.25</v>
@@ -16025,7 +16070,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16106,7 +16151,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ73">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16437,7 +16482,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16515,7 +16560,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ75">
         <v>0.25</v>
@@ -16643,7 +16688,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16724,7 +16769,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ76">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -16849,7 +16894,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16927,7 +16972,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
         <v>1.67</v>
@@ -17055,7 +17100,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17136,7 +17181,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ78">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR78">
         <v>0.95</v>
@@ -17261,7 +17306,7 @@
         <v>165</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17339,7 +17384,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ79">
         <v>0</v>
@@ -17467,7 +17512,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17754,7 +17799,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -17879,7 +17924,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18369,7 +18414,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>0.6</v>
@@ -18703,7 +18748,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18781,7 +18826,7 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>0.33</v>
@@ -18909,7 +18954,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18987,7 +19032,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ87">
         <v>1.6</v>
@@ -19115,7 +19160,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19196,7 +19241,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.49</v>
@@ -19527,7 +19572,7 @@
         <v>175</v>
       </c>
       <c r="P90" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19605,10 +19650,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR90">
         <v>1.72</v>
@@ -19733,7 +19778,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19811,7 +19856,7 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ91">
         <v>2</v>
@@ -19939,7 +19984,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20145,7 +20190,7 @@
         <v>178</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20223,7 +20268,7 @@
         <v>3</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>2</v>
@@ -20351,7 +20396,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20432,7 +20477,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20557,7 +20602,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20844,7 +20889,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ96">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR96">
         <v>1.49</v>
@@ -21047,7 +21092,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ97">
         <v>1.17</v>
@@ -21175,7 +21220,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21381,7 +21426,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21665,7 +21710,7 @@
         <v>0</v>
       </c>
       <c r="AP100">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0</v>
@@ -21999,7 +22044,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22077,10 +22122,10 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -22205,7 +22250,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22411,7 +22456,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22823,7 +22868,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23029,7 +23074,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23441,7 +23486,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23647,7 +23692,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23853,7 +23898,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -23931,7 +23976,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>1.8</v>
@@ -24140,7 +24185,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ112">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.79</v>
@@ -24216,6 +24261,2478 @@
       </c>
       <c r="BP112">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7295350</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45402.85416666666</v>
+      </c>
+      <c r="F113">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>98</v>
+      </c>
+      <c r="H113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>142</v>
+      </c>
+      <c r="P113" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q113">
+        <v>3.1</v>
+      </c>
+      <c r="R113">
+        <v>2.2</v>
+      </c>
+      <c r="S113">
+        <v>3.25</v>
+      </c>
+      <c r="T113">
+        <v>1.36</v>
+      </c>
+      <c r="U113">
+        <v>3</v>
+      </c>
+      <c r="V113">
+        <v>2.63</v>
+      </c>
+      <c r="W113">
+        <v>1.44</v>
+      </c>
+      <c r="X113">
+        <v>7</v>
+      </c>
+      <c r="Y113">
+        <v>1.1</v>
+      </c>
+      <c r="Z113">
+        <v>2.6</v>
+      </c>
+      <c r="AA113">
+        <v>3.53</v>
+      </c>
+      <c r="AB113">
+        <v>2.66</v>
+      </c>
+      <c r="AC113">
+        <v>1.02</v>
+      </c>
+      <c r="AD113">
+        <v>2.04</v>
+      </c>
+      <c r="AE113">
+        <v>1.26</v>
+      </c>
+      <c r="AF113">
+        <v>3.9</v>
+      </c>
+      <c r="AG113">
+        <v>1.8</v>
+      </c>
+      <c r="AH113">
+        <v>1.91</v>
+      </c>
+      <c r="AI113">
+        <v>1.67</v>
+      </c>
+      <c r="AJ113">
+        <v>2.1</v>
+      </c>
+      <c r="AK113">
+        <v>1.48</v>
+      </c>
+      <c r="AL113">
+        <v>1.3</v>
+      </c>
+      <c r="AM113">
+        <v>1.53</v>
+      </c>
+      <c r="AN113">
+        <v>3</v>
+      </c>
+      <c r="AO113">
+        <v>1</v>
+      </c>
+      <c r="AP113">
+        <v>2</v>
+      </c>
+      <c r="AQ113">
+        <v>1</v>
+      </c>
+      <c r="AR113">
+        <v>1.35</v>
+      </c>
+      <c r="AS113">
+        <v>1.34</v>
+      </c>
+      <c r="AT113">
+        <v>2.69</v>
+      </c>
+      <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>3</v>
+      </c>
+      <c r="AW113">
+        <v>2</v>
+      </c>
+      <c r="AX113">
+        <v>3</v>
+      </c>
+      <c r="AY113">
+        <v>7</v>
+      </c>
+      <c r="AZ113">
+        <v>6</v>
+      </c>
+      <c r="BA113">
+        <v>1</v>
+      </c>
+      <c r="BB113">
+        <v>8</v>
+      </c>
+      <c r="BC113">
+        <v>9</v>
+      </c>
+      <c r="BD113">
+        <v>1.89</v>
+      </c>
+      <c r="BE113">
+        <v>7.5</v>
+      </c>
+      <c r="BF113">
+        <v>2.2</v>
+      </c>
+      <c r="BG113">
+        <v>1.3</v>
+      </c>
+      <c r="BH113">
+        <v>3</v>
+      </c>
+      <c r="BI113">
+        <v>1.55</v>
+      </c>
+      <c r="BJ113">
+        <v>2.23</v>
+      </c>
+      <c r="BK113">
+        <v>1.94</v>
+      </c>
+      <c r="BL113">
+        <v>1.75</v>
+      </c>
+      <c r="BM113">
+        <v>2.45</v>
+      </c>
+      <c r="BN113">
+        <v>1.44</v>
+      </c>
+      <c r="BO113">
+        <v>3.25</v>
+      </c>
+      <c r="BP113">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7295349</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45402.85416666666</v>
+      </c>
+      <c r="F114">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" t="s">
+        <v>83</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s">
+        <v>192</v>
+      </c>
+      <c r="P114" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q114">
+        <v>1.91</v>
+      </c>
+      <c r="R114">
+        <v>2.6</v>
+      </c>
+      <c r="S114">
+        <v>6</v>
+      </c>
+      <c r="T114">
+        <v>1.25</v>
+      </c>
+      <c r="U114">
+        <v>3.75</v>
+      </c>
+      <c r="V114">
+        <v>2.2</v>
+      </c>
+      <c r="W114">
+        <v>1.62</v>
+      </c>
+      <c r="X114">
+        <v>5</v>
+      </c>
+      <c r="Y114">
+        <v>1.17</v>
+      </c>
+      <c r="Z114">
+        <v>1.37</v>
+      </c>
+      <c r="AA114">
+        <v>5.49</v>
+      </c>
+      <c r="AB114">
+        <v>7.15</v>
+      </c>
+      <c r="AC114">
+        <v>1.02</v>
+      </c>
+      <c r="AD114">
+        <v>20</v>
+      </c>
+      <c r="AE114">
+        <v>1.16</v>
+      </c>
+      <c r="AF114">
+        <v>5.25</v>
+      </c>
+      <c r="AG114">
+        <v>1.48</v>
+      </c>
+      <c r="AH114">
+        <v>2.42</v>
+      </c>
+      <c r="AI114">
+        <v>1.7</v>
+      </c>
+      <c r="AJ114">
+        <v>2.05</v>
+      </c>
+      <c r="AK114">
+        <v>1.11</v>
+      </c>
+      <c r="AL114">
+        <v>1.18</v>
+      </c>
+      <c r="AM114">
+        <v>2.75</v>
+      </c>
+      <c r="AN114">
+        <v>1.6</v>
+      </c>
+      <c r="AO114">
+        <v>0.5</v>
+      </c>
+      <c r="AP114">
+        <v>1.83</v>
+      </c>
+      <c r="AQ114">
+        <v>0.33</v>
+      </c>
+      <c r="AR114">
+        <v>1.72</v>
+      </c>
+      <c r="AS114">
+        <v>0.86</v>
+      </c>
+      <c r="AT114">
+        <v>2.58</v>
+      </c>
+      <c r="AU114">
+        <v>8</v>
+      </c>
+      <c r="AV114">
+        <v>7</v>
+      </c>
+      <c r="AW114">
+        <v>1</v>
+      </c>
+      <c r="AX114">
+        <v>6</v>
+      </c>
+      <c r="AY114">
+        <v>9</v>
+      </c>
+      <c r="AZ114">
+        <v>13</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>6</v>
+      </c>
+      <c r="BC114">
+        <v>10</v>
+      </c>
+      <c r="BD114">
+        <v>1.38</v>
+      </c>
+      <c r="BE114">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF114">
+        <v>3.74</v>
+      </c>
+      <c r="BG114">
+        <v>1.31</v>
+      </c>
+      <c r="BH114">
+        <v>3.04</v>
+      </c>
+      <c r="BI114">
+        <v>1.7</v>
+      </c>
+      <c r="BJ114">
+        <v>2.05</v>
+      </c>
+      <c r="BK114">
+        <v>2.03</v>
+      </c>
+      <c r="BL114">
+        <v>1.77</v>
+      </c>
+      <c r="BM114">
+        <v>2.65</v>
+      </c>
+      <c r="BN114">
+        <v>1.42</v>
+      </c>
+      <c r="BO114">
+        <v>3.65</v>
+      </c>
+      <c r="BP114">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7295348</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45402.85416666666</v>
+      </c>
+      <c r="F115">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>71</v>
+      </c>
+      <c r="H115" t="s">
+        <v>81</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115" t="s">
+        <v>193</v>
+      </c>
+      <c r="P115" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q115">
+        <v>2.1</v>
+      </c>
+      <c r="R115">
+        <v>2.5</v>
+      </c>
+      <c r="S115">
+        <v>5</v>
+      </c>
+      <c r="T115">
+        <v>1.29</v>
+      </c>
+      <c r="U115">
+        <v>3.5</v>
+      </c>
+      <c r="V115">
+        <v>2.25</v>
+      </c>
+      <c r="W115">
+        <v>1.57</v>
+      </c>
+      <c r="X115">
+        <v>5.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.14</v>
+      </c>
+      <c r="Z115">
+        <v>1.63</v>
+      </c>
+      <c r="AA115">
+        <v>4.29</v>
+      </c>
+      <c r="AB115">
+        <v>4.9</v>
+      </c>
+      <c r="AC115">
+        <v>1.02</v>
+      </c>
+      <c r="AD115">
+        <v>10</v>
+      </c>
+      <c r="AE115">
+        <v>1.17</v>
+      </c>
+      <c r="AF115">
+        <v>4.5</v>
+      </c>
+      <c r="AG115">
+        <v>1.57</v>
+      </c>
+      <c r="AH115">
+        <v>2.25</v>
+      </c>
+      <c r="AI115">
+        <v>1.62</v>
+      </c>
+      <c r="AJ115">
+        <v>2.2</v>
+      </c>
+      <c r="AK115">
+        <v>1.18</v>
+      </c>
+      <c r="AL115">
+        <v>1.22</v>
+      </c>
+      <c r="AM115">
+        <v>2.3</v>
+      </c>
+      <c r="AN115">
+        <v>2.5</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>2.2</v>
+      </c>
+      <c r="AQ115">
+        <v>1</v>
+      </c>
+      <c r="AR115">
+        <v>1.63</v>
+      </c>
+      <c r="AS115">
+        <v>1.35</v>
+      </c>
+      <c r="AT115">
+        <v>2.98</v>
+      </c>
+      <c r="AU115">
+        <v>6</v>
+      </c>
+      <c r="AV115">
+        <v>5</v>
+      </c>
+      <c r="AW115">
+        <v>14</v>
+      </c>
+      <c r="AX115">
+        <v>1</v>
+      </c>
+      <c r="AY115">
+        <v>20</v>
+      </c>
+      <c r="AZ115">
+        <v>6</v>
+      </c>
+      <c r="BA115">
+        <v>6</v>
+      </c>
+      <c r="BB115">
+        <v>1</v>
+      </c>
+      <c r="BC115">
+        <v>7</v>
+      </c>
+      <c r="BD115">
+        <v>1.49</v>
+      </c>
+      <c r="BE115">
+        <v>8</v>
+      </c>
+      <c r="BF115">
+        <v>3.2</v>
+      </c>
+      <c r="BG115">
+        <v>1.26</v>
+      </c>
+      <c r="BH115">
+        <v>3.25</v>
+      </c>
+      <c r="BI115">
+        <v>1.48</v>
+      </c>
+      <c r="BJ115">
+        <v>2.35</v>
+      </c>
+      <c r="BK115">
+        <v>1.83</v>
+      </c>
+      <c r="BL115">
+        <v>1.86</v>
+      </c>
+      <c r="BM115">
+        <v>2.3</v>
+      </c>
+      <c r="BN115">
+        <v>1.5</v>
+      </c>
+      <c r="BO115">
+        <v>3</v>
+      </c>
+      <c r="BP115">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7295352</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45402.85416666666</v>
+      </c>
+      <c r="F116">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>95</v>
+      </c>
+      <c r="H116" t="s">
+        <v>93</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116" t="s">
+        <v>194</v>
+      </c>
+      <c r="P116" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q116">
+        <v>2.75</v>
+      </c>
+      <c r="R116">
+        <v>2.25</v>
+      </c>
+      <c r="S116">
+        <v>3.6</v>
+      </c>
+      <c r="T116">
+        <v>1.33</v>
+      </c>
+      <c r="U116">
+        <v>3.25</v>
+      </c>
+      <c r="V116">
+        <v>2.63</v>
+      </c>
+      <c r="W116">
+        <v>1.44</v>
+      </c>
+      <c r="X116">
+        <v>6.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.11</v>
+      </c>
+      <c r="Z116">
+        <v>2.17</v>
+      </c>
+      <c r="AA116">
+        <v>3.57</v>
+      </c>
+      <c r="AB116">
+        <v>3.28</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>9.9</v>
+      </c>
+      <c r="AE116">
+        <v>1.21</v>
+      </c>
+      <c r="AF116">
+        <v>3.75</v>
+      </c>
+      <c r="AG116">
+        <v>1.73</v>
+      </c>
+      <c r="AH116">
+        <v>2</v>
+      </c>
+      <c r="AI116">
+        <v>1.62</v>
+      </c>
+      <c r="AJ116">
+        <v>2.2</v>
+      </c>
+      <c r="AK116">
+        <v>1.36</v>
+      </c>
+      <c r="AL116">
+        <v>1.31</v>
+      </c>
+      <c r="AM116">
+        <v>1.66</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>0</v>
+      </c>
+      <c r="AP116">
+        <v>2.25</v>
+      </c>
+      <c r="AQ116">
+        <v>0</v>
+      </c>
+      <c r="AR116">
+        <v>1.54</v>
+      </c>
+      <c r="AS116">
+        <v>1.28</v>
+      </c>
+      <c r="AT116">
+        <v>2.82</v>
+      </c>
+      <c r="AU116">
+        <v>9</v>
+      </c>
+      <c r="AV116">
+        <v>7</v>
+      </c>
+      <c r="AW116">
+        <v>2</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>11</v>
+      </c>
+      <c r="AZ116">
+        <v>12</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>8</v>
+      </c>
+      <c r="BC116">
+        <v>8</v>
+      </c>
+      <c r="BD116">
+        <v>1.78</v>
+      </c>
+      <c r="BE116">
+        <v>7.5</v>
+      </c>
+      <c r="BF116">
+        <v>2.38</v>
+      </c>
+      <c r="BG116">
+        <v>1.29</v>
+      </c>
+      <c r="BH116">
+        <v>3</v>
+      </c>
+      <c r="BI116">
+        <v>1.54</v>
+      </c>
+      <c r="BJ116">
+        <v>2.25</v>
+      </c>
+      <c r="BK116">
+        <v>1.92</v>
+      </c>
+      <c r="BL116">
+        <v>1.77</v>
+      </c>
+      <c r="BM116">
+        <v>2.45</v>
+      </c>
+      <c r="BN116">
+        <v>1.45</v>
+      </c>
+      <c r="BO116">
+        <v>3.25</v>
+      </c>
+      <c r="BP116">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7295346</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45402.85416666666</v>
+      </c>
+      <c r="F117">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>96</v>
+      </c>
+      <c r="H117" t="s">
+        <v>82</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>160</v>
+      </c>
+      <c r="P117" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q117">
+        <v>2.75</v>
+      </c>
+      <c r="R117">
+        <v>2.3</v>
+      </c>
+      <c r="S117">
+        <v>3.5</v>
+      </c>
+      <c r="T117">
+        <v>1.33</v>
+      </c>
+      <c r="U117">
+        <v>3.25</v>
+      </c>
+      <c r="V117">
+        <v>2.5</v>
+      </c>
+      <c r="W117">
+        <v>1.5</v>
+      </c>
+      <c r="X117">
+        <v>6.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.11</v>
+      </c>
+      <c r="Z117">
+        <v>2.19</v>
+      </c>
+      <c r="AA117">
+        <v>3.59</v>
+      </c>
+      <c r="AB117">
+        <v>3.24</v>
+      </c>
+      <c r="AC117">
+        <v>1.04</v>
+      </c>
+      <c r="AD117">
+        <v>15.25</v>
+      </c>
+      <c r="AE117">
+        <v>1.22</v>
+      </c>
+      <c r="AF117">
+        <v>4.37</v>
+      </c>
+      <c r="AG117">
+        <v>1.67</v>
+      </c>
+      <c r="AH117">
+        <v>2.1</v>
+      </c>
+      <c r="AI117">
+        <v>1.57</v>
+      </c>
+      <c r="AJ117">
+        <v>2.25</v>
+      </c>
+      <c r="AK117">
+        <v>1.38</v>
+      </c>
+      <c r="AL117">
+        <v>1.3</v>
+      </c>
+      <c r="AM117">
+        <v>1.65</v>
+      </c>
+      <c r="AN117">
+        <v>2.5</v>
+      </c>
+      <c r="AO117">
+        <v>1.75</v>
+      </c>
+      <c r="AP117">
+        <v>2</v>
+      </c>
+      <c r="AQ117">
+        <v>2</v>
+      </c>
+      <c r="AR117">
+        <v>1.94</v>
+      </c>
+      <c r="AS117">
+        <v>1.5</v>
+      </c>
+      <c r="AT117">
+        <v>3.44</v>
+      </c>
+      <c r="AU117">
+        <v>5</v>
+      </c>
+      <c r="AV117">
+        <v>4</v>
+      </c>
+      <c r="AW117">
+        <v>7</v>
+      </c>
+      <c r="AX117">
+        <v>13</v>
+      </c>
+      <c r="AY117">
+        <v>12</v>
+      </c>
+      <c r="AZ117">
+        <v>17</v>
+      </c>
+      <c r="BA117">
+        <v>9</v>
+      </c>
+      <c r="BB117">
+        <v>4</v>
+      </c>
+      <c r="BC117">
+        <v>13</v>
+      </c>
+      <c r="BD117">
+        <v>1.78</v>
+      </c>
+      <c r="BE117">
+        <v>7.5</v>
+      </c>
+      <c r="BF117">
+        <v>2.35</v>
+      </c>
+      <c r="BG117">
+        <v>1.28</v>
+      </c>
+      <c r="BH117">
+        <v>3.1</v>
+      </c>
+      <c r="BI117">
+        <v>1.54</v>
+      </c>
+      <c r="BJ117">
+        <v>2.25</v>
+      </c>
+      <c r="BK117">
+        <v>1.91</v>
+      </c>
+      <c r="BL117">
+        <v>1.78</v>
+      </c>
+      <c r="BM117">
+        <v>2.4</v>
+      </c>
+      <c r="BN117">
+        <v>1.46</v>
+      </c>
+      <c r="BO117">
+        <v>3.2</v>
+      </c>
+      <c r="BP117">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7295351</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45402.85416666666</v>
+      </c>
+      <c r="F118">
+        <v>9</v>
+      </c>
+      <c r="G118" t="s">
+        <v>94</v>
+      </c>
+      <c r="H118" t="s">
+        <v>74</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>195</v>
+      </c>
+      <c r="P118" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q118">
+        <v>2.75</v>
+      </c>
+      <c r="R118">
+        <v>2.25</v>
+      </c>
+      <c r="S118">
+        <v>3.6</v>
+      </c>
+      <c r="T118">
+        <v>1.33</v>
+      </c>
+      <c r="U118">
+        <v>3.25</v>
+      </c>
+      <c r="V118">
+        <v>2.63</v>
+      </c>
+      <c r="W118">
+        <v>1.44</v>
+      </c>
+      <c r="X118">
+        <v>6.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.11</v>
+      </c>
+      <c r="Z118">
+        <v>2.07</v>
+      </c>
+      <c r="AA118">
+        <v>3.7</v>
+      </c>
+      <c r="AB118">
+        <v>3.44</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
+        <v>2.06</v>
+      </c>
+      <c r="AE118">
+        <v>1.24</v>
+      </c>
+      <c r="AF118">
+        <v>4.1</v>
+      </c>
+      <c r="AG118">
+        <v>1.89</v>
+      </c>
+      <c r="AH118">
+        <v>1.96</v>
+      </c>
+      <c r="AI118">
+        <v>1.62</v>
+      </c>
+      <c r="AJ118">
+        <v>2.2</v>
+      </c>
+      <c r="AK118">
+        <v>1.38</v>
+      </c>
+      <c r="AL118">
+        <v>1.3</v>
+      </c>
+      <c r="AM118">
+        <v>1.65</v>
+      </c>
+      <c r="AN118">
+        <v>1.75</v>
+      </c>
+      <c r="AO118">
+        <v>1</v>
+      </c>
+      <c r="AP118">
+        <v>2</v>
+      </c>
+      <c r="AQ118">
+        <v>0.8</v>
+      </c>
+      <c r="AR118">
+        <v>1.77</v>
+      </c>
+      <c r="AS118">
+        <v>1.34</v>
+      </c>
+      <c r="AT118">
+        <v>3.11</v>
+      </c>
+      <c r="AU118">
+        <v>9</v>
+      </c>
+      <c r="AV118">
+        <v>2</v>
+      </c>
+      <c r="AW118">
+        <v>6</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>15</v>
+      </c>
+      <c r="AZ118">
+        <v>9</v>
+      </c>
+      <c r="BA118">
+        <v>7</v>
+      </c>
+      <c r="BB118">
+        <v>4</v>
+      </c>
+      <c r="BC118">
+        <v>11</v>
+      </c>
+      <c r="BD118">
+        <v>1.79</v>
+      </c>
+      <c r="BE118">
+        <v>7.5</v>
+      </c>
+      <c r="BF118">
+        <v>2.35</v>
+      </c>
+      <c r="BG118">
+        <v>1.3</v>
+      </c>
+      <c r="BH118">
+        <v>3</v>
+      </c>
+      <c r="BI118">
+        <v>1.55</v>
+      </c>
+      <c r="BJ118">
+        <v>2.23</v>
+      </c>
+      <c r="BK118">
+        <v>1.94</v>
+      </c>
+      <c r="BL118">
+        <v>1.75</v>
+      </c>
+      <c r="BM118">
+        <v>2.45</v>
+      </c>
+      <c r="BN118">
+        <v>1.45</v>
+      </c>
+      <c r="BO118">
+        <v>3.25</v>
+      </c>
+      <c r="BP118">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7295353</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45402.89583333334</v>
+      </c>
+      <c r="F119">
+        <v>9</v>
+      </c>
+      <c r="G119" t="s">
+        <v>88</v>
+      </c>
+      <c r="H119" t="s">
+        <v>86</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>3</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>4</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>104</v>
+      </c>
+      <c r="P119" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q119">
+        <v>2.88</v>
+      </c>
+      <c r="R119">
+        <v>2.25</v>
+      </c>
+      <c r="S119">
+        <v>3.5</v>
+      </c>
+      <c r="T119">
+        <v>1.33</v>
+      </c>
+      <c r="U119">
+        <v>3.25</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>6.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.11</v>
+      </c>
+      <c r="Z119">
+        <v>2.27</v>
+      </c>
+      <c r="AA119">
+        <v>3.53</v>
+      </c>
+      <c r="AB119">
+        <v>3.12</v>
+      </c>
+      <c r="AC119">
+        <v>1.04</v>
+      </c>
+      <c r="AD119">
+        <v>13</v>
+      </c>
+      <c r="AE119">
+        <v>1.25</v>
+      </c>
+      <c r="AF119">
+        <v>4</v>
+      </c>
+      <c r="AG119">
+        <v>1.72</v>
+      </c>
+      <c r="AH119">
+        <v>1.9</v>
+      </c>
+      <c r="AI119">
+        <v>1.62</v>
+      </c>
+      <c r="AJ119">
+        <v>2.2</v>
+      </c>
+      <c r="AK119">
+        <v>1.4</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.65</v>
+      </c>
+      <c r="AN119">
+        <v>2</v>
+      </c>
+      <c r="AO119">
+        <v>1.25</v>
+      </c>
+      <c r="AP119">
+        <v>1.5</v>
+      </c>
+      <c r="AQ119">
+        <v>1.6</v>
+      </c>
+      <c r="AR119">
+        <v>1.52</v>
+      </c>
+      <c r="AS119">
+        <v>1.49</v>
+      </c>
+      <c r="AT119">
+        <v>3.01</v>
+      </c>
+      <c r="AU119">
+        <v>6</v>
+      </c>
+      <c r="AV119">
+        <v>10</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>6</v>
+      </c>
+      <c r="AY119">
+        <v>10</v>
+      </c>
+      <c r="AZ119">
+        <v>16</v>
+      </c>
+      <c r="BA119">
+        <v>5</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>10</v>
+      </c>
+      <c r="BD119">
+        <v>1.79</v>
+      </c>
+      <c r="BE119">
+        <v>7.5</v>
+      </c>
+      <c r="BF119">
+        <v>2.35</v>
+      </c>
+      <c r="BG119">
+        <v>1.28</v>
+      </c>
+      <c r="BH119">
+        <v>3.05</v>
+      </c>
+      <c r="BI119">
+        <v>1.53</v>
+      </c>
+      <c r="BJ119">
+        <v>2.25</v>
+      </c>
+      <c r="BK119">
+        <v>1.91</v>
+      </c>
+      <c r="BL119">
+        <v>1.78</v>
+      </c>
+      <c r="BM119">
+        <v>2.43</v>
+      </c>
+      <c r="BN119">
+        <v>1.45</v>
+      </c>
+      <c r="BO119">
+        <v>3.2</v>
+      </c>
+      <c r="BP119">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7295354</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45402.89583333334</v>
+      </c>
+      <c r="F120">
+        <v>9</v>
+      </c>
+      <c r="G120" t="s">
+        <v>79</v>
+      </c>
+      <c r="H120" t="s">
+        <v>77</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>104</v>
+      </c>
+      <c r="P120" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q120">
+        <v>2.3</v>
+      </c>
+      <c r="R120">
+        <v>2.3</v>
+      </c>
+      <c r="S120">
+        <v>5</v>
+      </c>
+      <c r="T120">
+        <v>1.36</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
+        <v>2.63</v>
+      </c>
+      <c r="W120">
+        <v>1.44</v>
+      </c>
+      <c r="X120">
+        <v>7</v>
+      </c>
+      <c r="Y120">
+        <v>1.1</v>
+      </c>
+      <c r="Z120">
+        <v>1.76</v>
+      </c>
+      <c r="AA120">
+        <v>3.79</v>
+      </c>
+      <c r="AB120">
+        <v>4.6</v>
+      </c>
+      <c r="AC120">
+        <v>1.03</v>
+      </c>
+      <c r="AD120">
+        <v>13</v>
+      </c>
+      <c r="AE120">
+        <v>1.26</v>
+      </c>
+      <c r="AF120">
+        <v>4</v>
+      </c>
+      <c r="AG120">
+        <v>1.92</v>
+      </c>
+      <c r="AH120">
+        <v>1.93</v>
+      </c>
+      <c r="AI120">
+        <v>1.8</v>
+      </c>
+      <c r="AJ120">
+        <v>1.95</v>
+      </c>
+      <c r="AK120">
+        <v>1.2</v>
+      </c>
+      <c r="AL120">
+        <v>1.2</v>
+      </c>
+      <c r="AM120">
+        <v>2.15</v>
+      </c>
+      <c r="AN120">
+        <v>1.75</v>
+      </c>
+      <c r="AO120">
+        <v>0.33</v>
+      </c>
+      <c r="AP120">
+        <v>1.4</v>
+      </c>
+      <c r="AQ120">
+        <v>1</v>
+      </c>
+      <c r="AR120">
+        <v>1.68</v>
+      </c>
+      <c r="AS120">
+        <v>0.59</v>
+      </c>
+      <c r="AT120">
+        <v>2.27</v>
+      </c>
+      <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>5</v>
+      </c>
+      <c r="AW120">
+        <v>6</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>13</v>
+      </c>
+      <c r="AZ120">
+        <v>8</v>
+      </c>
+      <c r="BA120">
+        <v>2</v>
+      </c>
+      <c r="BB120">
+        <v>1</v>
+      </c>
+      <c r="BC120">
+        <v>3</v>
+      </c>
+      <c r="BD120">
+        <v>1.52</v>
+      </c>
+      <c r="BE120">
+        <v>8</v>
+      </c>
+      <c r="BF120">
+        <v>3.05</v>
+      </c>
+      <c r="BG120">
+        <v>1.3</v>
+      </c>
+      <c r="BH120">
+        <v>2.95</v>
+      </c>
+      <c r="BI120">
+        <v>1.55</v>
+      </c>
+      <c r="BJ120">
+        <v>2.23</v>
+      </c>
+      <c r="BK120">
+        <v>1.94</v>
+      </c>
+      <c r="BL120">
+        <v>1.75</v>
+      </c>
+      <c r="BM120">
+        <v>2.48</v>
+      </c>
+      <c r="BN120">
+        <v>1.44</v>
+      </c>
+      <c r="BO120">
+        <v>3.3</v>
+      </c>
+      <c r="BP120">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7295355</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45402.89583333334</v>
+      </c>
+      <c r="F121">
+        <v>9</v>
+      </c>
+      <c r="G121" t="s">
+        <v>89</v>
+      </c>
+      <c r="H121" t="s">
+        <v>80</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
+        <v>6</v>
+      </c>
+      <c r="O121" t="s">
+        <v>196</v>
+      </c>
+      <c r="P121" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q121">
+        <v>2.3</v>
+      </c>
+      <c r="R121">
+        <v>2.38</v>
+      </c>
+      <c r="S121">
+        <v>4.33</v>
+      </c>
+      <c r="T121">
+        <v>1.3</v>
+      </c>
+      <c r="U121">
+        <v>3.4</v>
+      </c>
+      <c r="V121">
+        <v>2.5</v>
+      </c>
+      <c r="W121">
+        <v>1.5</v>
+      </c>
+      <c r="X121">
+        <v>6</v>
+      </c>
+      <c r="Y121">
+        <v>1.13</v>
+      </c>
+      <c r="Z121">
+        <v>1.77</v>
+      </c>
+      <c r="AA121">
+        <v>4.03</v>
+      </c>
+      <c r="AB121">
+        <v>4.28</v>
+      </c>
+      <c r="AC121">
+        <v>1.03</v>
+      </c>
+      <c r="AD121">
+        <v>15</v>
+      </c>
+      <c r="AE121">
+        <v>1.22</v>
+      </c>
+      <c r="AF121">
+        <v>4.33</v>
+      </c>
+      <c r="AG121">
+        <v>1.57</v>
+      </c>
+      <c r="AH121">
+        <v>2.25</v>
+      </c>
+      <c r="AI121">
+        <v>1.62</v>
+      </c>
+      <c r="AJ121">
+        <v>2.2</v>
+      </c>
+      <c r="AK121">
+        <v>1.22</v>
+      </c>
+      <c r="AL121">
+        <v>1.25</v>
+      </c>
+      <c r="AM121">
+        <v>2.05</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
+        <v>0.67</v>
+      </c>
+      <c r="AP121">
+        <v>1</v>
+      </c>
+      <c r="AQ121">
+        <v>0.75</v>
+      </c>
+      <c r="AR121">
+        <v>1.55</v>
+      </c>
+      <c r="AS121">
+        <v>1.54</v>
+      </c>
+      <c r="AT121">
+        <v>3.09</v>
+      </c>
+      <c r="AU121">
+        <v>5</v>
+      </c>
+      <c r="AV121">
+        <v>8</v>
+      </c>
+      <c r="AW121">
+        <v>2</v>
+      </c>
+      <c r="AX121">
+        <v>8</v>
+      </c>
+      <c r="AY121">
+        <v>7</v>
+      </c>
+      <c r="AZ121">
+        <v>16</v>
+      </c>
+      <c r="BA121">
+        <v>2</v>
+      </c>
+      <c r="BB121">
+        <v>6</v>
+      </c>
+      <c r="BC121">
+        <v>8</v>
+      </c>
+      <c r="BD121">
+        <v>1.57</v>
+      </c>
+      <c r="BE121">
+        <v>8</v>
+      </c>
+      <c r="BF121">
+        <v>2.9</v>
+      </c>
+      <c r="BG121">
+        <v>1.27</v>
+      </c>
+      <c r="BH121">
+        <v>3.15</v>
+      </c>
+      <c r="BI121">
+        <v>1.5</v>
+      </c>
+      <c r="BJ121">
+        <v>2.33</v>
+      </c>
+      <c r="BK121">
+        <v>1.87</v>
+      </c>
+      <c r="BL121">
+        <v>1.82</v>
+      </c>
+      <c r="BM121">
+        <v>2.35</v>
+      </c>
+      <c r="BN121">
+        <v>1.49</v>
+      </c>
+      <c r="BO121">
+        <v>3.1</v>
+      </c>
+      <c r="BP121">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7295356</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45402.9375</v>
+      </c>
+      <c r="F122">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>90</v>
+      </c>
+      <c r="H122" t="s">
+        <v>78</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>197</v>
+      </c>
+      <c r="P122" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q122">
+        <v>2.5</v>
+      </c>
+      <c r="R122">
+        <v>2.2</v>
+      </c>
+      <c r="S122">
+        <v>4.75</v>
+      </c>
+      <c r="T122">
+        <v>1.4</v>
+      </c>
+      <c r="U122">
+        <v>2.75</v>
+      </c>
+      <c r="V122">
+        <v>3</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>8</v>
+      </c>
+      <c r="Y122">
+        <v>1.08</v>
+      </c>
+      <c r="Z122">
+        <v>1.79</v>
+      </c>
+      <c r="AA122">
+        <v>3.69</v>
+      </c>
+      <c r="AB122">
+        <v>4.55</v>
+      </c>
+      <c r="AC122">
+        <v>1.03</v>
+      </c>
+      <c r="AD122">
+        <v>9</v>
+      </c>
+      <c r="AE122">
+        <v>1.3</v>
+      </c>
+      <c r="AF122">
+        <v>3.2</v>
+      </c>
+      <c r="AG122">
+        <v>2.02</v>
+      </c>
+      <c r="AH122">
+        <v>1.84</v>
+      </c>
+      <c r="AI122">
+        <v>1.8</v>
+      </c>
+      <c r="AJ122">
+        <v>1.95</v>
+      </c>
+      <c r="AK122">
+        <v>1.24</v>
+      </c>
+      <c r="AL122">
+        <v>1.3</v>
+      </c>
+      <c r="AM122">
+        <v>1.9</v>
+      </c>
+      <c r="AN122">
+        <v>1.33</v>
+      </c>
+      <c r="AO122">
+        <v>0.33</v>
+      </c>
+      <c r="AP122">
+        <v>1.75</v>
+      </c>
+      <c r="AQ122">
+        <v>0.25</v>
+      </c>
+      <c r="AR122">
+        <v>1.34</v>
+      </c>
+      <c r="AS122">
+        <v>1.06</v>
+      </c>
+      <c r="AT122">
+        <v>2.4</v>
+      </c>
+      <c r="AU122">
+        <v>5</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>4</v>
+      </c>
+      <c r="AX122">
+        <v>5</v>
+      </c>
+      <c r="AY122">
+        <v>9</v>
+      </c>
+      <c r="AZ122">
+        <v>9</v>
+      </c>
+      <c r="BA122">
+        <v>3</v>
+      </c>
+      <c r="BB122">
+        <v>8</v>
+      </c>
+      <c r="BC122">
+        <v>11</v>
+      </c>
+      <c r="BD122">
+        <v>1.58</v>
+      </c>
+      <c r="BE122">
+        <v>7.5</v>
+      </c>
+      <c r="BF122">
+        <v>2.8</v>
+      </c>
+      <c r="BG122">
+        <v>1.34</v>
+      </c>
+      <c r="BH122">
+        <v>2.8</v>
+      </c>
+      <c r="BI122">
+        <v>1.62</v>
+      </c>
+      <c r="BJ122">
+        <v>2.1</v>
+      </c>
+      <c r="BK122">
+        <v>2.02</v>
+      </c>
+      <c r="BL122">
+        <v>1.68</v>
+      </c>
+      <c r="BM122">
+        <v>2.6</v>
+      </c>
+      <c r="BN122">
+        <v>1.4</v>
+      </c>
+      <c r="BO122">
+        <v>3.5</v>
+      </c>
+      <c r="BP122">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7295357</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45402.97916666666</v>
+      </c>
+      <c r="F123">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s">
+        <v>72</v>
+      </c>
+      <c r="H123" t="s">
+        <v>97</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123" t="s">
+        <v>198</v>
+      </c>
+      <c r="P123" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q123">
+        <v>2.5</v>
+      </c>
+      <c r="R123">
+        <v>2.2</v>
+      </c>
+      <c r="S123">
+        <v>4.5</v>
+      </c>
+      <c r="T123">
+        <v>1.4</v>
+      </c>
+      <c r="U123">
+        <v>2.75</v>
+      </c>
+      <c r="V123">
+        <v>2.75</v>
+      </c>
+      <c r="W123">
+        <v>1.4</v>
+      </c>
+      <c r="X123">
+        <v>8</v>
+      </c>
+      <c r="Y123">
+        <v>1.08</v>
+      </c>
+      <c r="Z123">
+        <v>1.8</v>
+      </c>
+      <c r="AA123">
+        <v>3.7</v>
+      </c>
+      <c r="AB123">
+        <v>4.5</v>
+      </c>
+      <c r="AC123">
+        <v>1.03</v>
+      </c>
+      <c r="AD123">
+        <v>9</v>
+      </c>
+      <c r="AE123">
+        <v>1.29</v>
+      </c>
+      <c r="AF123">
+        <v>3.3</v>
+      </c>
+      <c r="AG123">
+        <v>1.97</v>
+      </c>
+      <c r="AH123">
+        <v>1.88</v>
+      </c>
+      <c r="AI123">
+        <v>1.8</v>
+      </c>
+      <c r="AJ123">
+        <v>1.95</v>
+      </c>
+      <c r="AK123">
+        <v>1.22</v>
+      </c>
+      <c r="AL123">
+        <v>1.3</v>
+      </c>
+      <c r="AM123">
+        <v>1.95</v>
+      </c>
+      <c r="AN123">
+        <v>2.5</v>
+      </c>
+      <c r="AO123">
+        <v>1.6</v>
+      </c>
+      <c r="AP123">
+        <v>2.2</v>
+      </c>
+      <c r="AQ123">
+        <v>1.5</v>
+      </c>
+      <c r="AR123">
+        <v>2.06</v>
+      </c>
+      <c r="AS123">
+        <v>1.22</v>
+      </c>
+      <c r="AT123">
+        <v>3.28</v>
+      </c>
+      <c r="AU123">
+        <v>7</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>2</v>
+      </c>
+      <c r="AY123">
+        <v>13</v>
+      </c>
+      <c r="AZ123">
+        <v>5</v>
+      </c>
+      <c r="BA123">
+        <v>9</v>
+      </c>
+      <c r="BB123">
+        <v>5</v>
+      </c>
+      <c r="BC123">
+        <v>14</v>
+      </c>
+      <c r="BD123">
+        <v>1.58</v>
+      </c>
+      <c r="BE123">
+        <v>7.5</v>
+      </c>
+      <c r="BF123">
+        <v>2.8</v>
+      </c>
+      <c r="BG123">
+        <v>1.33</v>
+      </c>
+      <c r="BH123">
+        <v>2.85</v>
+      </c>
+      <c r="BI123">
+        <v>1.6</v>
+      </c>
+      <c r="BJ123">
+        <v>2.14</v>
+      </c>
+      <c r="BK123">
+        <v>2</v>
+      </c>
+      <c r="BL123">
+        <v>1.7</v>
+      </c>
+      <c r="BM123">
+        <v>2.55</v>
+      </c>
+      <c r="BN123">
+        <v>1.41</v>
+      </c>
+      <c r="BO123">
+        <v>3.45</v>
+      </c>
+      <c r="BP123">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7295358</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45402.97916666666</v>
+      </c>
+      <c r="F124">
+        <v>9</v>
+      </c>
+      <c r="G124" t="s">
+        <v>92</v>
+      </c>
+      <c r="H124" t="s">
+        <v>87</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>104</v>
+      </c>
+      <c r="P124" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q124">
+        <v>2.6</v>
+      </c>
+      <c r="R124">
+        <v>2.2</v>
+      </c>
+      <c r="S124">
+        <v>4</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>7</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>2.04</v>
+      </c>
+      <c r="AA124">
+        <v>3.51</v>
+      </c>
+      <c r="AB124">
+        <v>3.69</v>
+      </c>
+      <c r="AC124">
+        <v>1.04</v>
+      </c>
+      <c r="AD124">
+        <v>12</v>
+      </c>
+      <c r="AE124">
+        <v>1.3</v>
+      </c>
+      <c r="AF124">
+        <v>3.6</v>
+      </c>
+      <c r="AG124">
+        <v>1.95</v>
+      </c>
+      <c r="AH124">
+        <v>1.9</v>
+      </c>
+      <c r="AI124">
+        <v>1.75</v>
+      </c>
+      <c r="AJ124">
+        <v>2</v>
+      </c>
+      <c r="AK124">
+        <v>1.28</v>
+      </c>
+      <c r="AL124">
+        <v>1.24</v>
+      </c>
+      <c r="AM124">
+        <v>1.88</v>
+      </c>
+      <c r="AN124">
+        <v>1.67</v>
+      </c>
+      <c r="AO124">
+        <v>3</v>
+      </c>
+      <c r="AP124">
+        <v>1.25</v>
+      </c>
+      <c r="AQ124">
+        <v>3</v>
+      </c>
+      <c r="AR124">
+        <v>1.78</v>
+      </c>
+      <c r="AS124">
+        <v>0.95</v>
+      </c>
+      <c r="AT124">
+        <v>2.73</v>
+      </c>
+      <c r="AU124">
+        <v>2</v>
+      </c>
+      <c r="AV124">
+        <v>5</v>
+      </c>
+      <c r="AW124">
+        <v>5</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>7</v>
+      </c>
+      <c r="AZ124">
+        <v>8</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>3</v>
+      </c>
+      <c r="BC124">
+        <v>9</v>
+      </c>
+      <c r="BD124">
+        <v>1.63</v>
+      </c>
+      <c r="BE124">
+        <v>7.5</v>
+      </c>
+      <c r="BF124">
+        <v>2.7</v>
+      </c>
+      <c r="BG124">
+        <v>1.3</v>
+      </c>
+      <c r="BH124">
+        <v>2.9</v>
+      </c>
+      <c r="BI124">
+        <v>1.57</v>
+      </c>
+      <c r="BJ124">
+        <v>2.18</v>
+      </c>
+      <c r="BK124">
+        <v>1.97</v>
+      </c>
+      <c r="BL124">
+        <v>1.73</v>
+      </c>
+      <c r="BM124">
+        <v>2.5</v>
+      </c>
+      <c r="BN124">
+        <v>1.43</v>
+      </c>
+      <c r="BO124">
+        <v>3.4</v>
+      </c>
+      <c r="BP124">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,9 @@
     <t>['67', '90+5']</t>
   </si>
   <si>
+    <t>['14', '24', '30', '56']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -824,6 +827,12 @@
   </si>
   <si>
     <t>['58', '71']</t>
+  </si>
+  <si>
+    <t>['31', '49', '53']</t>
+  </si>
+  <si>
+    <t>['32', '58', '72']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1856,7 +1865,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2140,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0.25</v>
@@ -2268,7 +2277,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2680,7 +2689,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2886,7 +2895,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2967,7 +2976,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3092,7 +3101,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3298,7 +3307,7 @@
         <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3504,7 +3513,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3710,7 +3719,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4328,7 +4337,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4406,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -5152,7 +5161,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5358,7 +5367,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5564,7 +5573,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5770,7 +5779,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6388,7 +6397,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6594,7 +6603,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6800,7 +6809,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7418,7 +7427,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7830,7 +7839,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8036,7 +8045,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8448,7 +8457,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8529,7 +8538,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR36">
         <v>1.61</v>
@@ -8654,7 +8663,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8860,7 +8869,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9272,7 +9281,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9478,7 +9487,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9890,7 +9899,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10096,7 +10105,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10302,7 +10311,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11126,7 +11135,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11332,7 +11341,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -12362,7 +12371,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12440,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -12568,7 +12577,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12980,7 +12989,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13392,7 +13401,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13676,7 +13685,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>0.75</v>
@@ -14422,7 +14431,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14628,7 +14637,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14834,7 +14843,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15040,7 +15049,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15452,7 +15461,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15739,7 +15748,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR71">
         <v>1.95</v>
@@ -15864,7 +15873,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16070,7 +16079,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16148,7 +16157,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>2</v>
@@ -16482,7 +16491,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16688,7 +16697,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16894,7 +16903,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17100,7 +17109,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17306,7 +17315,7 @@
         <v>165</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17512,7 +17521,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17924,7 +17933,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18208,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>0.25</v>
@@ -18748,7 +18757,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18954,7 +18963,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19160,7 +19169,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19572,7 +19581,7 @@
         <v>175</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19778,7 +19787,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19984,7 +19993,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20190,7 +20199,7 @@
         <v>178</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20396,7 +20405,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20602,7 +20611,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21220,7 +21229,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21426,7 +21435,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22044,7 +22053,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22250,7 +22259,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22328,7 +22337,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>0.8</v>
@@ -22456,7 +22465,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22868,7 +22877,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23074,7 +23083,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23486,7 +23495,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23692,7 +23701,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23898,7 +23907,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24310,7 +24319,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24516,7 +24525,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24722,7 +24731,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25134,7 +25143,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25546,7 +25555,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -25958,7 +25967,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26370,7 +26379,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26576,7 +26585,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26733,6 +26742,418 @@
       </c>
       <c r="BP124">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7295347</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45403.79166666666</v>
+      </c>
+      <c r="F125">
+        <v>9</v>
+      </c>
+      <c r="G125" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" t="s">
+        <v>85</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>104</v>
+      </c>
+      <c r="P125" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q125">
+        <v>2.6</v>
+      </c>
+      <c r="R125">
+        <v>2.25</v>
+      </c>
+      <c r="S125">
+        <v>4</v>
+      </c>
+      <c r="T125">
+        <v>1.36</v>
+      </c>
+      <c r="U125">
+        <v>3</v>
+      </c>
+      <c r="V125">
+        <v>2.63</v>
+      </c>
+      <c r="W125">
+        <v>1.44</v>
+      </c>
+      <c r="X125">
+        <v>7</v>
+      </c>
+      <c r="Y125">
+        <v>1.1</v>
+      </c>
+      <c r="Z125">
+        <v>2.1</v>
+      </c>
+      <c r="AA125">
+        <v>3.6</v>
+      </c>
+      <c r="AB125">
+        <v>3.3</v>
+      </c>
+      <c r="AC125">
+        <v>1.04</v>
+      </c>
+      <c r="AD125">
+        <v>8.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.2</v>
+      </c>
+      <c r="AF125">
+        <v>3.9</v>
+      </c>
+      <c r="AG125">
+        <v>1.7</v>
+      </c>
+      <c r="AH125">
+        <v>2.1</v>
+      </c>
+      <c r="AI125">
+        <v>1.67</v>
+      </c>
+      <c r="AJ125">
+        <v>2.1</v>
+      </c>
+      <c r="AK125">
+        <v>1.3</v>
+      </c>
+      <c r="AL125">
+        <v>1.25</v>
+      </c>
+      <c r="AM125">
+        <v>1.83</v>
+      </c>
+      <c r="AN125">
+        <v>2.5</v>
+      </c>
+      <c r="AO125">
+        <v>2</v>
+      </c>
+      <c r="AP125">
+        <v>2</v>
+      </c>
+      <c r="AQ125">
+        <v>2.25</v>
+      </c>
+      <c r="AR125">
+        <v>1.42</v>
+      </c>
+      <c r="AS125">
+        <v>1.55</v>
+      </c>
+      <c r="AT125">
+        <v>2.97</v>
+      </c>
+      <c r="AU125">
+        <v>2</v>
+      </c>
+      <c r="AV125">
+        <v>6</v>
+      </c>
+      <c r="AW125">
+        <v>4</v>
+      </c>
+      <c r="AX125">
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>6</v>
+      </c>
+      <c r="AZ125">
+        <v>10</v>
+      </c>
+      <c r="BA125">
+        <v>11</v>
+      </c>
+      <c r="BB125">
+        <v>5</v>
+      </c>
+      <c r="BC125">
+        <v>16</v>
+      </c>
+      <c r="BD125">
+        <v>1.68</v>
+      </c>
+      <c r="BE125">
+        <v>8</v>
+      </c>
+      <c r="BF125">
+        <v>2.5</v>
+      </c>
+      <c r="BG125">
+        <v>1.2</v>
+      </c>
+      <c r="BH125">
+        <v>3.65</v>
+      </c>
+      <c r="BI125">
+        <v>1.38</v>
+      </c>
+      <c r="BJ125">
+        <v>2.63</v>
+      </c>
+      <c r="BK125">
+        <v>1.68</v>
+      </c>
+      <c r="BL125">
+        <v>2.02</v>
+      </c>
+      <c r="BM125">
+        <v>2.1</v>
+      </c>
+      <c r="BN125">
+        <v>1.63</v>
+      </c>
+      <c r="BO125">
+        <v>2.7</v>
+      </c>
+      <c r="BP125">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7295359</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45403.88541666666</v>
+      </c>
+      <c r="F126">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>84</v>
+      </c>
+      <c r="H126" t="s">
+        <v>91</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>4</v>
+      </c>
+      <c r="L126">
+        <v>4</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>7</v>
+      </c>
+      <c r="O126" t="s">
+        <v>199</v>
+      </c>
+      <c r="P126" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q126">
+        <v>2.05</v>
+      </c>
+      <c r="R126">
+        <v>2.6</v>
+      </c>
+      <c r="S126">
+        <v>4.75</v>
+      </c>
+      <c r="T126">
+        <v>1.22</v>
+      </c>
+      <c r="U126">
+        <v>4</v>
+      </c>
+      <c r="V126">
+        <v>2.1</v>
+      </c>
+      <c r="W126">
+        <v>1.67</v>
+      </c>
+      <c r="X126">
+        <v>4.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.18</v>
+      </c>
+      <c r="Z126">
+        <v>1.45</v>
+      </c>
+      <c r="AA126">
+        <v>4.8</v>
+      </c>
+      <c r="AB126">
+        <v>6</v>
+      </c>
+      <c r="AC126">
+        <v>1.03</v>
+      </c>
+      <c r="AD126">
+        <v>2.72</v>
+      </c>
+      <c r="AE126">
+        <v>1.1</v>
+      </c>
+      <c r="AF126">
+        <v>5.35</v>
+      </c>
+      <c r="AG126">
+        <v>1.55</v>
+      </c>
+      <c r="AH126">
+        <v>2.3</v>
+      </c>
+      <c r="AI126">
+        <v>1.53</v>
+      </c>
+      <c r="AJ126">
+        <v>2.38</v>
+      </c>
+      <c r="AK126">
+        <v>1.18</v>
+      </c>
+      <c r="AL126">
+        <v>1.21</v>
+      </c>
+      <c r="AM126">
+        <v>2.36</v>
+      </c>
+      <c r="AN126">
+        <v>1.67</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AP126">
+        <v>2</v>
+      </c>
+      <c r="AQ126">
+        <v>0</v>
+      </c>
+      <c r="AR126">
+        <v>1.66</v>
+      </c>
+      <c r="AS126">
+        <v>1.33</v>
+      </c>
+      <c r="AT126">
+        <v>2.99</v>
+      </c>
+      <c r="AU126">
+        <v>9</v>
+      </c>
+      <c r="AV126">
+        <v>8</v>
+      </c>
+      <c r="AW126">
+        <v>2</v>
+      </c>
+      <c r="AX126">
+        <v>5</v>
+      </c>
+      <c r="AY126">
+        <v>11</v>
+      </c>
+      <c r="AZ126">
+        <v>13</v>
+      </c>
+      <c r="BA126">
+        <v>3</v>
+      </c>
+      <c r="BB126">
+        <v>5</v>
+      </c>
+      <c r="BC126">
+        <v>8</v>
+      </c>
+      <c r="BD126">
+        <v>1.45</v>
+      </c>
+      <c r="BE126">
+        <v>9</v>
+      </c>
+      <c r="BF126">
+        <v>3.3</v>
+      </c>
+      <c r="BG126">
+        <v>1.24</v>
+      </c>
+      <c r="BH126">
+        <v>3.35</v>
+      </c>
+      <c r="BI126">
+        <v>1.29</v>
+      </c>
+      <c r="BJ126">
+        <v>3.05</v>
+      </c>
+      <c r="BK126">
+        <v>1.52</v>
+      </c>
+      <c r="BL126">
+        <v>2.3</v>
+      </c>
+      <c r="BM126">
+        <v>1.87</v>
+      </c>
+      <c r="BN126">
+        <v>1.82</v>
+      </c>
+      <c r="BO126">
+        <v>2.32</v>
+      </c>
+      <c r="BP126">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,36 @@
     <t>['14', '24', '30', '56']</t>
   </si>
   <si>
+    <t>['7', '19']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['41', '90+3']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['32', '44']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['2', '25']</t>
+  </si>
+  <si>
+    <t>['55', '80']</t>
+  </si>
+  <si>
+    <t>['44', '45+4', '90+2']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -745,9 +775,6 @@
     <t>['51']</t>
   </si>
   <si>
-    <t>['1']</t>
-  </si>
-  <si>
     <t>['16', '79']</t>
   </si>
   <si>
@@ -833,6 +860,24 @@
   </si>
   <si>
     <t>['32', '58', '72']</t>
+  </si>
+  <si>
+    <t>['87', '90']</t>
+  </si>
+  <si>
+    <t>['34', '89']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['32', '67', '83', '88']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['65', '73']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1579,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ2">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1737,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1865,7 +1910,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1943,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2277,7 +2322,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2355,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2561,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2689,7 +2734,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2767,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>0.6</v>
@@ -2895,7 +2940,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2973,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ9">
         <v>2.25</v>
@@ -3101,7 +3146,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3179,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3307,7 +3352,7 @@
         <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3388,7 +3433,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3513,7 +3558,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3594,7 +3639,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ12">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3719,7 +3764,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3800,7 +3845,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4003,10 +4048,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4209,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4337,7 +4382,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4418,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4621,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>0.75</v>
@@ -5161,7 +5206,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5242,7 +5287,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5367,7 +5412,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5445,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5573,7 +5618,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5651,10 +5696,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -5779,7 +5824,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6397,7 +6442,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6603,7 +6648,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6809,7 +6854,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6890,7 +6935,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7299,10 +7344,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7427,7 +7472,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7505,10 +7550,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7714,7 +7759,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ32">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7839,7 +7884,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8045,7 +8090,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8123,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.6</v>
@@ -8329,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>0.25</v>
@@ -8457,7 +8502,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8535,7 +8580,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>2.25</v>
@@ -8663,7 +8708,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8741,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
         <v>0.75</v>
@@ -8869,7 +8914,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8950,7 +8995,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9153,10 +9198,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9281,7 +9326,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9362,7 +9407,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9487,7 +9532,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9565,10 +9610,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
         <v>0.83</v>
@@ -9771,7 +9816,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42">
         <v>0.8</v>
@@ -9899,7 +9944,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -9980,7 +10025,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10105,7 +10150,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10183,10 +10228,10 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR44">
         <v>0.84</v>
@@ -10311,7 +10356,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10389,10 +10434,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.94</v>
@@ -10598,7 +10643,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -10801,7 +10846,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -11007,10 +11052,10 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ48">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.35</v>
@@ -11135,7 +11180,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11213,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ49">
         <v>1.8</v>
@@ -11341,7 +11386,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11419,10 +11464,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR50">
         <v>1.92</v>
@@ -11628,7 +11673,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -11834,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR52">
         <v>1.83</v>
@@ -12037,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53">
         <v>0.25</v>
@@ -12243,10 +12288,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR54">
         <v>1.06</v>
@@ -12371,7 +12416,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12577,7 +12622,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12655,7 +12700,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12989,7 +13034,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13067,7 +13112,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ58">
         <v>0.6</v>
@@ -13273,10 +13318,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.89</v>
@@ -13401,7 +13446,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13482,7 +13527,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ60">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -13891,7 +13936,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
         <v>0.25</v>
@@ -14097,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14306,7 +14351,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14431,7 +14476,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14512,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14637,7 +14682,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14843,7 +14888,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14924,7 +14969,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15049,7 +15094,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15130,7 +15175,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15333,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ69">
         <v>0.33</v>
@@ -15461,7 +15506,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15745,7 +15790,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
         <v>2.25</v>
@@ -15873,7 +15918,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16079,7 +16124,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16363,10 +16408,10 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ74">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR74">
         <v>1.9</v>
@@ -16491,7 +16536,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16697,7 +16742,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16775,7 +16820,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
         <v>1.5</v>
@@ -16903,7 +16948,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16984,7 +17029,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR77">
         <v>1.72</v>
@@ -17109,7 +17154,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17187,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78">
         <v>0.25</v>
@@ -17315,7 +17360,7 @@
         <v>165</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17396,7 +17441,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ79">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17521,7 +17566,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17599,7 +17644,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ80">
         <v>0.75</v>
@@ -17933,7 +17978,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18014,7 +18059,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18220,7 +18265,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -18629,10 +18674,10 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ85">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR85">
         <v>1.75</v>
@@ -18757,7 +18802,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18835,10 +18880,10 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.69</v>
@@ -18963,7 +19008,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19044,7 +19089,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ87">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19169,7 +19214,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19247,7 +19292,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ88">
         <v>1.5</v>
@@ -19456,7 +19501,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
         <v>1.37</v>
@@ -19581,7 +19626,7 @@
         <v>175</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19659,7 +19704,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>0.8</v>
@@ -19787,7 +19832,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19865,10 +19910,10 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ91">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR91">
         <v>2.05</v>
@@ -19993,7 +20038,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20071,10 +20116,10 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ92">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR92">
         <v>1.12</v>
@@ -20199,7 +20244,7 @@
         <v>178</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20277,10 +20322,10 @@
         <v>3</v>
       </c>
       <c r="AP93">
+        <v>1.4</v>
+      </c>
+      <c r="AQ93">
         <v>1.5</v>
-      </c>
-      <c r="AQ93">
-        <v>2</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20405,7 +20450,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20483,10 +20528,10 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20611,7 +20656,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20689,7 +20734,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ95">
         <v>1.8</v>
@@ -21104,7 +21149,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ97">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21229,7 +21274,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21310,7 +21355,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR98">
         <v>1.65</v>
@@ -21435,7 +21480,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21719,7 +21764,7 @@
         <v>0</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ100">
         <v>0</v>
@@ -21925,7 +21970,7 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>0.6</v>
@@ -22053,7 +22098,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22259,7 +22304,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22340,7 +22385,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22465,7 +22510,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22543,7 +22588,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22749,10 +22794,10 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ105">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -22877,7 +22922,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22958,7 +23003,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23083,7 +23128,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23161,10 +23206,10 @@
         <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ107">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23495,7 +23540,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23576,7 +23621,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ109">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -23701,7 +23746,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23782,7 +23827,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ110">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR110">
         <v>1.31</v>
@@ -23907,7 +23952,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24319,7 +24364,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24525,7 +24570,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24731,7 +24776,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -24809,10 +24854,10 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR115">
         <v>1.63</v>
@@ -25143,7 +25188,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25427,7 +25472,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ118">
         <v>0.8</v>
@@ -25555,7 +25600,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -25633,10 +25678,10 @@
         <v>1.25</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ119">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -25967,7 +26012,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26379,7 +26424,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26457,7 +26502,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ123">
         <v>1.5</v>
@@ -26585,7 +26630,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26666,7 +26711,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -26791,7 +26836,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -26997,7 +27042,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27078,7 +27123,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR126">
         <v>1.66</v>
@@ -27154,6 +27199,2890 @@
       </c>
       <c r="BP126">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7295360</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45409.61458333334</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>77</v>
+      </c>
+      <c r="H127" t="s">
+        <v>84</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>200</v>
+      </c>
+      <c r="P127" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q127">
+        <v>3.2</v>
+      </c>
+      <c r="R127">
+        <v>2.4</v>
+      </c>
+      <c r="S127">
+        <v>2.88</v>
+      </c>
+      <c r="T127">
+        <v>1.29</v>
+      </c>
+      <c r="U127">
+        <v>3.5</v>
+      </c>
+      <c r="V127">
+        <v>2.25</v>
+      </c>
+      <c r="W127">
+        <v>1.57</v>
+      </c>
+      <c r="X127">
+        <v>5.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.14</v>
+      </c>
+      <c r="Z127">
+        <v>2.05</v>
+      </c>
+      <c r="AA127">
+        <v>3.5</v>
+      </c>
+      <c r="AB127">
+        <v>2.9</v>
+      </c>
+      <c r="AC127">
+        <v>1.04</v>
+      </c>
+      <c r="AD127">
+        <v>10</v>
+      </c>
+      <c r="AE127">
+        <v>1.18</v>
+      </c>
+      <c r="AF127">
+        <v>4.75</v>
+      </c>
+      <c r="AG127">
+        <v>1.67</v>
+      </c>
+      <c r="AH127">
+        <v>2.05</v>
+      </c>
+      <c r="AI127">
+        <v>1.5</v>
+      </c>
+      <c r="AJ127">
+        <v>2.5</v>
+      </c>
+      <c r="AK127">
+        <v>1.57</v>
+      </c>
+      <c r="AL127">
+        <v>1.22</v>
+      </c>
+      <c r="AM127">
+        <v>1.44</v>
+      </c>
+      <c r="AN127">
+        <v>1.6</v>
+      </c>
+      <c r="AO127">
+        <v>2</v>
+      </c>
+      <c r="AP127">
+        <v>1.83</v>
+      </c>
+      <c r="AQ127">
+        <v>1.67</v>
+      </c>
+      <c r="AR127">
+        <v>1.28</v>
+      </c>
+      <c r="AS127">
+        <v>1.58</v>
+      </c>
+      <c r="AT127">
+        <v>2.86</v>
+      </c>
+      <c r="AU127">
+        <v>6</v>
+      </c>
+      <c r="AV127">
+        <v>6</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>5</v>
+      </c>
+      <c r="AY127">
+        <v>9</v>
+      </c>
+      <c r="AZ127">
+        <v>11</v>
+      </c>
+      <c r="BA127">
+        <v>2</v>
+      </c>
+      <c r="BB127">
+        <v>10</v>
+      </c>
+      <c r="BC127">
+        <v>12</v>
+      </c>
+      <c r="BD127">
+        <v>1.98</v>
+      </c>
+      <c r="BE127">
+        <v>8</v>
+      </c>
+      <c r="BF127">
+        <v>2.07</v>
+      </c>
+      <c r="BG127">
+        <v>1.12</v>
+      </c>
+      <c r="BH127">
+        <v>5</v>
+      </c>
+      <c r="BI127">
+        <v>1.3</v>
+      </c>
+      <c r="BJ127">
+        <v>2.95</v>
+      </c>
+      <c r="BK127">
+        <v>1.56</v>
+      </c>
+      <c r="BL127">
+        <v>2.2</v>
+      </c>
+      <c r="BM127">
+        <v>1.91</v>
+      </c>
+      <c r="BN127">
+        <v>1.77</v>
+      </c>
+      <c r="BO127">
+        <v>2.4</v>
+      </c>
+      <c r="BP127">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7295367</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45409.85416666666</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" t="s">
+        <v>95</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>201</v>
+      </c>
+      <c r="P128" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>2.4</v>
+      </c>
+      <c r="S128">
+        <v>6</v>
+      </c>
+      <c r="T128">
+        <v>1.33</v>
+      </c>
+      <c r="U128">
+        <v>3.25</v>
+      </c>
+      <c r="V128">
+        <v>2.5</v>
+      </c>
+      <c r="W128">
+        <v>1.5</v>
+      </c>
+      <c r="X128">
+        <v>6</v>
+      </c>
+      <c r="Y128">
+        <v>1.13</v>
+      </c>
+      <c r="Z128">
+        <v>1.6</v>
+      </c>
+      <c r="AA128">
+        <v>3.7</v>
+      </c>
+      <c r="AB128">
+        <v>4.5</v>
+      </c>
+      <c r="AC128">
+        <v>1.03</v>
+      </c>
+      <c r="AD128">
+        <v>11</v>
+      </c>
+      <c r="AE128">
+        <v>1.22</v>
+      </c>
+      <c r="AF128">
+        <v>4.2</v>
+      </c>
+      <c r="AG128">
+        <v>1.75</v>
+      </c>
+      <c r="AH128">
+        <v>1.95</v>
+      </c>
+      <c r="AI128">
+        <v>1.91</v>
+      </c>
+      <c r="AJ128">
+        <v>1.91</v>
+      </c>
+      <c r="AK128">
+        <v>1.14</v>
+      </c>
+      <c r="AL128">
+        <v>1.17</v>
+      </c>
+      <c r="AM128">
+        <v>2.4</v>
+      </c>
+      <c r="AN128">
+        <v>1.25</v>
+      </c>
+      <c r="AO128">
+        <v>0.8</v>
+      </c>
+      <c r="AP128">
+        <v>1</v>
+      </c>
+      <c r="AQ128">
+        <v>1.17</v>
+      </c>
+      <c r="AR128">
+        <v>1.86</v>
+      </c>
+      <c r="AS128">
+        <v>1.01</v>
+      </c>
+      <c r="AT128">
+        <v>2.87</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>3</v>
+      </c>
+      <c r="AX128">
+        <v>5</v>
+      </c>
+      <c r="AY128">
+        <v>7</v>
+      </c>
+      <c r="AZ128">
+        <v>10</v>
+      </c>
+      <c r="BA128">
+        <v>3</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>7</v>
+      </c>
+      <c r="BD128">
+        <v>1.4</v>
+      </c>
+      <c r="BE128">
+        <v>9.5</v>
+      </c>
+      <c r="BF128">
+        <v>3.6</v>
+      </c>
+      <c r="BG128">
+        <v>1.18</v>
+      </c>
+      <c r="BH128">
+        <v>4</v>
+      </c>
+      <c r="BI128">
+        <v>1.3</v>
+      </c>
+      <c r="BJ128">
+        <v>2.95</v>
+      </c>
+      <c r="BK128">
+        <v>1.54</v>
+      </c>
+      <c r="BL128">
+        <v>2.25</v>
+      </c>
+      <c r="BM128">
+        <v>1.88</v>
+      </c>
+      <c r="BN128">
+        <v>1.81</v>
+      </c>
+      <c r="BO128">
+        <v>2.33</v>
+      </c>
+      <c r="BP128">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7295368</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45409.85416666666</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>76</v>
+      </c>
+      <c r="H129" t="s">
+        <v>86</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>202</v>
+      </c>
+      <c r="P129" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q129">
+        <v>2.5</v>
+      </c>
+      <c r="R129">
+        <v>2.3</v>
+      </c>
+      <c r="S129">
+        <v>4</v>
+      </c>
+      <c r="T129">
+        <v>1.33</v>
+      </c>
+      <c r="U129">
+        <v>3.25</v>
+      </c>
+      <c r="V129">
+        <v>2.5</v>
+      </c>
+      <c r="W129">
+        <v>1.5</v>
+      </c>
+      <c r="X129">
+        <v>6.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.11</v>
+      </c>
+      <c r="Z129">
+        <v>1.75</v>
+      </c>
+      <c r="AA129">
+        <v>3.6</v>
+      </c>
+      <c r="AB129">
+        <v>3.7</v>
+      </c>
+      <c r="AC129">
+        <v>1.04</v>
+      </c>
+      <c r="AD129">
+        <v>10</v>
+      </c>
+      <c r="AE129">
+        <v>1.22</v>
+      </c>
+      <c r="AF129">
+        <v>4.2</v>
+      </c>
+      <c r="AG129">
+        <v>1.67</v>
+      </c>
+      <c r="AH129">
+        <v>2.05</v>
+      </c>
+      <c r="AI129">
+        <v>1.67</v>
+      </c>
+      <c r="AJ129">
+        <v>2.1</v>
+      </c>
+      <c r="AK129">
+        <v>1.25</v>
+      </c>
+      <c r="AL129">
+        <v>1.22</v>
+      </c>
+      <c r="AM129">
+        <v>1.85</v>
+      </c>
+      <c r="AN129">
+        <v>2</v>
+      </c>
+      <c r="AO129">
+        <v>1.6</v>
+      </c>
+      <c r="AP129">
+        <v>1.33</v>
+      </c>
+      <c r="AQ129">
+        <v>1.83</v>
+      </c>
+      <c r="AR129">
+        <v>1.61</v>
+      </c>
+      <c r="AS129">
+        <v>1.61</v>
+      </c>
+      <c r="AT129">
+        <v>3.22</v>
+      </c>
+      <c r="AU129">
+        <v>6</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>5</v>
+      </c>
+      <c r="AX129">
+        <v>3</v>
+      </c>
+      <c r="AY129">
+        <v>11</v>
+      </c>
+      <c r="AZ129">
+        <v>8</v>
+      </c>
+      <c r="BA129">
+        <v>4</v>
+      </c>
+      <c r="BB129">
+        <v>5</v>
+      </c>
+      <c r="BC129">
+        <v>9</v>
+      </c>
+      <c r="BD129">
+        <v>1.62</v>
+      </c>
+      <c r="BE129">
+        <v>8</v>
+      </c>
+      <c r="BF129">
+        <v>2.7</v>
+      </c>
+      <c r="BG129">
+        <v>1.26</v>
+      </c>
+      <c r="BH129">
+        <v>3.25</v>
+      </c>
+      <c r="BI129">
+        <v>1.48</v>
+      </c>
+      <c r="BJ129">
+        <v>2.35</v>
+      </c>
+      <c r="BK129">
+        <v>1.83</v>
+      </c>
+      <c r="BL129">
+        <v>1.86</v>
+      </c>
+      <c r="BM129">
+        <v>2.3</v>
+      </c>
+      <c r="BN129">
+        <v>1.5</v>
+      </c>
+      <c r="BO129">
+        <v>3</v>
+      </c>
+      <c r="BP129">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7295366</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45409.85416666666</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>94</v>
+      </c>
+      <c r="H130" t="s">
+        <v>73</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>203</v>
+      </c>
+      <c r="P130" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q130">
+        <v>2.4</v>
+      </c>
+      <c r="R130">
+        <v>2.2</v>
+      </c>
+      <c r="S130">
+        <v>4.75</v>
+      </c>
+      <c r="T130">
+        <v>1.4</v>
+      </c>
+      <c r="U130">
+        <v>2.75</v>
+      </c>
+      <c r="V130">
+        <v>3</v>
+      </c>
+      <c r="W130">
+        <v>1.36</v>
+      </c>
+      <c r="X130">
+        <v>8</v>
+      </c>
+      <c r="Y130">
+        <v>1.08</v>
+      </c>
+      <c r="Z130">
+        <v>1.73</v>
+      </c>
+      <c r="AA130">
+        <v>3.5</v>
+      </c>
+      <c r="AB130">
+        <v>4</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>9</v>
+      </c>
+      <c r="AE130">
+        <v>1.33</v>
+      </c>
+      <c r="AF130">
+        <v>3.3</v>
+      </c>
+      <c r="AG130">
+        <v>2.05</v>
+      </c>
+      <c r="AH130">
+        <v>1.7</v>
+      </c>
+      <c r="AI130">
+        <v>1.91</v>
+      </c>
+      <c r="AJ130">
+        <v>1.91</v>
+      </c>
+      <c r="AK130">
+        <v>1.2</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>1.95</v>
+      </c>
+      <c r="AN130">
+        <v>2</v>
+      </c>
+      <c r="AO130">
+        <v>0.25</v>
+      </c>
+      <c r="AP130">
+        <v>2.17</v>
+      </c>
+      <c r="AQ130">
+        <v>0.2</v>
+      </c>
+      <c r="AR130">
+        <v>1.79</v>
+      </c>
+      <c r="AS130">
+        <v>1.23</v>
+      </c>
+      <c r="AT130">
+        <v>3.02</v>
+      </c>
+      <c r="AU130">
+        <v>8</v>
+      </c>
+      <c r="AV130">
+        <v>8</v>
+      </c>
+      <c r="AW130">
+        <v>5</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>13</v>
+      </c>
+      <c r="AZ130">
+        <v>8</v>
+      </c>
+      <c r="BA130">
+        <v>6</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>1.56</v>
+      </c>
+      <c r="BE130">
+        <v>8.5</v>
+      </c>
+      <c r="BF130">
+        <v>2.88</v>
+      </c>
+      <c r="BG130">
+        <v>1.21</v>
+      </c>
+      <c r="BH130">
+        <v>3.65</v>
+      </c>
+      <c r="BI130">
+        <v>1.38</v>
+      </c>
+      <c r="BJ130">
+        <v>2.63</v>
+      </c>
+      <c r="BK130">
+        <v>1.68</v>
+      </c>
+      <c r="BL130">
+        <v>2</v>
+      </c>
+      <c r="BM130">
+        <v>2.1</v>
+      </c>
+      <c r="BN130">
+        <v>1.62</v>
+      </c>
+      <c r="BO130">
+        <v>2.7</v>
+      </c>
+      <c r="BP130">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7295365</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45409.85416666666</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>97</v>
+      </c>
+      <c r="H131" t="s">
+        <v>87</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>204</v>
+      </c>
+      <c r="P131" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q131">
+        <v>2.3</v>
+      </c>
+      <c r="R131">
+        <v>2.2</v>
+      </c>
+      <c r="S131">
+        <v>5</v>
+      </c>
+      <c r="T131">
+        <v>1.4</v>
+      </c>
+      <c r="U131">
+        <v>2.75</v>
+      </c>
+      <c r="V131">
+        <v>2.75</v>
+      </c>
+      <c r="W131">
+        <v>1.4</v>
+      </c>
+      <c r="X131">
+        <v>8</v>
+      </c>
+      <c r="Y131">
+        <v>1.08</v>
+      </c>
+      <c r="Z131">
+        <v>1.73</v>
+      </c>
+      <c r="AA131">
+        <v>3.4</v>
+      </c>
+      <c r="AB131">
+        <v>4</v>
+      </c>
+      <c r="AC131">
+        <v>1.05</v>
+      </c>
+      <c r="AD131">
+        <v>12</v>
+      </c>
+      <c r="AE131">
+        <v>1.3</v>
+      </c>
+      <c r="AF131">
+        <v>3.6</v>
+      </c>
+      <c r="AG131">
+        <v>1.95</v>
+      </c>
+      <c r="AH131">
+        <v>1.8</v>
+      </c>
+      <c r="AI131">
+        <v>1.91</v>
+      </c>
+      <c r="AJ131">
+        <v>1.91</v>
+      </c>
+      <c r="AK131">
+        <v>1.2</v>
+      </c>
+      <c r="AL131">
+        <v>1.22</v>
+      </c>
+      <c r="AM131">
+        <v>2.15</v>
+      </c>
+      <c r="AN131">
+        <v>2.33</v>
+      </c>
+      <c r="AO131">
+        <v>3</v>
+      </c>
+      <c r="AP131">
+        <v>2</v>
+      </c>
+      <c r="AQ131">
+        <v>2.5</v>
+      </c>
+      <c r="AR131">
+        <v>1.71</v>
+      </c>
+      <c r="AS131">
+        <v>1.08</v>
+      </c>
+      <c r="AT131">
+        <v>2.79</v>
+      </c>
+      <c r="AU131">
+        <v>10</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>1</v>
+      </c>
+      <c r="AX131">
+        <v>2</v>
+      </c>
+      <c r="AY131">
+        <v>11</v>
+      </c>
+      <c r="AZ131">
+        <v>7</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>4</v>
+      </c>
+      <c r="BC131">
+        <v>10</v>
+      </c>
+      <c r="BD131">
+        <v>1.48</v>
+      </c>
+      <c r="BE131">
+        <v>8.5</v>
+      </c>
+      <c r="BF131">
+        <v>3.15</v>
+      </c>
+      <c r="BG131">
+        <v>1.18</v>
+      </c>
+      <c r="BH131">
+        <v>3.95</v>
+      </c>
+      <c r="BI131">
+        <v>1.34</v>
+      </c>
+      <c r="BJ131">
+        <v>2.8</v>
+      </c>
+      <c r="BK131">
+        <v>1.6</v>
+      </c>
+      <c r="BL131">
+        <v>2.14</v>
+      </c>
+      <c r="BM131">
+        <v>1.97</v>
+      </c>
+      <c r="BN131">
+        <v>1.72</v>
+      </c>
+      <c r="BO131">
+        <v>2.48</v>
+      </c>
+      <c r="BP131">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7295363</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45409.85416666666</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>74</v>
+      </c>
+      <c r="H132" t="s">
+        <v>92</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>205</v>
+      </c>
+      <c r="P132" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q132">
+        <v>3</v>
+      </c>
+      <c r="R132">
+        <v>2.2</v>
+      </c>
+      <c r="S132">
+        <v>3.5</v>
+      </c>
+      <c r="T132">
+        <v>1.36</v>
+      </c>
+      <c r="U132">
+        <v>3</v>
+      </c>
+      <c r="V132">
+        <v>2.75</v>
+      </c>
+      <c r="W132">
+        <v>1.4</v>
+      </c>
+      <c r="X132">
+        <v>7</v>
+      </c>
+      <c r="Y132">
+        <v>1.1</v>
+      </c>
+      <c r="Z132">
+        <v>2.15</v>
+      </c>
+      <c r="AA132">
+        <v>3.3</v>
+      </c>
+      <c r="AB132">
+        <v>2.87</v>
+      </c>
+      <c r="AC132">
+        <v>1.05</v>
+      </c>
+      <c r="AD132">
+        <v>9.5</v>
+      </c>
+      <c r="AE132">
+        <v>1.25</v>
+      </c>
+      <c r="AF132">
+        <v>3.75</v>
+      </c>
+      <c r="AG132">
+        <v>1.8</v>
+      </c>
+      <c r="AH132">
+        <v>1.95</v>
+      </c>
+      <c r="AI132">
+        <v>1.7</v>
+      </c>
+      <c r="AJ132">
+        <v>2.05</v>
+      </c>
+      <c r="AK132">
+        <v>1.4</v>
+      </c>
+      <c r="AL132">
+        <v>1.25</v>
+      </c>
+      <c r="AM132">
+        <v>1.57</v>
+      </c>
+      <c r="AN132">
+        <v>1.5</v>
+      </c>
+      <c r="AO132">
+        <v>0.25</v>
+      </c>
+      <c r="AP132">
+        <v>1.8</v>
+      </c>
+      <c r="AQ132">
+        <v>0.2</v>
+      </c>
+      <c r="AR132">
+        <v>1.89</v>
+      </c>
+      <c r="AS132">
+        <v>1.47</v>
+      </c>
+      <c r="AT132">
+        <v>3.36</v>
+      </c>
+      <c r="AU132">
+        <v>7</v>
+      </c>
+      <c r="AV132">
+        <v>6</v>
+      </c>
+      <c r="AW132">
+        <v>5</v>
+      </c>
+      <c r="AX132">
+        <v>2</v>
+      </c>
+      <c r="AY132">
+        <v>12</v>
+      </c>
+      <c r="AZ132">
+        <v>8</v>
+      </c>
+      <c r="BA132">
+        <v>4</v>
+      </c>
+      <c r="BB132">
+        <v>6</v>
+      </c>
+      <c r="BC132">
+        <v>10</v>
+      </c>
+      <c r="BD132">
+        <v>1.81</v>
+      </c>
+      <c r="BE132">
+        <v>7.5</v>
+      </c>
+      <c r="BF132">
+        <v>2.32</v>
+      </c>
+      <c r="BG132">
+        <v>1.29</v>
+      </c>
+      <c r="BH132">
+        <v>3.05</v>
+      </c>
+      <c r="BI132">
+        <v>1.53</v>
+      </c>
+      <c r="BJ132">
+        <v>2.25</v>
+      </c>
+      <c r="BK132">
+        <v>1.92</v>
+      </c>
+      <c r="BL132">
+        <v>1.77</v>
+      </c>
+      <c r="BM132">
+        <v>2.43</v>
+      </c>
+      <c r="BN132">
+        <v>1.46</v>
+      </c>
+      <c r="BO132">
+        <v>3.2</v>
+      </c>
+      <c r="BP132">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7295362</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45409.85416666666</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>98</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>104</v>
+      </c>
+      <c r="P133" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q133">
+        <v>2.05</v>
+      </c>
+      <c r="R133">
+        <v>2.5</v>
+      </c>
+      <c r="S133">
+        <v>5.5</v>
+      </c>
+      <c r="T133">
+        <v>1.29</v>
+      </c>
+      <c r="U133">
+        <v>3.5</v>
+      </c>
+      <c r="V133">
+        <v>2.38</v>
+      </c>
+      <c r="W133">
+        <v>1.53</v>
+      </c>
+      <c r="X133">
+        <v>5.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.14</v>
+      </c>
+      <c r="Z133">
+        <v>1.5</v>
+      </c>
+      <c r="AA133">
+        <v>4</v>
+      </c>
+      <c r="AB133">
+        <v>5</v>
+      </c>
+      <c r="AC133">
+        <v>1.02</v>
+      </c>
+      <c r="AD133">
+        <v>17</v>
+      </c>
+      <c r="AE133">
+        <v>1.2</v>
+      </c>
+      <c r="AF133">
+        <v>4.5</v>
+      </c>
+      <c r="AG133">
+        <v>1.6</v>
+      </c>
+      <c r="AH133">
+        <v>2.2</v>
+      </c>
+      <c r="AI133">
+        <v>1.7</v>
+      </c>
+      <c r="AJ133">
+        <v>2.05</v>
+      </c>
+      <c r="AK133">
+        <v>1.12</v>
+      </c>
+      <c r="AL133">
+        <v>1.17</v>
+      </c>
+      <c r="AM133">
+        <v>2.6</v>
+      </c>
+      <c r="AN133">
+        <v>2.2</v>
+      </c>
+      <c r="AO133">
+        <v>1.17</v>
+      </c>
+      <c r="AP133">
+        <v>2</v>
+      </c>
+      <c r="AQ133">
+        <v>1.14</v>
+      </c>
+      <c r="AR133">
+        <v>1.78</v>
+      </c>
+      <c r="AS133">
+        <v>1.09</v>
+      </c>
+      <c r="AT133">
+        <v>2.87</v>
+      </c>
+      <c r="AU133">
+        <v>5</v>
+      </c>
+      <c r="AV133">
+        <v>4</v>
+      </c>
+      <c r="AW133">
+        <v>4</v>
+      </c>
+      <c r="AX133">
+        <v>4</v>
+      </c>
+      <c r="AY133">
+        <v>9</v>
+      </c>
+      <c r="AZ133">
+        <v>8</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>9</v>
+      </c>
+      <c r="BD133">
+        <v>1.43</v>
+      </c>
+      <c r="BE133">
+        <v>8.5</v>
+      </c>
+      <c r="BF133">
+        <v>3.45</v>
+      </c>
+      <c r="BG133">
+        <v>1.27</v>
+      </c>
+      <c r="BH133">
+        <v>3.15</v>
+      </c>
+      <c r="BI133">
+        <v>1.5</v>
+      </c>
+      <c r="BJ133">
+        <v>2.33</v>
+      </c>
+      <c r="BK133">
+        <v>1.86</v>
+      </c>
+      <c r="BL133">
+        <v>1.83</v>
+      </c>
+      <c r="BM133">
+        <v>2.35</v>
+      </c>
+      <c r="BN133">
+        <v>1.49</v>
+      </c>
+      <c r="BO133">
+        <v>3.1</v>
+      </c>
+      <c r="BP133">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7295361</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45409.85416666666</v>
+      </c>
+      <c r="F134">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>82</v>
+      </c>
+      <c r="H134" t="s">
+        <v>90</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>152</v>
+      </c>
+      <c r="P134" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q134">
+        <v>2.2</v>
+      </c>
+      <c r="R134">
+        <v>2.25</v>
+      </c>
+      <c r="S134">
+        <v>4.7</v>
+      </c>
+      <c r="T134">
+        <v>1.35</v>
+      </c>
+      <c r="U134">
+        <v>3.05</v>
+      </c>
+      <c r="V134">
+        <v>2.55</v>
+      </c>
+      <c r="W134">
+        <v>1.45</v>
+      </c>
+      <c r="X134">
+        <v>5.75</v>
+      </c>
+      <c r="Y134">
+        <v>1.1</v>
+      </c>
+      <c r="Z134">
+        <v>1.7</v>
+      </c>
+      <c r="AA134">
+        <v>3.6</v>
+      </c>
+      <c r="AB134">
+        <v>4</v>
+      </c>
+      <c r="AC134">
+        <v>1.04</v>
+      </c>
+      <c r="AD134">
+        <v>13.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.25</v>
+      </c>
+      <c r="AF134">
+        <v>3.95</v>
+      </c>
+      <c r="AG134">
+        <v>1.75</v>
+      </c>
+      <c r="AH134">
+        <v>1.95</v>
+      </c>
+      <c r="AI134">
+        <v>1.78</v>
+      </c>
+      <c r="AJ134">
+        <v>2.05</v>
+      </c>
+      <c r="AK134">
+        <v>1.22</v>
+      </c>
+      <c r="AL134">
+        <v>1.27</v>
+      </c>
+      <c r="AM134">
+        <v>2.05</v>
+      </c>
+      <c r="AN134">
+        <v>1.25</v>
+      </c>
+      <c r="AO134">
+        <v>1.6</v>
+      </c>
+      <c r="AP134">
+        <v>1.6</v>
+      </c>
+      <c r="AQ134">
+        <v>1.33</v>
+      </c>
+      <c r="AR134">
+        <v>1.41</v>
+      </c>
+      <c r="AS134">
+        <v>1.4</v>
+      </c>
+      <c r="AT134">
+        <v>2.81</v>
+      </c>
+      <c r="AU134">
+        <v>10</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>8</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+      <c r="AY134">
+        <v>18</v>
+      </c>
+      <c r="AZ134">
+        <v>8</v>
+      </c>
+      <c r="BA134">
+        <v>4</v>
+      </c>
+      <c r="BB134">
+        <v>6</v>
+      </c>
+      <c r="BC134">
+        <v>10</v>
+      </c>
+      <c r="BD134">
+        <v>1.58</v>
+      </c>
+      <c r="BE134">
+        <v>8</v>
+      </c>
+      <c r="BF134">
+        <v>2.75</v>
+      </c>
+      <c r="BG134">
+        <v>1.19</v>
+      </c>
+      <c r="BH134">
+        <v>3.85</v>
+      </c>
+      <c r="BI134">
+        <v>1.36</v>
+      </c>
+      <c r="BJ134">
+        <v>2.7</v>
+      </c>
+      <c r="BK134">
+        <v>1.64</v>
+      </c>
+      <c r="BL134">
+        <v>2.08</v>
+      </c>
+      <c r="BM134">
+        <v>2.02</v>
+      </c>
+      <c r="BN134">
+        <v>1.67</v>
+      </c>
+      <c r="BO134">
+        <v>2.6</v>
+      </c>
+      <c r="BP134">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7295364</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45409.85416666666</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>93</v>
+      </c>
+      <c r="H135" t="s">
+        <v>70</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+      <c r="N135">
+        <v>5</v>
+      </c>
+      <c r="O135" t="s">
+        <v>206</v>
+      </c>
+      <c r="P135" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q135">
+        <v>3.5</v>
+      </c>
+      <c r="R135">
+        <v>2.4</v>
+      </c>
+      <c r="S135">
+        <v>2.63</v>
+      </c>
+      <c r="T135">
+        <v>1.29</v>
+      </c>
+      <c r="U135">
+        <v>3.5</v>
+      </c>
+      <c r="V135">
+        <v>2.25</v>
+      </c>
+      <c r="W135">
+        <v>1.57</v>
+      </c>
+      <c r="X135">
+        <v>5.5</v>
+      </c>
+      <c r="Y135">
+        <v>1.14</v>
+      </c>
+      <c r="Z135">
+        <v>2.7</v>
+      </c>
+      <c r="AA135">
+        <v>3.5</v>
+      </c>
+      <c r="AB135">
+        <v>2.15</v>
+      </c>
+      <c r="AC135">
+        <v>1.03</v>
+      </c>
+      <c r="AD135">
+        <v>11</v>
+      </c>
+      <c r="AE135">
+        <v>1.18</v>
+      </c>
+      <c r="AF135">
+        <v>4.75</v>
+      </c>
+      <c r="AG135">
+        <v>1.8</v>
+      </c>
+      <c r="AH135">
+        <v>1.91</v>
+      </c>
+      <c r="AI135">
+        <v>1.53</v>
+      </c>
+      <c r="AJ135">
+        <v>2.38</v>
+      </c>
+      <c r="AK135">
+        <v>1.65</v>
+      </c>
+      <c r="AL135">
+        <v>1.2</v>
+      </c>
+      <c r="AM135">
+        <v>1.4</v>
+      </c>
+      <c r="AN135">
+        <v>1</v>
+      </c>
+      <c r="AO135">
+        <v>1.75</v>
+      </c>
+      <c r="AP135">
+        <v>0.8</v>
+      </c>
+      <c r="AQ135">
+        <v>2</v>
+      </c>
+      <c r="AR135">
+        <v>1.64</v>
+      </c>
+      <c r="AS135">
+        <v>1.4</v>
+      </c>
+      <c r="AT135">
+        <v>3.04</v>
+      </c>
+      <c r="AU135">
+        <v>2</v>
+      </c>
+      <c r="AV135">
+        <v>7</v>
+      </c>
+      <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
+        <v>7</v>
+      </c>
+      <c r="AZ135">
+        <v>11</v>
+      </c>
+      <c r="BA135">
+        <v>2</v>
+      </c>
+      <c r="BB135">
+        <v>4</v>
+      </c>
+      <c r="BC135">
+        <v>6</v>
+      </c>
+      <c r="BD135">
+        <v>2.08</v>
+      </c>
+      <c r="BE135">
+        <v>7.5</v>
+      </c>
+      <c r="BF135">
+        <v>1.98</v>
+      </c>
+      <c r="BG135">
+        <v>1.27</v>
+      </c>
+      <c r="BH135">
+        <v>3.15</v>
+      </c>
+      <c r="BI135">
+        <v>1.5</v>
+      </c>
+      <c r="BJ135">
+        <v>2.32</v>
+      </c>
+      <c r="BK135">
+        <v>1.87</v>
+      </c>
+      <c r="BL135">
+        <v>1.82</v>
+      </c>
+      <c r="BM135">
+        <v>2.35</v>
+      </c>
+      <c r="BN135">
+        <v>1.48</v>
+      </c>
+      <c r="BO135">
+        <v>3.1</v>
+      </c>
+      <c r="BP135">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7295371</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45409.89583333334</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>85</v>
+      </c>
+      <c r="H136" t="s">
+        <v>89</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>207</v>
+      </c>
+      <c r="P136" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q136">
+        <v>2.6</v>
+      </c>
+      <c r="R136">
+        <v>2.38</v>
+      </c>
+      <c r="S136">
+        <v>3.75</v>
+      </c>
+      <c r="T136">
+        <v>1.3</v>
+      </c>
+      <c r="U136">
+        <v>3.4</v>
+      </c>
+      <c r="V136">
+        <v>2.5</v>
+      </c>
+      <c r="W136">
+        <v>1.5</v>
+      </c>
+      <c r="X136">
+        <v>6</v>
+      </c>
+      <c r="Y136">
+        <v>1.13</v>
+      </c>
+      <c r="Z136">
+        <v>1.95</v>
+      </c>
+      <c r="AA136">
+        <v>3.1</v>
+      </c>
+      <c r="AB136">
+        <v>3.5</v>
+      </c>
+      <c r="AC136">
+        <v>1.04</v>
+      </c>
+      <c r="AD136">
+        <v>10</v>
+      </c>
+      <c r="AE136">
+        <v>1.2</v>
+      </c>
+      <c r="AF136">
+        <v>4.33</v>
+      </c>
+      <c r="AG136">
+        <v>1.7</v>
+      </c>
+      <c r="AH136">
+        <v>2</v>
+      </c>
+      <c r="AI136">
+        <v>1.57</v>
+      </c>
+      <c r="AJ136">
+        <v>2.25</v>
+      </c>
+      <c r="AK136">
+        <v>1.28</v>
+      </c>
+      <c r="AL136">
+        <v>1.25</v>
+      </c>
+      <c r="AM136">
+        <v>1.75</v>
+      </c>
+      <c r="AN136">
+        <v>1.25</v>
+      </c>
+      <c r="AO136">
+        <v>1.67</v>
+      </c>
+      <c r="AP136">
+        <v>1.6</v>
+      </c>
+      <c r="AQ136">
+        <v>1.25</v>
+      </c>
+      <c r="AR136">
+        <v>1.75</v>
+      </c>
+      <c r="AS136">
+        <v>1.43</v>
+      </c>
+      <c r="AT136">
+        <v>3.18</v>
+      </c>
+      <c r="AU136">
+        <v>6</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
+        <v>2</v>
+      </c>
+      <c r="AX136">
+        <v>3</v>
+      </c>
+      <c r="AY136">
+        <v>8</v>
+      </c>
+      <c r="AZ136">
+        <v>7</v>
+      </c>
+      <c r="BA136">
+        <v>5</v>
+      </c>
+      <c r="BB136">
+        <v>4</v>
+      </c>
+      <c r="BC136">
+        <v>9</v>
+      </c>
+      <c r="BD136">
+        <v>1.63</v>
+      </c>
+      <c r="BE136">
+        <v>8</v>
+      </c>
+      <c r="BF136">
+        <v>2.63</v>
+      </c>
+      <c r="BG136">
+        <v>1.13</v>
+      </c>
+      <c r="BH136">
+        <v>4.85</v>
+      </c>
+      <c r="BI136">
+        <v>1.29</v>
+      </c>
+      <c r="BJ136">
+        <v>3.05</v>
+      </c>
+      <c r="BK136">
+        <v>1.5</v>
+      </c>
+      <c r="BL136">
+        <v>2.3</v>
+      </c>
+      <c r="BM136">
+        <v>1.85</v>
+      </c>
+      <c r="BN136">
+        <v>1.84</v>
+      </c>
+      <c r="BO136">
+        <v>2.3</v>
+      </c>
+      <c r="BP136">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7295369</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45409.89583333334</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>88</v>
+      </c>
+      <c r="H137" t="s">
+        <v>96</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137" t="s">
+        <v>104</v>
+      </c>
+      <c r="P137" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q137">
+        <v>2.75</v>
+      </c>
+      <c r="R137">
+        <v>2.38</v>
+      </c>
+      <c r="S137">
+        <v>3.4</v>
+      </c>
+      <c r="T137">
+        <v>1.29</v>
+      </c>
+      <c r="U137">
+        <v>3.5</v>
+      </c>
+      <c r="V137">
+        <v>2.38</v>
+      </c>
+      <c r="W137">
+        <v>1.53</v>
+      </c>
+      <c r="X137">
+        <v>5.5</v>
+      </c>
+      <c r="Y137">
+        <v>1.14</v>
+      </c>
+      <c r="Z137">
+        <v>2.05</v>
+      </c>
+      <c r="AA137">
+        <v>3.1</v>
+      </c>
+      <c r="AB137">
+        <v>3.3</v>
+      </c>
+      <c r="AC137">
+        <v>1.04</v>
+      </c>
+      <c r="AD137">
+        <v>10</v>
+      </c>
+      <c r="AE137">
+        <v>1.2</v>
+      </c>
+      <c r="AF137">
+        <v>4.5</v>
+      </c>
+      <c r="AG137">
+        <v>1.73</v>
+      </c>
+      <c r="AH137">
+        <v>2</v>
+      </c>
+      <c r="AI137">
+        <v>1.53</v>
+      </c>
+      <c r="AJ137">
+        <v>2.38</v>
+      </c>
+      <c r="AK137">
+        <v>1.36</v>
+      </c>
+      <c r="AL137">
+        <v>1.22</v>
+      </c>
+      <c r="AM137">
+        <v>1.67</v>
+      </c>
+      <c r="AN137">
+        <v>1.5</v>
+      </c>
+      <c r="AO137">
+        <v>0.33</v>
+      </c>
+      <c r="AP137">
+        <v>1.4</v>
+      </c>
+      <c r="AQ137">
+        <v>0.5</v>
+      </c>
+      <c r="AR137">
+        <v>1.51</v>
+      </c>
+      <c r="AS137">
+        <v>1.31</v>
+      </c>
+      <c r="AT137">
+        <v>2.82</v>
+      </c>
+      <c r="AU137">
+        <v>0</v>
+      </c>
+      <c r="AV137">
+        <v>6</v>
+      </c>
+      <c r="AW137">
+        <v>7</v>
+      </c>
+      <c r="AX137">
+        <v>9</v>
+      </c>
+      <c r="AY137">
+        <v>7</v>
+      </c>
+      <c r="AZ137">
+        <v>15</v>
+      </c>
+      <c r="BA137">
+        <v>3</v>
+      </c>
+      <c r="BB137">
+        <v>8</v>
+      </c>
+      <c r="BC137">
+        <v>11</v>
+      </c>
+      <c r="BD137">
+        <v>1.75</v>
+      </c>
+      <c r="BE137">
+        <v>8</v>
+      </c>
+      <c r="BF137">
+        <v>2.4</v>
+      </c>
+      <c r="BG137">
+        <v>1.17</v>
+      </c>
+      <c r="BH137">
+        <v>4.1</v>
+      </c>
+      <c r="BI137">
+        <v>1.32</v>
+      </c>
+      <c r="BJ137">
+        <v>2.88</v>
+      </c>
+      <c r="BK137">
+        <v>1.57</v>
+      </c>
+      <c r="BL137">
+        <v>2.18</v>
+      </c>
+      <c r="BM137">
+        <v>1.94</v>
+      </c>
+      <c r="BN137">
+        <v>1.75</v>
+      </c>
+      <c r="BO137">
+        <v>2.43</v>
+      </c>
+      <c r="BP137">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7295370</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45409.89583333334</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s">
+        <v>79</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>208</v>
+      </c>
+      <c r="P138" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q138">
+        <v>3.4</v>
+      </c>
+      <c r="R138">
+        <v>2</v>
+      </c>
+      <c r="S138">
+        <v>3.5</v>
+      </c>
+      <c r="T138">
+        <v>1.5</v>
+      </c>
+      <c r="U138">
+        <v>2.5</v>
+      </c>
+      <c r="V138">
+        <v>3.4</v>
+      </c>
+      <c r="W138">
+        <v>1.3</v>
+      </c>
+      <c r="X138">
+        <v>10</v>
+      </c>
+      <c r="Y138">
+        <v>1.06</v>
+      </c>
+      <c r="Z138">
+        <v>2.37</v>
+      </c>
+      <c r="AA138">
+        <v>3.1</v>
+      </c>
+      <c r="AB138">
+        <v>2.75</v>
+      </c>
+      <c r="AC138">
+        <v>1.08</v>
+      </c>
+      <c r="AD138">
+        <v>8.5</v>
+      </c>
+      <c r="AE138">
+        <v>1.42</v>
+      </c>
+      <c r="AF138">
+        <v>2.9</v>
+      </c>
+      <c r="AG138">
+        <v>2.1</v>
+      </c>
+      <c r="AH138">
+        <v>1.65</v>
+      </c>
+      <c r="AI138">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>1.44</v>
+      </c>
+      <c r="AL138">
+        <v>1.3</v>
+      </c>
+      <c r="AM138">
+        <v>1.55</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
+        <v>2</v>
+      </c>
+      <c r="AP138">
+        <v>1.4</v>
+      </c>
+      <c r="AQ138">
+        <v>1.5</v>
+      </c>
+      <c r="AR138">
+        <v>1.63</v>
+      </c>
+      <c r="AS138">
+        <v>1</v>
+      </c>
+      <c r="AT138">
+        <v>2.63</v>
+      </c>
+      <c r="AU138">
+        <v>6</v>
+      </c>
+      <c r="AV138">
+        <v>0</v>
+      </c>
+      <c r="AW138">
+        <v>10</v>
+      </c>
+      <c r="AX138">
+        <v>2</v>
+      </c>
+      <c r="AY138">
+        <v>16</v>
+      </c>
+      <c r="AZ138">
+        <v>2</v>
+      </c>
+      <c r="BA138">
+        <v>9</v>
+      </c>
+      <c r="BB138">
+        <v>1</v>
+      </c>
+      <c r="BC138">
+        <v>10</v>
+      </c>
+      <c r="BD138">
+        <v>1.87</v>
+      </c>
+      <c r="BE138">
+        <v>7.5</v>
+      </c>
+      <c r="BF138">
+        <v>2.23</v>
+      </c>
+      <c r="BG138">
+        <v>1.28</v>
+      </c>
+      <c r="BH138">
+        <v>3.1</v>
+      </c>
+      <c r="BI138">
+        <v>1.53</v>
+      </c>
+      <c r="BJ138">
+        <v>2.28</v>
+      </c>
+      <c r="BK138">
+        <v>1.9</v>
+      </c>
+      <c r="BL138">
+        <v>1.79</v>
+      </c>
+      <c r="BM138">
+        <v>2.4</v>
+      </c>
+      <c r="BN138">
+        <v>1.47</v>
+      </c>
+      <c r="BO138">
+        <v>3.15</v>
+      </c>
+      <c r="BP138">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7295372</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45409.89583333334</v>
+      </c>
+      <c r="F139">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>83</v>
+      </c>
+      <c r="H139" t="s">
+        <v>91</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>119</v>
+      </c>
+      <c r="P139" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q139">
+        <v>2.6</v>
+      </c>
+      <c r="R139">
+        <v>2.25</v>
+      </c>
+      <c r="S139">
+        <v>4</v>
+      </c>
+      <c r="T139">
+        <v>1.36</v>
+      </c>
+      <c r="U139">
+        <v>3</v>
+      </c>
+      <c r="V139">
+        <v>2.63</v>
+      </c>
+      <c r="W139">
+        <v>1.44</v>
+      </c>
+      <c r="X139">
+        <v>7</v>
+      </c>
+      <c r="Y139">
+        <v>1.1</v>
+      </c>
+      <c r="Z139">
+        <v>1.85</v>
+      </c>
+      <c r="AA139">
+        <v>3.2</v>
+      </c>
+      <c r="AB139">
+        <v>3.75</v>
+      </c>
+      <c r="AC139">
+        <v>1.05</v>
+      </c>
+      <c r="AD139">
+        <v>9.5</v>
+      </c>
+      <c r="AE139">
+        <v>1.25</v>
+      </c>
+      <c r="AF139">
+        <v>3.8</v>
+      </c>
+      <c r="AG139">
+        <v>1.65</v>
+      </c>
+      <c r="AH139">
+        <v>2.1</v>
+      </c>
+      <c r="AI139">
+        <v>1.67</v>
+      </c>
+      <c r="AJ139">
+        <v>2.1</v>
+      </c>
+      <c r="AK139">
+        <v>1.28</v>
+      </c>
+      <c r="AL139">
+        <v>1.25</v>
+      </c>
+      <c r="AM139">
+        <v>1.77</v>
+      </c>
+      <c r="AN139">
+        <v>1.2</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AP139">
+        <v>1.17</v>
+      </c>
+      <c r="AQ139">
+        <v>0.17</v>
+      </c>
+      <c r="AR139">
+        <v>1.15</v>
+      </c>
+      <c r="AS139">
+        <v>1.4</v>
+      </c>
+      <c r="AT139">
+        <v>2.55</v>
+      </c>
+      <c r="AU139">
+        <v>6</v>
+      </c>
+      <c r="AV139">
+        <v>5</v>
+      </c>
+      <c r="AW139">
+        <v>7</v>
+      </c>
+      <c r="AX139">
+        <v>2</v>
+      </c>
+      <c r="AY139">
+        <v>13</v>
+      </c>
+      <c r="AZ139">
+        <v>7</v>
+      </c>
+      <c r="BA139">
+        <v>7</v>
+      </c>
+      <c r="BB139">
+        <v>5</v>
+      </c>
+      <c r="BC139">
+        <v>12</v>
+      </c>
+      <c r="BD139">
+        <v>1.57</v>
+      </c>
+      <c r="BE139">
+        <v>7.5</v>
+      </c>
+      <c r="BF139">
+        <v>2.95</v>
+      </c>
+      <c r="BG139">
+        <v>1.16</v>
+      </c>
+      <c r="BH139">
+        <v>4.3</v>
+      </c>
+      <c r="BI139">
+        <v>1.33</v>
+      </c>
+      <c r="BJ139">
+        <v>2.91</v>
+      </c>
+      <c r="BK139">
+        <v>1.77</v>
+      </c>
+      <c r="BL139">
+        <v>1.93</v>
+      </c>
+      <c r="BM139">
+        <v>2.04</v>
+      </c>
+      <c r="BN139">
+        <v>1.78</v>
+      </c>
+      <c r="BO139">
+        <v>2.62</v>
+      </c>
+      <c r="BP139">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7295373</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45409.97916666666</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140" t="s">
+        <v>81</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>5</v>
+      </c>
+      <c r="O140" t="s">
+        <v>209</v>
+      </c>
+      <c r="P140" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q140">
+        <v>2</v>
+      </c>
+      <c r="R140">
+        <v>2.5</v>
+      </c>
+      <c r="S140">
+        <v>5.5</v>
+      </c>
+      <c r="T140">
+        <v>1.29</v>
+      </c>
+      <c r="U140">
+        <v>3.5</v>
+      </c>
+      <c r="V140">
+        <v>2.25</v>
+      </c>
+      <c r="W140">
+        <v>1.57</v>
+      </c>
+      <c r="X140">
+        <v>5.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.14</v>
+      </c>
+      <c r="Z140">
+        <v>1.48</v>
+      </c>
+      <c r="AA140">
+        <v>4.2</v>
+      </c>
+      <c r="AB140">
+        <v>5</v>
+      </c>
+      <c r="AC140">
+        <v>1.02</v>
+      </c>
+      <c r="AD140">
+        <v>19</v>
+      </c>
+      <c r="AE140">
+        <v>1.18</v>
+      </c>
+      <c r="AF140">
+        <v>5</v>
+      </c>
+      <c r="AG140">
+        <v>1.55</v>
+      </c>
+      <c r="AH140">
+        <v>2.3</v>
+      </c>
+      <c r="AI140">
+        <v>1.7</v>
+      </c>
+      <c r="AJ140">
+        <v>2.05</v>
+      </c>
+      <c r="AK140">
+        <v>1.11</v>
+      </c>
+      <c r="AL140">
+        <v>1.16</v>
+      </c>
+      <c r="AM140">
+        <v>2.75</v>
+      </c>
+      <c r="AN140">
+        <v>2.2</v>
+      </c>
+      <c r="AO140">
+        <v>1</v>
+      </c>
+      <c r="AP140">
+        <v>2.33</v>
+      </c>
+      <c r="AQ140">
+        <v>0.83</v>
+      </c>
+      <c r="AR140">
+        <v>2</v>
+      </c>
+      <c r="AS140">
+        <v>1.27</v>
+      </c>
+      <c r="AT140">
+        <v>3.27</v>
+      </c>
+      <c r="AU140">
+        <v>11</v>
+      </c>
+      <c r="AV140">
+        <v>5</v>
+      </c>
+      <c r="AW140">
+        <v>7</v>
+      </c>
+      <c r="AX140">
+        <v>2</v>
+      </c>
+      <c r="AY140">
+        <v>18</v>
+      </c>
+      <c r="AZ140">
+        <v>7</v>
+      </c>
+      <c r="BA140">
+        <v>8</v>
+      </c>
+      <c r="BB140">
+        <v>3</v>
+      </c>
+      <c r="BC140">
+        <v>11</v>
+      </c>
+      <c r="BD140">
+        <v>1.38</v>
+      </c>
+      <c r="BE140">
+        <v>9.5</v>
+      </c>
+      <c r="BF140">
+        <v>3.65</v>
+      </c>
+      <c r="BG140">
+        <v>1.17</v>
+      </c>
+      <c r="BH140">
+        <v>4.1</v>
+      </c>
+      <c r="BI140">
+        <v>1.26</v>
+      </c>
+      <c r="BJ140">
+        <v>3.2</v>
+      </c>
+      <c r="BK140">
+        <v>1.47</v>
+      </c>
+      <c r="BL140">
+        <v>2.38</v>
+      </c>
+      <c r="BM140">
+        <v>1.8</v>
+      </c>
+      <c r="BN140">
+        <v>1.89</v>
+      </c>
+      <c r="BO140">
+        <v>2.23</v>
+      </c>
+      <c r="BP140">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -631,7 +631,7 @@
     <t>['56']</t>
   </si>
   <si>
-    <t>['32', '44']</t>
+    <t>['32', '45']</t>
   </si>
   <si>
     <t>['1']</t>
@@ -28374,7 +28374,7 @@
         <v>7</v>
       </c>
       <c r="AV132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW132">
         <v>5</v>
@@ -28386,7 +28386,7 @@
         <v>12</v>
       </c>
       <c r="AZ132">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA132">
         <v>4</v>
